--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8263518223330697</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06610814578664558</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06115574960149644</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007431588526196876</v>
+        <v>0.01017498303960121</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002296844530472762</v>
+        <v>0.002153748108486106</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007778217303372265</v>
+        <v>0.0007799284865630284</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001910432155232275</v>
+        <v>0.005834857938482207</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007780313632173346</v>
+        <v>0.0007758728493780159</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006254368104664537</v>
+        <v>0.01280586188862737</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007829868173353617</v>
+        <v>0.0007718022393998247</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01388908069050915</v>
+        <v>0.002153748108486106</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00073946224572071</v>
+        <v>0.0007799284865630284</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003363456622996391</v>
+        <v>0.00411034399640739</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001555643460674453</v>
+        <v>0.001559856973126057</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01199999999999998</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001598799999999999</v>
+        <v>0.001756923076923074</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01264990759683216</v>
+        <v>0.02414146408518469</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001565973634670723</v>
+        <v>0.001543604478799649</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02572486893642439</v>
+        <v>0.00411034399640739</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00147892449144142</v>
+        <v>0.001559856973126057</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002477196175398959</v>
+        <v>0.001998499999999999</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005212341844143958</v>
+        <v>0.01432709054573011</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002334094089652004</v>
+        <v>0.002327618548134047</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01808869582812461</v>
+        <v>0.03380726100439591</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002348960452006085</v>
+        <v>0.002315406718199474</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03686000946284673</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00221838673716213</v>
+        <v>0.001998499999999999</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006090555482447232</v>
+        <v>0.006624979210870512</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003111286921348906</v>
+        <v>0.003119713946252114</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006595277299934282</v>
+        <v>0.01783401016153949</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003112125452869338</v>
+        <v>0.003103491397512064</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02247281015016359</v>
+        <v>0.04110370706098476</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003131947269341447</v>
+        <v>0.003087208957599299</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04454714699487727</v>
+        <v>0.006624979210870512</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00295784898288284</v>
+        <v>0.003119713946252114</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002477196175398959</v>
+        <v>0.001998499999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008041260207228403</v>
+        <v>0.008064123879990136</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003889108651686133</v>
+        <v>0.003899642432815142</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007581244817194945</v>
+        <v>0.02120270769202898</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003890156816086673</v>
+        <v>0.003879364246890079</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02599999999999997</v>
+        <v>0.04499999999999998</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003848962962962958</v>
+        <v>0.003526764705882351</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05099999999999999</v>
+        <v>0.008064123879990136</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003846169811320754</v>
+        <v>0.003899642432815142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007860584265106059</v>
+        <v>0.009022411004174287</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00466693038202336</v>
+        <v>0.004679570919378171</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008582162471249197</v>
+        <v>0.02382546847214084</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004668188179304008</v>
+        <v>0.004655237096268095</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02830408351418939</v>
+        <v>0.04942853062653346</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004697920904012169</v>
+        <v>0.004630813436398948</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05262937237955895</v>
+        <v>0.009022411004174287</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00443677347432426</v>
+        <v>0.004679570919378171</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007578314908581595</v>
+        <v>0.01010080222078677</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005444752112360586</v>
+        <v>0.0054594994059412</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009709948337420275</v>
+        <v>0.02699457783681722</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005446219542521342</v>
+        <v>0.005431109945646111</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02958120282378399</v>
+        <v>0.05221721036594545</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005480907721347531</v>
+        <v>0.005402615675798773</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0532672209156288</v>
+        <v>0.01010080222078677</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005176235720044971</v>
+        <v>0.0054594994059412</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009224239390156395</v>
+        <v>0.0114002591671914</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006222573842697812</v>
+        <v>0.006239427892504227</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01077652049103139</v>
+        <v>0.02970232112100035</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006224250905738677</v>
+        <v>0.006206982795024127</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03166612643712352</v>
+        <v>0.05326480791267907</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006263894538682893</v>
+        <v>0.006174417915198597</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05426348756002936</v>
+        <v>0.0114002591671914</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00591569796576568</v>
+        <v>0.006239427892504227</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01082814496233187</v>
+        <v>0.01212174348075196</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007000395573035039</v>
+        <v>0.007019356379067256</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0116937970074058</v>
+        <v>0.03204098365963254</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007002282268956011</v>
+        <v>0.006982855644402142</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03248545695627283</v>
+        <v>0.05507342976323015</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007046881356018254</v>
+        <v>0.006946220154598422</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05586977971707924</v>
+        <v>0.01212174348075196</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00665516021148639</v>
+        <v>0.007019356379067256</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.0130662167988323</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007431588526196876</v>
+        <v>0.007799284865630284</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01247369596186671</v>
+        <v>0.03400285078765594</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007780313632173346</v>
+        <v>0.007758728493780159</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03386579698329678</v>
+        <v>0.05730159255302764</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007829868173353616</v>
+        <v>0.007484786452106256</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05730159255302764</v>
+        <v>0.0130662167988323</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007202341680328662</v>
+        <v>0.007799284865630284</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01001924903680358</v>
+        <v>0.0139346407587962</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008556039033709491</v>
+        <v>0.008579213352193313</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01342813542973738</v>
+        <v>0.0362877612799673</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00855834499539068</v>
+        <v>0.008854834055923645</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0362877612799673</v>
+        <v>0.05852361993903282</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008953221100989462</v>
+        <v>0.008489824633398072</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05899403353033822</v>
+        <v>0.0139346407587962</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008134084702927811</v>
+        <v>0.008579213352193313</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0106248418704191</v>
+        <v>0.01452797699800747</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009333860764046719</v>
+        <v>0.009359141838756342</v>
       </c>
       <c r="J77" t="n">
-        <v>0.014269033486341</v>
+        <v>0.0369135876862515</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009336376358608015</v>
+        <v>0.009310474192536189</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03649038189594828</v>
+        <v>0.06051073786724648</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009395841808024339</v>
+        <v>0.009261626872797897</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06107783302506414</v>
+        <v>0.01452797699800747</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00887354694864852</v>
+        <v>0.009359141838756342</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01323370371211912</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01011168249438395</v>
+        <v>0.01017498303960121</v>
       </c>
       <c r="J78" t="n">
+        <v>0.03830595492797134</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01008634704191421</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.06249921441644107</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.01003342911219772</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.01527393000690699</v>
       </c>
-      <c r="K78" t="n">
+      <c r="O78" t="n">
         <v>0.01017498303960121</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.03838351894397021</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.0101788286253597</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.06365060491891683</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.009613009194369231</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01184278523651628</v>
+        <v>0.0157245259269877</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01088950422472117</v>
+        <v>0.0109189988118824</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01586712706749169</v>
+        <v>0.03988028174904451</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01089243908504268</v>
+        <v>0.01086221989129222</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04038329832694862</v>
+        <v>0.06418716175464956</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01096181544269506</v>
+        <v>0.01080523135159755</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06498770344658755</v>
+        <v>0.0157245259269877</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01035247144008994</v>
+        <v>0.0109189988118824</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01244903711822324</v>
+        <v>0.01619746149190865</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0116673259550584</v>
+        <v>0.01169892729844543</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01665762905355846</v>
+        <v>0.04063590852749635</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01167047044826002</v>
+        <v>0.01163809274067024</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04227036015317776</v>
+        <v>0.06677269204990505</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01174480226003042</v>
+        <v>0.01157703359099737</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06766448284276771</v>
+        <v>0.01619746149190865</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01109193368581065</v>
+        <v>0.01169892729844543</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01304941003185264</v>
+        <v>0.01696561240652664</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01244514768539562</v>
+        <v>0.01247885578500845</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01787197621054028</v>
+        <v>0.04197217564135225</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01244850181147735</v>
+        <v>0.01241396559004825</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04422534453095181</v>
+        <v>0.06815391747024058</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01252778907736579</v>
+        <v>0.01234883583039719</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07105629734214863</v>
+        <v>0.01696561240652664</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01183139593153136</v>
+        <v>0.01247885578500845</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01564085465201712</v>
+        <v>0.01732852381937268</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01322296941573285</v>
+        <v>0.01325878427157148</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01870224460284285</v>
+        <v>0.04338842346863764</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01322653317469469</v>
+        <v>0.01318983843942627</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04582889156856509</v>
+        <v>0.07032895018368929</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01331077589470115</v>
+        <v>0.01312063806979702</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0731385011794215</v>
+        <v>0.01732852381937268</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01257085817725207</v>
+        <v>0.01325878427157148</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01622032165332934</v>
+        <v>0.01798574087897778</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01400079114607008</v>
+        <v>0.01403871275813451</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01954051029487187</v>
+        <v>0.0445839923873779</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01400456453791202</v>
+        <v>0.01396571128880428</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04846164137431186</v>
+        <v>0.07119590235828405</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01409376271203651</v>
+        <v>0.01389244030919684</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07558644858927777</v>
+        <v>0.01798574087897778</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01331032042297278</v>
+        <v>0.01403871275813451</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01678476171040193</v>
+        <v>0.01853680873387299</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0147786128764073</v>
+        <v>0.01481864124469754</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02067884935103308</v>
+        <v>0.0463582227755984</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01478259590112936</v>
+        <v>0.0147415841381823</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05060423405648623</v>
+        <v>0.07375288616205805</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01487674952937187</v>
+        <v>0.01466424254859667</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07867549380640887</v>
+        <v>0.01853680873387299</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01404978266869349</v>
+        <v>0.01481864124469754</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01533112549784755</v>
+        <v>0.01908127253258929</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01555643460674453</v>
+        <v>0.01559856973126057</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02130933783573213</v>
+        <v>0.04741045501132454</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01556062726434669</v>
+        <v>0.01551745698756032</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05193730972338259</v>
+        <v>0.07519801376304425</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01565973634670723</v>
+        <v>0.01543604478799649</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08158099106550593</v>
+        <v>0.01908127253258929</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0147892449144142</v>
+        <v>0.01559856973126057</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01685636369027884</v>
+        <v>0.01971867742365777</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01633425633708176</v>
+        <v>0.0163784982178236</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02252405181337473</v>
+        <v>0.04884002947258173</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01633865862756403</v>
+        <v>0.01629332983693833</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05454150848329514</v>
+        <v>0.07672939732927581</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01644272316404259</v>
+        <v>0.01620784702739632</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08447829460126038</v>
+        <v>0.01971867742365777</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01552870716013491</v>
+        <v>0.0163784982178236</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01635742696230845</v>
+        <v>0.01994856855560941</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01711207806741898</v>
+        <v>0.01715842670438663</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02321506734836661</v>
+        <v>0.05004628653739535</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01711668999078136</v>
+        <v>0.01706920268631635</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05639747044451809</v>
+        <v>0.0779451490287858</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01722570998137796</v>
+        <v>0.01697964926679614</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08654275864836364</v>
+        <v>0.01994856855560941</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01626816940585562</v>
+        <v>0.01715842670438663</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01683126598854901</v>
+        <v>0.02077049107697522</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01788989979775621</v>
+        <v>0.01793835519094965</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02427446050511345</v>
+        <v>0.05092856658379075</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01789472135399869</v>
+        <v>0.01784507553569437</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05778583571534571</v>
+        <v>0.08064338102960705</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01800869679871332</v>
+        <v>0.01775145150619597</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09034973744150676</v>
+        <v>0.02077049107697522</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01700763165157633</v>
+        <v>0.01793835519094965</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01827483144361319</v>
+        <v>0.02108399013628626</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01866772152809344</v>
+        <v>0.01871828367751268</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02479430734802093</v>
+        <v>0.05188620998979337</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01867275271721603</v>
+        <v>0.01862094838507238</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05988724440407225</v>
+        <v>0.08202220549977274</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01879168361604868</v>
+        <v>0.01852325374559579</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09277458521538151</v>
+        <v>0.02108399013628626</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01774709389729704</v>
+        <v>0.01871828367751268</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01868507400211362</v>
+        <v>0.02148861088207353</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01944554325843066</v>
+        <v>0.01949821216407571</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02566668394149478</v>
+        <v>0.05321855713342855</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01945078408043337</v>
+        <v>0.01939682123445039</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06188233661899201</v>
+        <v>0.08317973460731604</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01957467043338404</v>
+        <v>0.01929505598499562</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09539265620467879</v>
+        <v>0.02148861088207353</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01848655614301775</v>
+        <v>0.01949821216407571</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02005894433866295</v>
+        <v>0.02228389846286807</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02022336498876789</v>
+        <v>0.02027814065063874</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02628366634994071</v>
+        <v>0.05462494839272178</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0202288154436507</v>
+        <v>0.02017269408382841</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06305175246839911</v>
+        <v>0.08481408052026973</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0203576572507194</v>
+        <v>0.02006685822439544</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09727930464409013</v>
+        <v>0.02228389846286807</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01922601838873846</v>
+        <v>0.02027814065063874</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01839339312787382</v>
+        <v>0.0227693980272009</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02100118671910512</v>
+        <v>0.02105806913720177</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02703733063776437</v>
+        <v>0.05530472414569831</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02100684680686803</v>
+        <v>0.02094856693320643</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06467613206058789</v>
+        <v>0.08652335540666711</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02114064406805476</v>
+        <v>0.02083866046379526</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1001098847683069</v>
+        <v>0.0227693980272009</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01996548063445917</v>
+        <v>0.02105806913720177</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0186853710443589</v>
+        <v>0.02314465472360304</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02177900844944234</v>
+        <v>0.0218379976237648</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0276197528693715</v>
+        <v>0.05665722477038365</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02178487817008537</v>
+        <v>0.02172443978258444</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0662361155038525</v>
+        <v>0.08870567143454122</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02192363088539013</v>
+        <v>0.02161046270319509</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1017597508120203</v>
+        <v>0.02314465472360304</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02070494288017988</v>
+        <v>0.0218379976237648</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01993182876273081</v>
+        <v>0.02340921370060552</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02255683017977957</v>
+        <v>0.02261792611032782</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02822300910916782</v>
+        <v>0.05738179064480317</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0225629095333027</v>
+        <v>0.02250031263196246</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06721234290648731</v>
+        <v>0.09025914077192498</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02270661770272549</v>
+        <v>0.02238226494259492</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1035042570099217</v>
+        <v>0.02340921370060552</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02144440512590059</v>
+        <v>0.02261792611032782</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02012971695760222</v>
+        <v>0.02386262010673935</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0233346519101168</v>
+        <v>0.02339785459689086</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02843917542155898</v>
+        <v>0.05837776214698218</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02334094089652004</v>
+        <v>0.02327618548134048</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06768545437678647</v>
+        <v>0.09098187558685145</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02348960452006085</v>
+        <v>0.02315406718199474</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1046187575967025</v>
+        <v>0.02386262010673935</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0221838673716213</v>
+        <v>0.02339785459689086</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01927598630358573</v>
+        <v>0.02460441909053558</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02411247364045402</v>
+        <v>0.02417778308345388</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0287603278709507</v>
+        <v>0.05934447965494613</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02411897225973737</v>
+        <v>0.02405205833071849</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0683360900230443</v>
+        <v>0.09327198804735376</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02427259133739621</v>
+        <v>0.02392586942139456</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1062786068070541</v>
+        <v>0.02460441909053558</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02292332961734201</v>
+        <v>0.02417778308345388</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02136758747529404</v>
+        <v>0.02473415580052524</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02489029537079125</v>
+        <v>0.02495771157001691</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02907854252174868</v>
+        <v>0.0605812835467204</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02489700362295471</v>
+        <v>0.02482793118009651</v>
       </c>
       <c r="L97" t="n">
-        <v>0.068644889953555</v>
+        <v>0.09382759032146487</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02505557815473157</v>
+        <v>0.02469767166079439</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1079591588756676</v>
+        <v>0.02473415580052524</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02366279186306272</v>
+        <v>0.02495771157001691</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01940147114733976</v>
+        <v>0.02525137538523931</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02566811710112847</v>
+        <v>0.02573764005657994</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02918589543835864</v>
+        <v>0.06148751420033041</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02567503498617204</v>
+        <v>0.02560380402947452</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06869249427661275</v>
+        <v>0.09584679457721784</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02583856497206693</v>
+        <v>0.02546947390019421</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1087357680372345</v>
+        <v>0.02525137538523931</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02440225410878343</v>
+        <v>0.02573764005657994</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02137920576411086</v>
+        <v>0.02565562299320885</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0264459388314657</v>
+        <v>0.02651756854314297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02908198213386604</v>
+        <v>0.06216251199380149</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02645306634938938</v>
+        <v>0.02637967687885254</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06874245066529139</v>
+        <v>0.09752771298264584</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02662155178940229</v>
+        <v>0.02624127613959404</v>
       </c>
       <c r="N99" t="n">
-        <v>0.108983788526446</v>
+        <v>0.02565562299320885</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02514171635450414</v>
+        <v>0.02651756854314297</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02130886830508948</v>
+        <v>0.02594644377296486</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02722376056180293</v>
+        <v>0.02729749702970599</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02919800869166489</v>
+        <v>0.06320561730515911</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02723109771260671</v>
+        <v>0.02715554972823056</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06858930077842418</v>
+        <v>0.09796845770578189</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02740453860673766</v>
+        <v>0.02701307837899386</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1093797968213636</v>
+        <v>0.02594644377296486</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02588117860022485</v>
+        <v>0.02729749702970599</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01919573996208152</v>
+        <v>0.02652338287303839</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02800158229214016</v>
+        <v>0.02807742551626902</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02904616717628995</v>
+        <v>0.06351617051242855</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02800912907582405</v>
+        <v>0.02793142257760857</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06824172829278882</v>
+        <v>0.1002671409146588</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02818752542407302</v>
+        <v>0.02778488061839369</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1090433259524359</v>
+        <v>0.02652338287303839</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02662064084594556</v>
+        <v>0.02807742551626902</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02104508498549995</v>
+        <v>0.02688598544196044</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02877940402247739</v>
+        <v>0.02885735400283205</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02873551397055711</v>
+        <v>0.06499351199363532</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02878716043904138</v>
+        <v>0.02870729542698659</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06840829713653476</v>
+        <v>0.10122187477731</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02897051224140838</v>
+        <v>0.02855668285779351</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1078157537828424</v>
+        <v>0.02688598544196044</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02736010309166627</v>
+        <v>0.02885735400283205</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0208621676257577</v>
+        <v>0.02703379662826207</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02955722575281461</v>
+        <v>0.02963728248939508</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02847510545728225</v>
+        <v>0.0652369821268047</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02956519180225872</v>
+        <v>0.02948316827636461</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06789757123781123</v>
+        <v>0.1018307714617682</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02975349905874374</v>
+        <v>0.02932848509719333</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1076319521662437</v>
+        <v>0.02703379662826207</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02809956533738698</v>
+        <v>0.02963728248939508</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01865225213326767</v>
+        <v>0.02766636158047427</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03033504748315183</v>
+        <v>0.03041721097595811</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02837399801928125</v>
+        <v>0.06594592128996216</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03034322316547605</v>
+        <v>0.03025904112574262</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06711811452476768</v>
+        <v>0.1036919431360666</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0305364858760791</v>
+        <v>0.03010028733659316</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1060267929563002</v>
+        <v>0.02766636158047427</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02883902758310769</v>
+        <v>0.03041721097595811</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01842060275844282</v>
+        <v>0.02768322544712806</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03111286921348906</v>
+        <v>0.03119713946252113</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02804124803937001</v>
+        <v>0.06641966986113304</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03112125452869339</v>
+        <v>0.03103491397512063</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06697849092555336</v>
+        <v>0.1050035019682384</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03131947269341447</v>
+        <v>0.03087208957599298</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1048351480066724</v>
+        <v>0.02768322544712806</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0295784898288284</v>
+        <v>0.03119713946252113</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01917248375169607</v>
+        <v>0.0281839333767545</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03189069094382629</v>
+        <v>0.03197706794908416</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02768591190036439</v>
+        <v>0.06775756821834278</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03189928589191072</v>
+        <v>0.03181078682449865</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06638726436831771</v>
+        <v>0.1050635601263165</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03210245951074982</v>
+        <v>0.03164389181539282</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1031918891710207</v>
+        <v>0.0281839333767545</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03031795207454912</v>
+        <v>0.03197706794908416</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01891315936344035</v>
+        <v>0.02856803051788459</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03266851267416351</v>
+        <v>0.0327569964356472</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02731704598508028</v>
+        <v>0.06815895673961672</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03267731725512805</v>
+        <v>0.03258665967387666</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06535299878121012</v>
+        <v>0.1070702297783338</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03288544632808519</v>
+        <v>0.03241569405479264</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1021318883030056</v>
+        <v>0.02856803051788459</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03105741432026983</v>
+        <v>0.0327569964356472</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01964789384408861</v>
+        <v>0.02883506201904935</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03344633440450074</v>
+        <v>0.03353692492221022</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02674370667633355</v>
+        <v>0.06872317580298026</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03345534861834539</v>
+        <v>0.03336253252325468</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06468425809237982</v>
+        <v>0.1075216230923236</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03366843314542055</v>
+        <v>0.03318749629419247</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1011900172562875</v>
+        <v>0.02883506201904935</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03179687656599053</v>
+        <v>0.03353692492221022</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01838195144405375</v>
+        <v>0.02908457302877983</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03422415613483797</v>
+        <v>0.03431685340877325</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02637495035694011</v>
+        <v>0.06894956578645883</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03423337998156272</v>
+        <v>0.0341384053726327</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06428960622997629</v>
+        <v>0.1090158522363188</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03445141996275591</v>
+        <v>0.03395929853359229</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09920114788452677</v>
+        <v>0.02908457302877983</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03253633881171124</v>
+        <v>0.03431685340877325</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01812059641374873</v>
+        <v>0.02901610869560704</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0350019778651752</v>
+        <v>0.03509678189533628</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0262198334097158</v>
+        <v>0.0694374670680778</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03501141134478006</v>
+        <v>0.03491427822201071</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06337760712214879</v>
+        <v>0.1098510293783525</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03523440678009127</v>
+        <v>0.03473110077299211</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09710015204138406</v>
+        <v>0.02901610869560704</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03327580105743195</v>
+        <v>0.03509678189533628</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01686909300358647</v>
+        <v>0.02932921416806196</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03577979959551242</v>
+        <v>0.0358767103818993</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02588741221747655</v>
+        <v>0.07018622002586253</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03578944270799739</v>
+        <v>0.03569015107138873</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06285682469704676</v>
+        <v>0.1098252666864578</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03601739359742664</v>
+        <v>0.03550290301239194</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09592190158051977</v>
+        <v>0.02932921416806196</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03401526330315266</v>
+        <v>0.0358767103818993</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01763270546397989</v>
+        <v>0.0297234345946757</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03655762132584964</v>
+        <v>0.03665663886846234</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02528674316303822</v>
+        <v>0.07069516503783843</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03656747407121472</v>
+        <v>0.03646602392076675</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06213582288281946</v>
+        <v>0.1102366763286677</v>
       </c>
       <c r="M112" t="n">
-        <v>0.036800380414762</v>
+        <v>0.03627470525179176</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09470126835559423</v>
+        <v>0.0297234345946757</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03475472554887337</v>
+        <v>0.03665663886846234</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01841669804534194</v>
+        <v>0.02989831512397921</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03733544305618688</v>
+        <v>0.03743656735502537</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02522688262921668</v>
+        <v>0.07056364248203092</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03734550543443206</v>
+        <v>0.03724189677014476</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06162316560761635</v>
+        <v>0.1114833704730152</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03758336723209735</v>
+        <v>0.03704650749119159</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09287312422026811</v>
+        <v>0.02989831512397921</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03549418779459408</v>
+        <v>0.03743656735502537</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01622633499808554</v>
+        <v>0.03005340090450358</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0381132647865241</v>
+        <v>0.03821649584158839</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02481688699882784</v>
+        <v>0.07089099273646532</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0381235367976494</v>
+        <v>0.03801776961952277</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06092741679958669</v>
+        <v>0.1119634612875334</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03836635404943272</v>
+        <v>0.03781830973059141</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09137234102820158</v>
+        <v>0.03005340090450358</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03623365004031479</v>
+        <v>0.03821649584158839</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01806688057262363</v>
+        <v>0.03018823708477977</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03889108651686133</v>
+        <v>0.03899642432815142</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02496581265468754</v>
+        <v>0.07137655617916705</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03890156816086673</v>
+        <v>0.03879364246890079</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0597571403868799</v>
+        <v>0.1120750609402553</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03914934086676808</v>
+        <v>0.03859011196999124</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09073379063305531</v>
+        <v>0.03018823708477977</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0369731122860355</v>
+        <v>0.03899642432815142</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01794359901936914</v>
+        <v>0.03010236881333886</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03966890824719855</v>
+        <v>0.03977635281471445</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02488271597961171</v>
+        <v>0.07131967318816157</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03967959952408406</v>
+        <v>0.03956951531827881</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05962090029764533</v>
+        <v>0.1133162815992141</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03993232768410344</v>
+        <v>0.03936191420939106</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08939234488848968</v>
+        <v>0.03010236881333886</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03771257453175621</v>
+        <v>0.03977635281471445</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01586175458873498</v>
+        <v>0.03009534123871184</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04044672997753578</v>
+        <v>0.04055628130127747</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02457221712347291</v>
+        <v>0.07151968414147419</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0404576308873014</v>
+        <v>0.04034538816765682</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0584272604600323</v>
+        <v>0.1127852354324427</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0407153145014388</v>
+        <v>0.04013371644879088</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0884828756481652</v>
+        <v>0.03009534123871184</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03845203677747693</v>
+        <v>0.04055628130127747</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01582661153113411</v>
+        <v>0.03036669950942973</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04122455170787301</v>
+        <v>0.04133620978784051</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02480246788350703</v>
+        <v>0.07187592941713031</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04123566225051873</v>
+        <v>0.04112126101703484</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0578847848021902</v>
+        <v>0.1140800346079743</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04149830131877417</v>
+        <v>0.04090551868819071</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08864025476574222</v>
+        <v>0.03036669950942973</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03919149902319764</v>
+        <v>0.04133620978784051</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0158366367814932</v>
+        <v>0.03051598877402358</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04200237343821023</v>
+        <v>0.04211613827440354</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02486367868326228</v>
+        <v>0.07238774939315534</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04201369361373607</v>
+        <v>0.04189713386641286</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05800203725226841</v>
+        <v>0.1142987912938417</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04228128813610953</v>
+        <v>0.04167732092759053</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08809894831582016</v>
+        <v>0.03051598877402358</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03993096126891835</v>
+        <v>0.04211613827440354</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01587929979981962</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04278019516854745</v>
+        <v>0.04289606676096656</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02505380491112771</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0427917249769534</v>
+        <v>0.04267300671579087</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05768758173841618</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04306427495344489</v>
+        <v>0.04244912316699036</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08837588669267993</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04067042351463906</v>
+        <v>0.04289606676096656</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01795185525888478</v>
+        <v>0.03034697120175253</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04355801689888469</v>
+        <v>0.0436759952475296</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02517080195549239</v>
+        <v>0.07237550732859377</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04356975634017074</v>
+        <v>0.04344887956516889</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05734998218878296</v>
+        <v>0.1139006258687167</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04384726177078025</v>
+        <v>0.04322092540639019</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08808343690910969</v>
+        <v>0.03034697120175253</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04140988576035977</v>
+        <v>0.0436759952475296</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01805189139401525</v>
+        <v>0.03023406267794057</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04433583862922191</v>
+        <v>0.04445592373409262</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02511262520474535</v>
+        <v>0.07236748502873538</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04434778770338808</v>
+        <v>0.0442247524145469</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0568978025315181</v>
+        <v>0.114281317055025</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04463024858811562</v>
+        <v>0.04399272764579001</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08911352074921008</v>
+        <v>0.03023406267794057</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04214934800608048</v>
+        <v>0.04445592373409262</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01617699644053763</v>
+        <v>0.0303064127566014</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04511366035955914</v>
+        <v>0.04523585222065565</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02527723004727567</v>
+        <v>0.0719450226563588</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04512581906660541</v>
+        <v>0.04500062526392492</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05683960669477095</v>
+        <v>0.1144861490956868</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04541323540545097</v>
+        <v>0.04476452988518984</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08905805999708216</v>
+        <v>0.0303064127566014</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04288881025180118</v>
+        <v>0.04523585222065565</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01632475863377849</v>
+        <v>0.03026482120417291</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04589148208989637</v>
+        <v>0.04601578070721868</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02556257187147237</v>
+        <v>0.07210851020131642</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04590385042982274</v>
+        <v>0.04577649811330294</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05638395860669079</v>
+        <v>0.1135191115740376</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04619622222278633</v>
+        <v>0.04553633212458966</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09020897643682652</v>
+        <v>0.03026482120417291</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04362827249752189</v>
+        <v>0.04601578070721868</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01849276620906443</v>
+        <v>0.03041008778709293</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04666930382023359</v>
+        <v>0.04679570919378171</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02576660606572453</v>
+        <v>0.07205833765346084</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04668188179304008</v>
+        <v>0.04655237096268095</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05669231821448012</v>
+        <v>0.1129841002110222</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0469792090401217</v>
+        <v>0.04630813436398949</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09065819185254403</v>
+        <v>0.03041008778709293</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04436773474324261</v>
+        <v>0.04679570919378171</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01867860740172202</v>
+        <v>0.03024301227179928</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04744712555057082</v>
+        <v>0.04757563768034474</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02608728801842121</v>
+        <v>0.07209489500264454</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04745991315625741</v>
+        <v>0.04732824381205897</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05730853100170832</v>
+        <v>0.1132850107275856</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04776219585745706</v>
+        <v>0.04707993660338931</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09089762802833551</v>
+        <v>0.03024301227179928</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04510719698896332</v>
+        <v>0.04757563768034474</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01687987044707785</v>
+        <v>0.03006439442472982</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04822494728090804</v>
+        <v>0.04835556616690776</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02612257311795144</v>
+        <v>0.07171857223872008</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04823794451947475</v>
+        <v>0.04810411666143698</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05760991095951437</v>
+        <v>0.1134257388446724</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04854518267479242</v>
+        <v>0.04785173884278913</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09261920674830165</v>
+        <v>0.03006439442472982</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04584665923468403</v>
+        <v>0.04835556616690776</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0170941435804585</v>
+        <v>0.0298750340123224</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04900276901124527</v>
+        <v>0.04913549465347079</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02627041675270428</v>
+        <v>0.0721297593515399</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04901597588269208</v>
+        <v>0.048879989510815</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05827376094677142</v>
+        <v>0.1130101802832276</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04932816949212778</v>
+        <v>0.04862354108218896</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09341484979654324</v>
+        <v>0.0298750340123224</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04658612148040473</v>
+        <v>0.04913549465347079</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01931901503719057</v>
+        <v>0.0299757308010148</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0497805907415825</v>
+        <v>0.04991542314003382</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02682877431106878</v>
+        <v>0.07142884633095653</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04979400724590941</v>
+        <v>0.04965586236019302</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0591773838223526</v>
+        <v>0.1117422307641959</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05011115630946315</v>
+        <v>0.04939534332158878</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09437647895716123</v>
+        <v>0.0299757308010148</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04732558372612544</v>
+        <v>0.04991542314003382</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01755207305260062</v>
+        <v>0.02986728455724492</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05055841247191973</v>
+        <v>0.05069535162659685</v>
       </c>
       <c r="J130" t="n">
-        <v>0.026995601181434</v>
+        <v>0.07181622316682254</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05057203860912676</v>
+        <v>0.05043173520957103</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05989808244513109</v>
+        <v>0.1118257860085224</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05089414312679851</v>
+        <v>0.05016714556098861</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09449601601425617</v>
+        <v>0.02986728455724492</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04806504597184615</v>
+        <v>0.05069535162659685</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01779090586201525</v>
+        <v>0.0295504950474506</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05133623420225695</v>
+        <v>0.05147528011315988</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02706885275218898</v>
+        <v>0.07169227984899038</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05135006997234409</v>
+        <v>0.05120760805894904</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06091315967397998</v>
+        <v>0.1113647417371516</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05167712994413386</v>
+        <v>0.05093894780038843</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09636538275192891</v>
+        <v>0.0295504950474506</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04880450821756686</v>
+        <v>0.05147528011315988</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01803310170076106</v>
+        <v>0.02952616203806961</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05211405593259417</v>
+        <v>0.0522552085997229</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02754648441172279</v>
+        <v>0.07175740636731259</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05212810133556142</v>
+        <v>0.05198348090832706</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0620999183677724</v>
+        <v>0.1107629936710285</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05246011676146923</v>
+        <v>0.05171075003978826</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09777650095428048</v>
+        <v>0.02952616203806961</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04954397046328757</v>
+        <v>0.0522552085997229</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01827624880416461</v>
+        <v>0.02939508529553984</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05289187766293141</v>
+        <v>0.05303513708628594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02782645154842449</v>
+        <v>0.07141199271164167</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05290613269877875</v>
+        <v>0.05275935375770507</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06293566138538156</v>
+        <v>0.109124437531098</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05324310357880459</v>
+        <v>0.05248255227918808</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09782129240541138</v>
+        <v>0.02939508529553984</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05028343270900829</v>
+        <v>0.05303513708628594</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02051793540755249</v>
+        <v>0.02935806458629915</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05366969939326863</v>
+        <v>0.05381506557284896</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0280067095506831</v>
+        <v>0.07145642887183012</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05368416406199609</v>
+        <v>0.05353522660708309</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06409769158568054</v>
+        <v>0.1086529690383048</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05402609039613995</v>
+        <v>0.05325435451858791</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09899167888942245</v>
+        <v>0.02935806458629915</v>
       </c>
       <c r="O134" t="n">
-        <v>0.051022894954729</v>
+        <v>0.05381506557284896</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01975574974625129</v>
+        <v>0.02931589967678533</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05444752112360585</v>
+        <v>0.05459499405941198</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02818521380688771</v>
+        <v>0.07109110483773048</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05446219542521342</v>
+        <v>0.05431109945646111</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06556331182754249</v>
+        <v>0.1078524839135938</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05480907721347531</v>
+        <v>0.05402615675798773</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1007795821904146</v>
+        <v>0.02931589967678533</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05176235720044971</v>
+        <v>0.05459499405941198</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01998728005558759</v>
+        <v>0.02886939033343626</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05522534285394308</v>
+        <v>0.05537492254597502</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02855991970542734</v>
+        <v>0.07101641059919528</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05524022678843076</v>
+        <v>0.05508697230583912</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06650982496984051</v>
+        <v>0.1076268778779099</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05559206403081068</v>
+        <v>0.05479795899738756</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1024769240924884</v>
+        <v>0.02886939033343626</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05250181944617041</v>
+        <v>0.05537492254597502</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02021011457088798</v>
+        <v>0.02891933632268974</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05600316458428031</v>
+        <v>0.05615485103253805</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02882878263469107</v>
+        <v>0.07043273614607698</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05601825815164809</v>
+        <v>0.05586284515521714</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06731453387144784</v>
+        <v>0.1066800466521978</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05637505084814604</v>
+        <v>0.05556976123678738</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1025756263797449</v>
+        <v>0.02891933632268974</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05324128169189112</v>
+        <v>0.05615485103253805</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01942184152747905</v>
+        <v>0.02886653741098362</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05678098631461754</v>
+        <v>0.05693477951910107</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02928975798306796</v>
+        <v>0.07024047146822812</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05679628951486543</v>
+        <v>0.05663871800459516</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06845474139123753</v>
+        <v>0.1055158859574025</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05715803766548139</v>
+        <v>0.05634156347618721</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1040676108362847</v>
+        <v>0.02886653741098362</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05398074393761184</v>
+        <v>0.05693477951910107</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01962004916068737</v>
+        <v>0.02851179336475577</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05755880804495477</v>
+        <v>0.0577147080056641</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02944080113894702</v>
+        <v>0.07024000655550119</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05757432087808276</v>
+        <v>0.05741459085397317</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06980775038808276</v>
+        <v>0.1047382915144686</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05794102448281677</v>
+        <v>0.05711336571558703</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1059447992462088</v>
+        <v>0.02851179336475577</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05472020618333254</v>
+        <v>0.0577147080056641</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02180232570583953</v>
+        <v>0.02845590395044399</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05833662977529199</v>
+        <v>0.05849463649222714</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02977986749071734</v>
+        <v>0.07013173139774875</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0583523522413001</v>
+        <v>0.05819046370335119</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07065086372085663</v>
+        <v>0.1039511590443412</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05872401130015212</v>
+        <v>0.05788516795498685</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1069991133936177</v>
+        <v>0.02845590395044399</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05545966842905326</v>
+        <v>0.05849463649222714</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01996625939826214</v>
+        <v>0.02819966893448614</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05911445150562922</v>
+        <v>0.05927456497879016</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02980491242676796</v>
+        <v>0.07011603598482327</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05913038360451744</v>
+        <v>0.05896633655272921</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07156138424843231</v>
+        <v>0.1038583842679649</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05950699811748748</v>
+        <v>0.05865697019438667</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1083224750626123</v>
+        <v>0.02819966893448614</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05619913067477397</v>
+        <v>0.05927456497879016</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02110943847328172</v>
+        <v>0.02794388808332007</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05989227323596644</v>
+        <v>0.06005449346535319</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02991389133548794</v>
+        <v>0.06979331030657732</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05990841496773476</v>
+        <v>0.05974220940210722</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07181661482968296</v>
+        <v>0.1034638629062847</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06028998493482285</v>
+        <v>0.0594287724337865</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1085068060372934</v>
+        <v>0.02794388808332007</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05693859292049467</v>
+        <v>0.06005449346535319</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02222945116622493</v>
+        <v>0.02798936116338357</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06067009496630366</v>
+        <v>0.06083442195191622</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03020475960526632</v>
+        <v>0.06896394435286329</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0606864463309521</v>
+        <v>0.06051808225148524</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07257552255993463</v>
+        <v>0.1018714906802454</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06107297175215821</v>
+        <v>0.06020057467318632</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1096440281017619</v>
+        <v>0.02798936116338357</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05767805516621539</v>
+        <v>0.06083442195191622</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02231149920299288</v>
+        <v>0.02763688794111455</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0614479166966409</v>
+        <v>0.06161435043847925</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03054786001381399</v>
+        <v>0.0694283281135338</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06146447769416943</v>
+        <v>0.06129395510086325</v>
       </c>
       <c r="L144" t="n">
-        <v>0.072717070293978</v>
+        <v>0.1009851633107918</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06185595856949357</v>
+        <v>0.06097237691258615</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1106260630401184</v>
+        <v>0.02763688794111455</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05841751741193609</v>
+        <v>0.06161435043847925</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02240899891488748</v>
+        <v>0.02748726818295077</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06222573842697812</v>
+        <v>0.06239427892504227</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03044296476397697</v>
+        <v>0.06878685157844133</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06224250905738677</v>
+        <v>0.06206982795024127</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07292420025877677</v>
+        <v>0.1001087765188688</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06263894538682893</v>
+        <v>0.06174417915198597</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1121448326364639</v>
+        <v>0.02748726818295077</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05915697965765681</v>
+        <v>0.06239427892504227</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02149335424257574</v>
+        <v>0.02764130165533012</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06300356015731536</v>
+        <v>0.0631742074116053</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03061449896295179</v>
+        <v>0.06843990473743844</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06302054042060411</v>
+        <v>0.06284570079961929</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0728261430686335</v>
+        <v>0.09974622602542116</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0634219322041643</v>
+        <v>0.0625159813913858</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1129922586748989</v>
+        <v>0.02764130165533012</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05989644190337751</v>
+        <v>0.0631742074116053</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0225770498499293</v>
+        <v>0.02729978812469043</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06378138188765259</v>
+        <v>0.06395413589816833</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03088968867516244</v>
+        <v>0.06858787758037754</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06379857178382144</v>
+        <v>0.0636215736489973</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07302283911431487</v>
+        <v>0.09930140755139366</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06420491902149965</v>
+        <v>0.06328778363078563</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1137602629395245</v>
+        <v>0.02729978812469043</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06063590414909823</v>
+        <v>0.06395413589816833</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02265987677440464</v>
+        <v>0.02736352735746954</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06455920361798979</v>
+        <v>0.06473406438473135</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03096775029455924</v>
+        <v>0.06823116009711122</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06457660314703877</v>
+        <v>0.06439744649837531</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07331422878658775</v>
+        <v>0.09787821681773129</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06498790583883501</v>
+        <v>0.06405958587018545</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1146031851060553</v>
+        <v>0.02736352735746954</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06137536639481894</v>
+        <v>0.06473406438473135</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0227416260534583</v>
+        <v>0.02703331912010526</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06533702534832703</v>
+        <v>0.06551399287129439</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03144790021509239</v>
+        <v>0.06817014227749196</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06535463451025611</v>
+        <v>0.06517331934775332</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07360025247621893</v>
+        <v>0.09808054954537887</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06577089265617038</v>
+        <v>0.06483138810958528</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1152871274864786</v>
+        <v>0.02703331912010526</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06211482864053965</v>
+        <v>0.06551399287129439</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02182208872454671</v>
+        <v>0.02700979469896393</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06611484707866426</v>
+        <v>0.06629392135785742</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03162935483071214</v>
+        <v>0.06770521411137229</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06613266587347344</v>
+        <v>0.06594919219713134</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07388085057397523</v>
+        <v>0.09691230145528118</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06655387947350574</v>
+        <v>0.0656031903489851</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1156435879291115</v>
+        <v>0.02700979469896393</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06285429088626035</v>
+        <v>0.06629392135785742</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02190105582512638</v>
+        <v>0.02678991913527745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06689266880900148</v>
+        <v>0.06707384984442044</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03151133053536874</v>
+        <v>0.06723676558860472</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06691069723669078</v>
+        <v>0.06672506504650937</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07375596347062341</v>
+        <v>0.09677736826838296</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0673368662908411</v>
+        <v>0.06637499258838493</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1166084709281741</v>
+        <v>0.02678991913527745</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06359375313198107</v>
+        <v>0.06707384984442044</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02297831839265379</v>
+        <v>0.02687218051702085</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06767049053933871</v>
+        <v>0.06785377833098348</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03169304372301246</v>
+        <v>0.0667651866990418</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06768872859990811</v>
+        <v>0.06750093789588738</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07422553155693024</v>
+        <v>0.09547201781113829</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06811985310817646</v>
+        <v>0.06714679482778474</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1162799117269455</v>
+        <v>0.02687218051702085</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06433321537770177</v>
+        <v>0.06785377833098348</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02305366746458547</v>
+        <v>0.02655642114340681</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06844831226967593</v>
+        <v>0.06863370681754651</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03217371078759353</v>
+        <v>0.06709086743253595</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06846675996312544</v>
+        <v>0.0682768107452654</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07398949522366258</v>
+        <v>0.09467673969903551</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06890283992551183</v>
+        <v>0.06791859706718457</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1171560455687051</v>
+        <v>0.02655642114340681</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06507267762342249</v>
+        <v>0.06863370681754651</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02312689407837788</v>
+        <v>0.02634248331364798</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06922613400001316</v>
+        <v>0.06941363530410953</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03205254812306221</v>
+        <v>0.06631419777893971</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06924479132634279</v>
+        <v>0.06905268359464341</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07444779486158717</v>
+        <v>0.09428977828289781</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06968582674284718</v>
+        <v>0.0686903993065844</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1176350076967322</v>
+        <v>0.02634248331364798</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06581213986914319</v>
+        <v>0.06941363530410953</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0211977892714875</v>
+        <v>0.02633020932695698</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0700039557303504</v>
+        <v>0.07019356379067257</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03222877212336876</v>
+        <v>0.06633556772810567</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07002282268956012</v>
+        <v>0.06982855644402142</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07460037086147084</v>
+        <v>0.09361056558515862</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07046881356018254</v>
+        <v>0.06946220154598422</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1192149333543061</v>
+        <v>0.02633020932695698</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0665516021148639</v>
+        <v>0.07019356379067257</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02226614408137084</v>
+        <v>0.0261194414825465</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07078177746068762</v>
+        <v>0.07097349227723558</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03270159918246342</v>
+        <v>0.06575536726988626</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07080085405277746</v>
+        <v>0.07060442929339944</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0747471636140804</v>
+        <v>0.09363853362825136</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07125180037751791</v>
+        <v>0.07023400378538404</v>
       </c>
       <c r="N156" t="n">
-        <v>0.118893957784706</v>
+        <v>0.0261194414825465</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06729106436058462</v>
+        <v>0.07097349227723558</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02133174954548438</v>
+        <v>0.02611002207962912</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07155959919102484</v>
+        <v>0.07175342076379861</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03287024569429643</v>
+        <v>0.065573986394134</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07157888541599478</v>
+        <v>0.07138030214277746</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07488811351018265</v>
+        <v>0.09247311443460948</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07203478719485328</v>
+        <v>0.07100580602478387</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1195702162312113</v>
+        <v>0.02611002207962912</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06803052660630532</v>
+        <v>0.07175342076379861</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02339439670128463</v>
+        <v>0.02600179341741753</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07233742092136207</v>
+        <v>0.07253334925036165</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03283392805281803</v>
+        <v>0.06539181509070147</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07235691677921212</v>
+        <v>0.07215617499215547</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07472316094054429</v>
+        <v>0.09171374002666655</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07281777401218863</v>
+        <v>0.0717776082641837</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1211418439371012</v>
+        <v>0.02600179341741753</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06876998885202604</v>
+        <v>0.07253334925036165</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02245387658622804</v>
+        <v>0.02599459779512438</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07311524265169929</v>
+        <v>0.07331327773692467</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03299186265197851</v>
+        <v>0.06540924334944109</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07313494814242945</v>
+        <v>0.0729320478415335</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07515224629593226</v>
+        <v>0.09175984242685564</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07360076082952399</v>
+        <v>0.07254941050358352</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1214069761456549</v>
+        <v>0.02599459779512438</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06950945109774674</v>
+        <v>0.07331327773692467</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02350998023777116</v>
+        <v>0.02598827751196227</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07389306438203652</v>
+        <v>0.0740932062234877</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03304326588572812</v>
+        <v>0.06502666116020545</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07391297950564679</v>
+        <v>0.0737079206909115</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07537530996711325</v>
+        <v>0.09131085365761049</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07438374764685936</v>
+        <v>0.07332121274298334</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1225637481001519</v>
+        <v>0.02598827751196227</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07024891334346746</v>
+        <v>0.0740932062234877</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02156249869337042</v>
+        <v>0.02568267486714389</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07467088611237375</v>
+        <v>0.07487313471005073</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03318735414801706</v>
+        <v>0.06434445851284701</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07469101086886412</v>
+        <v>0.07448379354028951</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07539229234485414</v>
+        <v>0.09026620574136446</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07516673446419471</v>
+        <v>0.07409301498238317</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1226102950438714</v>
+        <v>0.02568267486714389</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07098837558918816</v>
+        <v>0.07487313471005073</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02261122299048234</v>
+        <v>0.02577763215988187</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07544870784271097</v>
+        <v>0.07565306319661376</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03362334383279561</v>
+        <v>0.06456302539721828</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07546904223208145</v>
+        <v>0.07525966638966754</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07540313381992161</v>
+        <v>0.08972533070055094</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07594972128153007</v>
+        <v>0.07486481722178299</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1230447522200925</v>
+        <v>0.02577763215988187</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07172783783490888</v>
+        <v>0.07565306319661376</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02265594416656341</v>
+        <v>0.02547299168938885</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07622652957304821</v>
+        <v>0.07643299168317678</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03345045133401404</v>
+        <v>0.06418275180317184</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07624707359529879</v>
+        <v>0.07603553923904555</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07550777478308257</v>
+        <v>0.0897876605576034</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07673270809886544</v>
+        <v>0.07563661946118282</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1237652548720947</v>
+        <v>0.02547299168938885</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07246730008062958</v>
+        <v>0.07643299168317678</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0236964532590701</v>
+        <v>0.02526859575487748</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07700435130338543</v>
+        <v>0.07721292016973982</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03386789304562256</v>
+        <v>0.06350402772056013</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07702510495851612</v>
+        <v>0.07681141208842357</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07540615562510378</v>
+        <v>0.08915262733495527</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07751569491620081</v>
+        <v>0.07640842170058265</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1247699382431573</v>
+        <v>0.02526859575487748</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0732067623263503</v>
+        <v>0.07721292016973982</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02373254130545892</v>
+        <v>0.02516428665556038</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07778217303372266</v>
+        <v>0.07799284865630285</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03387488536157145</v>
+        <v>0.06312724313923568</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07780313632173347</v>
+        <v>0.07758728493780158</v>
       </c>
       <c r="L165" t="n">
-        <v>0.075498216736752</v>
+        <v>0.08831966305503997</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07829868173353616</v>
+        <v>0.07718022393998247</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1250569375765595</v>
+        <v>0.02516428665556038</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07394622457207101</v>
+        <v>0.07799284865630285</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02176399934318634</v>
+        <v>0.02535990669065022</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07855999476405988</v>
+        <v>0.07877277714286587</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03387064467581094</v>
+        <v>0.06275278804905102</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07858116768495078</v>
+        <v>0.0783631577871796</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07558389850879407</v>
+        <v>0.08838819974029088</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07908166855087152</v>
+        <v>0.07795202617938229</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1255243881155804</v>
+        <v>0.02535990669065022</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07468568681779172</v>
+        <v>0.07877277714286587</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02179061840970891</v>
+        <v>0.02515529815935966</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0793378164943971</v>
+        <v>0.0795527056294289</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0341543873822913</v>
+        <v>0.06288106050226644</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07935919904816813</v>
+        <v>0.07913903063655763</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07566314133199681</v>
+        <v>0.08785766941314149</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07986465536820689</v>
+        <v>0.07872382841878212</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1263704251034997</v>
+        <v>0.02515529815935966</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07542514906351243</v>
+        <v>0.0795527056294289</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02181218954248303</v>
+        <v>0.02485030336090131</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08011563822473433</v>
+        <v>0.08033263411599192</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0342253298749628</v>
+        <v>0.06281229475225594</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08013723041138547</v>
+        <v>0.07991490348593562</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07603588559712696</v>
+        <v>0.08712750409602515</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08064764218554225</v>
+        <v>0.07949563065818195</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1262931837835964</v>
+        <v>0.02485030336090131</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07616461130923313</v>
+        <v>0.08033263411599192</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02182850377896527</v>
+        <v>0.02474476459448784</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08089345995507156</v>
+        <v>0.08111256260255495</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03408268854777562</v>
+        <v>0.06264581123156993</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0809152617746028</v>
+        <v>0.08069077633531364</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0762020716949513</v>
+        <v>0.08619713581137556</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08143062900287761</v>
+        <v>0.08026743289758176</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1275907993991497</v>
+        <v>0.02474476459448784</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07690407355495385</v>
+        <v>0.08111256260255495</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02183935215661206</v>
+        <v>0.02463852415933186</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08167128168540878</v>
+        <v>0.08189249108911799</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03432567979468006</v>
+        <v>0.0616807435756454</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08169329313782014</v>
+        <v>0.08146664918469167</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07606164001623669</v>
+        <v>0.08566599658162583</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08221361582021297</v>
+        <v>0.08103923513698159</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1281614071934392</v>
+        <v>0.02463852415933186</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07764353580067455</v>
+        <v>0.08189249108911799</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02384452571287993</v>
+        <v>0.02453142435464606</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08244910341574602</v>
+        <v>0.08267241957568101</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03415352000962636</v>
+        <v>0.06191622541991934</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08247132450103746</v>
+        <v>0.08224252203406968</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07621453095174996</v>
+        <v>0.08543351842920949</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08299660263754834</v>
+        <v>0.08181103737638142</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1284031424097439</v>
+        <v>0.02453142435464606</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07838299804639527</v>
+        <v>0.08267241957568101</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02184229057757271</v>
+        <v>0.02442330747964305</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08322692514608324</v>
+        <v>0.08345234806224404</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03416542558656478</v>
+        <v>0.0616513903998287</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0832493558642548</v>
+        <v>0.0830183948834477</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07596068489225774</v>
+        <v>0.08439913337655996</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08377958945488369</v>
+        <v>0.08258283961578124</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1287141402913433</v>
+        <v>0.02442330747964305</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07912246029211598</v>
+        <v>0.08345234806224404</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02282689745047708</v>
+        <v>0.0243140158335355</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08400474687642047</v>
+        <v>0.08423227654880708</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03425798229440974</v>
+        <v>0.06108537215081042</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08402738722747213</v>
+        <v>0.08379426773282572</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07570004222852697</v>
+        <v>0.08426227344611087</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08456257627221905</v>
+        <v>0.08335464185518106</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1286925360815164</v>
+        <v>0.0243140158335355</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07986192253783669</v>
+        <v>0.08423227654880708</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02379833556817006</v>
+        <v>0.02430339171553601</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0847825686067577</v>
+        <v>0.0850122050353701</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03422567148938159</v>
+        <v>0.06091730430830153</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08480541859068948</v>
+        <v>0.08457014058220373</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0762325433513244</v>
+        <v>0.08402237066029539</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08534556308955442</v>
+        <v>0.08412644409458089</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1291364650235428</v>
+        <v>0.02430339171553601</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0806013847835574</v>
+        <v>0.0850122050353701</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02375719942012604</v>
+        <v>0.02429127742485727</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08556039033709491</v>
+        <v>0.08579213352193313</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03406947215024619</v>
+        <v>0.06064632050773897</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08558344995390681</v>
+        <v>0.08534601343158174</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0760581286514169</v>
+        <v>0.08307885704154705</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08612854990688978</v>
+        <v>0.08489824633398071</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1302440623607016</v>
+        <v>0.02429127742485727</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08134084702927812</v>
+        <v>0.08579213352193313</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02370408349581948</v>
+        <v>0.02417751526071193</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08633821206743214</v>
+        <v>0.08657206200849617</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03409058550691028</v>
+        <v>0.06067155438455973</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08636148131712414</v>
+        <v>0.08612188628095975</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07597673851957115</v>
+        <v>0.08273116461229924</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08691153672422514</v>
+        <v>0.08567004857338054</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1300134633362721</v>
+        <v>0.02417751526071193</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08208030927499882</v>
+        <v>0.08657206200849617</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02363958228472477</v>
+        <v>0.02416194752231261</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08711603379776937</v>
+        <v>0.08735199049505919</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03379021278928056</v>
+        <v>0.05989213957420073</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08713951268034148</v>
+        <v>0.08689775913033777</v>
       </c>
       <c r="L177" t="n">
-        <v>0.076288313346554</v>
+        <v>0.08227872539498543</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0876945235415605</v>
+        <v>0.08644185081278037</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1298428031935336</v>
+        <v>0.02416194752231261</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08281977152071954</v>
+        <v>0.08735199049505919</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02256429027631638</v>
+        <v>0.02394441650887194</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08789385552810661</v>
+        <v>0.0881319189816222</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03396955522726368</v>
+        <v>0.06000720971209894</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08791754404355881</v>
+        <v>0.0876736319797158</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0761927935231323</v>
+        <v>0.0813209714120392</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08847751035889587</v>
+        <v>0.08721365305218019</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1302302171757655</v>
+        <v>0.02394441650887194</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08355923376644024</v>
+        <v>0.0881319189816222</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02147880196006872</v>
+        <v>0.02372476451960261</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08867167725844383</v>
+        <v>0.08891184746818524</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03362981405076634</v>
+        <v>0.05921589843369138</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08869557540677615</v>
+        <v>0.08844950482909381</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07645291462864715</v>
+        <v>0.08045733468589372</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08926049717623123</v>
+        <v>0.08798545529158001</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1305738405262468</v>
+        <v>0.02372476451960261</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08429869601216096</v>
+        <v>0.08891184746818524</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02338371182545623</v>
+        <v>0.02380283385371723</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08944949898878105</v>
+        <v>0.08969177595474827</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03347219048969527</v>
+        <v>0.05931733937441505</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08947360676999348</v>
+        <v>0.08922537767847183</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07561349529101943</v>
+        <v>0.07988724723898255</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09004348399356658</v>
+        <v>0.08875725753097984</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1305718084882571</v>
+        <v>0.02380283385371723</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08503815825788166</v>
+        <v>0.08969177595474827</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02227961436195331</v>
+        <v>0.02357846681042844</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09022732071911828</v>
+        <v>0.09047170444131129</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03339788577395712</v>
+        <v>0.05871066616970688</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09025163813321081</v>
+        <v>0.09000125052784984</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07568159015296327</v>
+        <v>0.07991014109373917</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09082647081090195</v>
+        <v>0.08952905977037967</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1309222563050754</v>
+        <v>0.02357846681042844</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08577762050360237</v>
+        <v>0.09047170444131129</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02316710405903443</v>
+        <v>0.0234515056889489</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09100514244945551</v>
+        <v>0.09125163292787433</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03300810113345863</v>
+        <v>0.05839501245500378</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09102966949642814</v>
+        <v>0.09077712337722785</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07566507050714746</v>
+        <v>0.07872544827259692</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09160945762823731</v>
+        <v>0.09030086200977949</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1301145373648877</v>
+        <v>0.0234515056889489</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08651708274932308</v>
+        <v>0.09125163292787433</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.023046775406174</v>
+        <v>0.02342179278849126</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09178296417979273</v>
+        <v>0.09203156141443736</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03280403779810646</v>
+        <v>0.0580695118657428</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09180770085964549</v>
+        <v>0.09155299622660587</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07527180764624081</v>
+        <v>0.07853260079798924</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09239244444557267</v>
+        <v>0.09107266424917931</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1306918382323681</v>
+        <v>0.02342179278849126</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08725654499504379</v>
+        <v>0.09203156141443736</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02191922289284643</v>
+        <v>0.02298917040826817</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09256078591012995</v>
+        <v>0.09281148990100038</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03268689699780729</v>
+        <v>0.05833329803736084</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09258573222286282</v>
+        <v>0.09232886907598388</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07450967286291213</v>
+        <v>0.07753103069234957</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09317543126290803</v>
+        <v>0.09184446648857914</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1299491756502005</v>
+        <v>0.02298917040826817</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08799600724076451</v>
+        <v>0.09281148990100038</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02178504100852619</v>
+        <v>0.02315348084749223</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09333860764046718</v>
+        <v>0.09359141838756342</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03255787996246784</v>
+        <v>0.05778550460529497</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09336376358608016</v>
+        <v>0.0931047419253619</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07398653744983028</v>
+        <v>0.07792016997811141</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0939584180802434</v>
+        <v>0.09261626872797897</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1294924482914534</v>
+        <v>0.02315348084749223</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08873546948648521</v>
+        <v>0.09359141838756342</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02164482424268768</v>
+        <v>0.02301456640537615</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09411642937080442</v>
+        <v>0.09437134687412645</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03231818792199481</v>
+        <v>0.05742526520498206</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09414179494929749</v>
+        <v>0.09388061477473993</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07351027269966412</v>
+        <v>0.0772994506777081</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09474140489757875</v>
+        <v>0.09338807096737878</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1300275548291948</v>
+        <v>0.02301456640537615</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08947493173220593</v>
+        <v>0.09437134687412645</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02249916708480534</v>
+        <v>0.02277226938113251</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09489425110114165</v>
+        <v>0.09515127536068947</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03216902210629488</v>
+        <v>0.05665171347185916</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09491982631251482</v>
+        <v>0.09465648762411794</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07278874990508244</v>
+        <v>0.07626830481357311</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09552439171491411</v>
+        <v>0.09415987320677861</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1284603939364931</v>
+        <v>0.02277226938113251</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09021439397792663</v>
+        <v>0.09515127536068947</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0223486640243536</v>
+        <v>0.022426432073974</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09567207283147887</v>
+        <v>0.0959312038472525</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03181158374527474</v>
+        <v>0.05626398304136315</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09569785767573216</v>
+        <v>0.09543236047349594</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07252984035875407</v>
+        <v>0.07552616440813986</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09630737853224948</v>
+        <v>0.09493167544617843</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1284968642864165</v>
+        <v>0.022426432073974</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09095385622364734</v>
+        <v>0.0959312038472525</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02219390955080688</v>
+        <v>0.02227689678311326</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09644989456181609</v>
+        <v>0.09671113233381552</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03134707406884109</v>
+        <v>0.05636120754893109</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09647588903894949</v>
+        <v>0.09620823332287397</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07124141535334788</v>
+        <v>0.07457246148384183</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09709036534958485</v>
+        <v>0.09570347768557826</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1275428645520334</v>
+        <v>0.02227689678311326</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09169331846936805</v>
+        <v>0.09671113233381552</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02203549815363964</v>
+        <v>0.02242350580776288</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09722771629215332</v>
+        <v>0.09749106082037855</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03107669430690062</v>
+        <v>0.05574252062999988</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09725392040216684</v>
+        <v>0.09698410617225198</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07053134618153264</v>
+        <v>0.07450662806311237</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09787335216692021</v>
+        <v>0.09647527992497808</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1269042934064117</v>
+        <v>0.02242350580776288</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09243278071508876</v>
+        <v>0.09749106082037855</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01987402432232626</v>
+        <v>0.02196610144713558</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09800553802249054</v>
+        <v>0.09827098930694159</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03110164568936001</v>
+        <v>0.05530705592000654</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09803195176538415</v>
+        <v>0.09775997902163</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06990750413597721</v>
+        <v>0.07302809616838496</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09865633898425556</v>
+        <v>0.09724708216437791</v>
       </c>
       <c r="N191" t="n">
-        <v>0.12578704952262</v>
+        <v>0.02196610144713558</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09317224296080946</v>
+        <v>0.09827098930694159</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02071008254634122</v>
+        <v>0.02200452600044397</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09878335975282777</v>
+        <v>0.09905091779350461</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03062312944612597</v>
+        <v>0.05475394705438802</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09880998312860149</v>
+        <v>0.09853585187100801</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06897776050935037</v>
+        <v>0.07313629782209313</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09943932580159093</v>
+        <v>0.09801888440377773</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1241970315737264</v>
+        <v>0.02200452600044397</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09391170520653018</v>
+        <v>0.09905091779350461</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02054426731515891</v>
+        <v>0.0217386217669007</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09956118148316499</v>
+        <v>0.09983084628006764</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03034234680710519</v>
+        <v>0.0546823276685813</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09958801449181882</v>
+        <v>0.09931172472038603</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06834998659432109</v>
+        <v>0.07223066504667008</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1002223126189263</v>
+        <v>0.09879068664317756</v>
       </c>
       <c r="N193" t="n">
-        <v>0.123340138232799</v>
+        <v>0.0217386217669007</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09465116745225088</v>
+        <v>0.09983084628006764</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02037717311825379</v>
+        <v>0.02156823104571841</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1003390032135022</v>
+        <v>0.1006107747666307</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02996049900220439</v>
+        <v>0.05399133139802334</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1003660458550362</v>
+        <v>0.100087597569764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06813205368355804</v>
+        <v>0.0712106298645494</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1010052994362616</v>
+        <v>0.09956248888257739</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1230222681729064</v>
+        <v>0.02156823104571841</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09539062969797159</v>
+        <v>0.1006107747666307</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01920939444510026</v>
+        <v>0.02129319613610975</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1011168249438395</v>
+        <v>0.1013907032531937</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02987878726133021</v>
+        <v>0.05348009187815111</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1011440772182535</v>
+        <v>0.1008634704191421</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06733183306973012</v>
+        <v>0.07087562429816446</v>
       </c>
       <c r="M195" t="n">
-        <v>0.101788286253597</v>
+        <v>0.1003342911219772</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1218493200671165</v>
+        <v>0.02129319613610975</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09613009194369231</v>
+        <v>0.1013907032531937</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01904152578517278</v>
+        <v>0.02121335933728734</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1018946466741767</v>
+        <v>0.1021706317397567</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02939841281438939</v>
+        <v>0.05264774274440159</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1019221085814708</v>
+        <v>0.1016393432685201</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06665719604550616</v>
+        <v>0.06932508036994878</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1025712730709324</v>
+        <v>0.101106093361377</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1204271925884978</v>
+        <v>0.02121335933728734</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09686955418941301</v>
+        <v>0.1021706317397567</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01987416162794577</v>
+        <v>0.02122856294846388</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1026724684045139</v>
+        <v>0.1029505602263198</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02912057689128859</v>
+        <v>0.05189341763221175</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1027001399446882</v>
+        <v>0.1024152161178981</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06561601390355501</v>
+        <v>0.06875843010233573</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1033542598882677</v>
+        <v>0.1018778956007769</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1184617844101184</v>
+        <v>0.02122856294846388</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09760901643513373</v>
+        <v>0.1029505602263198</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01870789646289363</v>
+        <v>0.02073864926885197</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1034502901348511</v>
+        <v>0.1037304887128828</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02884648072193453</v>
+        <v>0.05181625017701849</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1034781713079055</v>
+        <v>0.1031910889672761</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06511615793654546</v>
+        <v>0.06787510551775872</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1041372467056031</v>
+        <v>0.1026496978401767</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1175589942050467</v>
+        <v>0.02073864926885197</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09834847868085443</v>
+        <v>0.1037304887128828</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02054332477949083</v>
+        <v>0.02053972701070705</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1042281118651883</v>
+        <v>0.1045104171994458</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02867732553623387</v>
+        <v>0.05121537401425891</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1042562026711228</v>
+        <v>0.1039669618166541</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06496549943714636</v>
+        <v>0.06717453863865125</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1049202335229385</v>
+        <v>0.1034215000795765</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1165247206463507</v>
+        <v>0.02053972701070705</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09908794092657515</v>
+        <v>0.1045104171994458</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01838104106721179</v>
+        <v>0.02049966110181672</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1050059335955256</v>
+        <v>0.1052903456860088</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02861431256409333</v>
+        <v>0.05058992277936988</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1050342340343402</v>
+        <v>0.1047428346660321</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06457190969802648</v>
+        <v>0.0670561614874467</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1057032203402738</v>
+        <v>0.1041933023189763</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1152648624070989</v>
+        <v>0.02049966110181672</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09982740317229585</v>
+        <v>0.1052903456860088</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01822163981553093</v>
+        <v>0.02021681495229791</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1057837553258628</v>
+        <v>0.1060702741725719</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02825864303541961</v>
+        <v>0.05003903010778846</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1058122653975575</v>
+        <v>0.1055187075154101</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06364326001185477</v>
+        <v>0.06551940608657841</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1064862071576092</v>
+        <v>0.1049651045583762</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1137853181603593</v>
+        <v>0.02021681495229791</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1005668654180166</v>
+        <v>0.1060702741725719</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01806571551392267</v>
+        <v>0.01979831256483487</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1065615770562</v>
+        <v>0.1068502026591349</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02791151818011937</v>
+        <v>0.04884040379118981</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1065902967607748</v>
+        <v>0.1062945803647882</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06368742167129995</v>
+        <v>0.06526370445848001</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1072691939749445</v>
+        <v>0.105736906797776</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1115919865792004</v>
+        <v>0.01979831256483487</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1013063276637373</v>
+        <v>0.1068502026591349</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01891386265186146</v>
+        <v>0.01965127794211188</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1073393987865373</v>
+        <v>0.1076301311456979</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02757413922809936</v>
+        <v>0.04779311806842468</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1073683281239922</v>
+        <v>0.1070704532141662</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06321226596903093</v>
+        <v>0.06378804405799721</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1080521807922799</v>
+        <v>0.1065087090371758</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1101907663366903</v>
+        <v>0.01965127794211188</v>
       </c>
       <c r="O203" t="n">
-        <v>0.102045789909458</v>
+        <v>0.1076301311456979</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01876667571882173</v>
+        <v>0.0191828350868132</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1081172205168745</v>
+        <v>0.108410059632261</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02734770740926622</v>
+        <v>0.04636531103184707</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1081463594872095</v>
+        <v>0.1078463260635442</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06292566419771647</v>
+        <v>0.0629213462857483</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1088351676096153</v>
+        <v>0.1072805112765756</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1087875561058974</v>
+        <v>0.0191828350868132</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1027852521551787</v>
+        <v>0.108410059632261</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01762467748106116</v>
+        <v>0.01870010800162314</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1088950422472117</v>
+        <v>0.109189988118824</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02723342395352664</v>
+        <v>0.04454123143741714</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1089243908504268</v>
+        <v>0.1086221989129222</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06283189734954595</v>
+        <v>0.0621254103915414</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1096181544269506</v>
+        <v>0.1080523135159755</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1081882545598897</v>
+        <v>0.01870010800162314</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1035247144008994</v>
+        <v>0.109189988118824</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01948424591263929</v>
+        <v>0.01831022068922593</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1096728639775489</v>
+        <v>0.109969916605387</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02703249009078736</v>
+        <v>0.0427051280410955</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1097024222136442</v>
+        <v>0.1093980717623002</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06316611100411246</v>
+        <v>0.06061893301933224</v>
       </c>
       <c r="M206" t="n">
-        <v>0.110401141244286</v>
+        <v>0.1088241157553753</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1061987603717356</v>
+        <v>0.01831022068922593</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1042641766466201</v>
+        <v>0.109969916605387</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01834308527421481</v>
+        <v>0.01802029715230588</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1104506857078862</v>
+        <v>0.11074984509195</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02694262025099166</v>
+        <v>0.0406412495988423</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1104804535768615</v>
+        <v>0.1101739446116782</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06270163079791474</v>
+        <v>0.05922061081307634</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1111841280616214</v>
+        <v>0.1095959179947751</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1050249722145035</v>
+        <v>0.01802029715230588</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1050036388923408</v>
+        <v>0.11074984509195</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01820119369887705</v>
+        <v>0.01753746139354724</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1112285074382234</v>
+        <v>0.1115297735785131</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02665395604109905</v>
+        <v>0.03903384486661785</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1112584849400789</v>
+        <v>0.1109498174610563</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0629384504147503</v>
+        <v>0.05774914041672929</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1119671148789567</v>
+        <v>0.1103677202341749</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1039727887612613</v>
+        <v>0.01753746139354724</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1057431011380615</v>
+        <v>0.1115297735785131</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01905856931971537</v>
+        <v>0.01726883741563433</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1120063291685606</v>
+        <v>0.1123097020650761</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02646581686596966</v>
+        <v>0.03686716260038253</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1120365163032962</v>
+        <v>0.1117256903104343</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06267656353841664</v>
+        <v>0.0569232184742467</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1127501016962921</v>
+        <v>0.1111395224735748</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1024481086850775</v>
+        <v>0.01726883741563433</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1064825633837822</v>
+        <v>0.1123097020650761</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01891521026981911</v>
+        <v>0.01702154922125138</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1127841508988978</v>
+        <v>0.1130896305516391</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02627821352558368</v>
+        <v>0.03472545155609677</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1128145476665135</v>
+        <v>0.1125015631598123</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0622159638527113</v>
+        <v>0.05536154162958407</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1135330885136275</v>
+        <v>0.1119113247129746</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1013568306590202</v>
+        <v>0.01702154922125138</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1072220256295029</v>
+        <v>0.1130896305516391</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01677111468227761</v>
+        <v>0.01650272081308267</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1135619726292351</v>
+        <v>0.1138695590382021</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02599115681992137</v>
+        <v>0.03269296048972076</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1135925790297309</v>
+        <v>0.1132774360091903</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06215664504143184</v>
+        <v>0.05378280652669704</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1143160753309628</v>
+        <v>0.1126831269523744</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09980485335615785</v>
+        <v>0.01650272081308267</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1079614878752237</v>
+        <v>0.1138695590382021</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01662628069018025</v>
+        <v>0.01631947619381249</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1143397943595723</v>
+        <v>0.1146494875247652</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02590465754896282</v>
+        <v>0.03145393815721492</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1143706103929482</v>
+        <v>0.1140533088585683</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06219860078837577</v>
+        <v>0.05290570980954112</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1150990621482982</v>
+        <v>0.1134549291917742</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09849805861342226</v>
+        <v>0.01631947619381249</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1087009501209444</v>
+        <v>0.1146494875247652</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01848070642661635</v>
+        <v>0.01617893936612513</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1151176160899095</v>
+        <v>0.1154294160113282</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02571872651268831</v>
+        <v>0.03029263331453957</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1151486417561655</v>
+        <v>0.1148291817079463</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06274182477734067</v>
+        <v>0.05034894812207202</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1158820489656335</v>
+        <v>0.1142267314311741</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09811039142471906</v>
+        <v>0.01617893936612513</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1094404123666651</v>
+        <v>0.1154294160113282</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01633439002467526</v>
+        <v>0.01578823433270483</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1158954378202468</v>
+        <v>0.1162093444978912</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02553337451107796</v>
+        <v>0.02959329471765501</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1159266731193828</v>
+        <v>0.1156050545573244</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06238631069212397</v>
+        <v>0.04963121810824506</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1166650357829689</v>
+        <v>0.1149985336705739</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09651462734644756</v>
+        <v>0.01578823433270483</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1101798746123858</v>
+        <v>0.1162093444978912</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01618732961744634</v>
+        <v>0.01554356282894379</v>
       </c>
       <c r="G215" t="n">
-        <v>0.116673259550584</v>
+        <v>0.1169892729844543</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02554861234411197</v>
+        <v>0.03004846660681326</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1167047044826002</v>
+        <v>0.1163809274067024</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06243205221652323</v>
+        <v>0.04847121641201618</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1174480226003042</v>
+        <v>0.1157703359099737</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09541075335446081</v>
+        <v>0.01554356282894379</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1109193368581065</v>
+        <v>0.1169892729844543</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01803952333801893</v>
+        <v>0.01540514818967506</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1174510812809212</v>
+        <v>0.1177692014710173</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02526445081177056</v>
+        <v>0.02956274114579641</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1174827358458175</v>
+        <v>0.1171568002560804</v>
       </c>
       <c r="L216" t="n">
-        <v>0.062379043034336</v>
+        <v>0.04738763967734061</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1182310094176396</v>
+        <v>0.1165421381493735</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09339875642461187</v>
+        <v>0.01540514818967506</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1116587991038272</v>
+        <v>0.1177692014710173</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01689096931948237</v>
+        <v>0.01526861916219095</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1182289030112584</v>
+        <v>0.1185491299575803</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0250809007140339</v>
+        <v>0.029579646443611</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1182607672090349</v>
+        <v>0.1179326731054584</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06202727682935982</v>
+        <v>0.04519918454817418</v>
       </c>
       <c r="M217" t="n">
-        <v>0.119013996234975</v>
+        <v>0.1173139403887733</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09257862353275365</v>
+        <v>0.01526861916219095</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1123982613495479</v>
+        <v>0.1185491299575803</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01574166569492602</v>
+        <v>0.01533401651842121</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1190067247415957</v>
+        <v>0.1193290584441433</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02489797285088219</v>
+        <v>0.02939914615268738</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1190387985722522</v>
+        <v>0.1187085459548364</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06217674728539221</v>
+        <v>0.04462454766847229</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1197969830523103</v>
+        <v>0.1180857426281732</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09205034165473908</v>
+        <v>0.01533401651842121</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1131377235952686</v>
+        <v>0.1193290584441433</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01559161059743923</v>
+        <v>0.01530138103029553</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1197845464719329</v>
+        <v>0.1201089869307064</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02451567802229561</v>
+        <v>0.02932120392545587</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1198168299354695</v>
+        <v>0.1194844188042144</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06182744808623064</v>
+        <v>0.04418242568219072</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1205799698696457</v>
+        <v>0.118857544867573</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09041389776642117</v>
+        <v>0.01530138103029553</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1138771858409893</v>
+        <v>0.1201089869307064</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01544080216011134</v>
+        <v>0.01487075346974365</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1205623682022701</v>
+        <v>0.1208889154172694</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02463402702825433</v>
+        <v>0.02904578341434683</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1205948612986869</v>
+        <v>0.1202602916535924</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06207937291567273</v>
+        <v>0.04316792847308731</v>
       </c>
       <c r="M220" t="n">
-        <v>0.121362956686981</v>
+        <v>0.1196293471069728</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08936927884365309</v>
+        <v>0.01487075346974365</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1146166480867101</v>
+        <v>0.1208889154172694</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01628923851603171</v>
+        <v>0.01504217460869527</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1213401899326073</v>
+        <v>0.1216688439038324</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02415303066873857</v>
+        <v>0.02897284827179061</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1213728926619042</v>
+        <v>0.1210361645029705</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06163251545751589</v>
+        <v>0.0425707796195679</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1221459435043164</v>
+        <v>0.1204011493463726</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0881164718622876</v>
+        <v>0.01504217460869527</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1153561103324308</v>
+        <v>0.1216688439038324</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01613691779828968</v>
+        <v>0.01491568521908013</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1221180116629446</v>
+        <v>0.1224487723903955</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02427269974372848</v>
+        <v>0.0289023621502176</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1221509240251216</v>
+        <v>0.1218120373523485</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06158686939555777</v>
+        <v>0.04077504342885174</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1229289303216518</v>
+        <v>0.1211729515857725</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08665546379817779</v>
+        <v>0.01491568521908013</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1160955725781515</v>
+        <v>0.1224487723903955</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01498383813997458</v>
+        <v>0.01459132607282793</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1228958333932818</v>
+        <v>0.1232287008769585</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02389304505320429</v>
+        <v>0.02883428870205809</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1229289553883389</v>
+        <v>0.1225879102017265</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06174242841359584</v>
+        <v>0.04088151582378974</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1237119171389871</v>
+        <v>0.1219447538251723</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0856862416271767</v>
+        <v>0.01459132607282793</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1168350348238722</v>
+        <v>0.1232287008769585</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01482999767417578</v>
+        <v>0.0145691379418684</v>
       </c>
       <c r="G224" t="n">
-        <v>0.123673655123619</v>
+        <v>0.1240086293635215</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02381407739714618</v>
+        <v>0.02876859157974246</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1237069867515562</v>
+        <v>0.1233637830511045</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06199918619542763</v>
+        <v>0.03909099272723221</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1244949039563225</v>
+        <v>0.1227165560645721</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08340879232513726</v>
+        <v>0.0145691379418684</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1175744970695929</v>
+        <v>0.1240086293635215</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01667539453398263</v>
+        <v>0.01444916159813124</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1244514768539562</v>
+        <v>0.1247885578500845</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02343580757553432</v>
+        <v>0.02910523443570109</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1244850181147735</v>
+        <v>0.1241396559004825</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06215713642485066</v>
+        <v>0.03850427006202983</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1252778907736579</v>
+        <v>0.1234883583039719</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08292310286791238</v>
+        <v>0.01444916159813124</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1183139593153136</v>
+        <v>0.1247885578500845</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01652002685248447</v>
+        <v>0.0141314378135462</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1252292985842935</v>
+        <v>0.1255684863366476</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02345824638834891</v>
+        <v>0.02914418092236429</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1252630494779909</v>
+        <v>0.1249155287498605</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06201627278566252</v>
+        <v>0.03772214375103322</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1260608775909932</v>
+        <v>0.1242601605433718</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08182916023135517</v>
+        <v>0.0141314378135462</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1190534215610343</v>
+        <v>0.1255684863366476</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01636389276277065</v>
+        <v>0.01401600736004296</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1260071203146307</v>
+        <v>0.1263484148232106</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02328140463557013</v>
+        <v>0.02868539469216244</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1260410808412082</v>
+        <v>0.1256914015992386</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0620765889616606</v>
+        <v>0.03754540971709303</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1268438644083286</v>
+        <v>0.1250319627827716</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07972695139131863</v>
+        <v>0.01401600736004296</v>
       </c>
       <c r="O227" t="n">
-        <v>0.119792883806755</v>
+        <v>0.1263484148232106</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01620699039793052</v>
+        <v>0.01390291100955128</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1267849420449679</v>
+        <v>0.1271283433097736</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0231052931171782</v>
+        <v>0.02872883939752585</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1268191122044255</v>
+        <v>0.1264672744486166</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06143807863664261</v>
+        <v>0.03597486388305982</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1276268512256639</v>
+        <v>0.1258037650221714</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07891646332365565</v>
+        <v>0.01390291100955128</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1205323460524758</v>
+        <v>0.1271283433097736</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01404931789105341</v>
+        <v>0.01409218953400083</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1275627637753052</v>
+        <v>0.1279082717963367</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02292992263315327</v>
+        <v>0.02877447869088492</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1275971435676429</v>
+        <v>0.1272431472979946</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06200073549440588</v>
+        <v>0.03531130217178413</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1284098380429993</v>
+        <v>0.1265755672615713</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07699768300421928</v>
+        <v>0.01409218953400083</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1212718082981965</v>
+        <v>0.1279082717963367</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0138908733752287</v>
+        <v>0.01388388370532137</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1283405855056424</v>
+        <v>0.1286882002828997</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02285530398347553</v>
+        <v>0.02882227622466998</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1283751749308602</v>
+        <v>0.1280190201473726</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06186455321874812</v>
+        <v>0.03475552050611663</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1291928248603347</v>
+        <v>0.1273473695009711</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07557059740886252</v>
+        <v>0.01388388370532137</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1220112705439172</v>
+        <v>0.1286882002828997</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01573165498354571</v>
+        <v>0.01367803429544261</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1291184072359796</v>
+        <v>0.1294681287694627</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02268144796812523</v>
+        <v>0.02897219565131134</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1291532062940775</v>
+        <v>0.1287948929967506</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06152952549346671</v>
+        <v>0.03420831480890796</v>
       </c>
       <c r="M231" t="n">
-        <v>0.12997581167767</v>
+        <v>0.1281191717403709</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07433519351343826</v>
+        <v>0.01367803429544261</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1227507327896379</v>
+        <v>0.1294681287694627</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0155716608490938</v>
+        <v>0.01377468207629425</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1298962289663168</v>
+        <v>0.1302480572560258</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02220836538708247</v>
+        <v>0.02902420062323943</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1299312376572949</v>
+        <v>0.1295707658461286</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06189564600235931</v>
+        <v>0.0338704810030086</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1307587984950054</v>
+        <v>0.1288909739797707</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0730914582937997</v>
+        <v>0.01377468207629425</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1234901950353586</v>
+        <v>0.1302480572560258</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01341088910496233</v>
+        <v>0.01337386781980601</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1306740506966541</v>
+        <v>0.1310279857425888</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02203606704032748</v>
+        <v>0.02897825479288452</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1307092690205122</v>
+        <v>0.1303466386955066</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06186290842922335</v>
+        <v>0.03264281501126925</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1315417853123408</v>
+        <v>0.1296627762191706</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07173937872579961</v>
+        <v>0.01337386781980601</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1242296572810793</v>
+        <v>0.1310279857425888</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01524933788424062</v>
+        <v>0.01337563229790761</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1314518724269913</v>
+        <v>0.1318079142291518</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02196456372784046</v>
+        <v>0.02853432181267701</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1314873003837295</v>
+        <v>0.1311225115448847</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0612313064578564</v>
+        <v>0.0324261127565405</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1323247721296761</v>
+        <v>0.1304345784585704</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07127894178529109</v>
+        <v>0.01337563229790761</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1249691195268</v>
+        <v>0.1318079142291518</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01508700532001803</v>
+        <v>0.01318001628252882</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1322296941573285</v>
+        <v>0.1325878427157148</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02179386624960158</v>
+        <v>0.02879236533504728</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1322653317469469</v>
+        <v>0.1318983843942627</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06180083377205595</v>
+        <v>0.03162117016167293</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1331077589470115</v>
+        <v>0.1312063806979702</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0699101344481271</v>
+        <v>0.01318001628252882</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1257085817725207</v>
+        <v>0.1325878427157148</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01392388954538393</v>
+        <v>0.01318706054559929</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1330075158876657</v>
+        <v>0.1333677712022779</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02152398540559107</v>
+        <v>0.02865234901242561</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1330433631101642</v>
+        <v>0.1326742572436407</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06157148405561957</v>
+        <v>0.03052878314951718</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1338907457643468</v>
+        <v>0.13197818293737</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06843294369016067</v>
+        <v>0.01318706054559929</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1264480440182414</v>
+        <v>0.1333677712022779</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01475998869342764</v>
+        <v>0.01329680585904876</v>
       </c>
       <c r="G237" t="n">
-        <v>0.133785337618003</v>
+        <v>0.1341476996888409</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02155493199578903</v>
+        <v>0.02821423649724242</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1338213944733816</v>
+        <v>0.1334501300930187</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06174325099234479</v>
+        <v>0.02974974764292376</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1346737325816822</v>
+        <v>0.1327499851767699</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06644735648724465</v>
+        <v>0.01329680585904876</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1271875062639621</v>
+        <v>0.1341476996888409</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01359530089723852</v>
+        <v>0.01310929299480695</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1345631593483402</v>
+        <v>0.1349276281754039</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02118671682017574</v>
+        <v>0.02867799144192801</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1345994258365989</v>
+        <v>0.1342260029423967</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06151612826602909</v>
+        <v>0.02898485956474339</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1354567193990176</v>
+        <v>0.1335217874161697</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06485335981523221</v>
+        <v>0.01310929299480695</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1279269685096829</v>
+        <v>0.1349276281754039</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01242982428990591</v>
+        <v>0.01302456272480357</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1353409810786774</v>
+        <v>0.135707556661967</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02131935067873135</v>
+        <v>0.02824357749891271</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1353774571998162</v>
+        <v>0.1350018757917748</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06139010956047006</v>
+        <v>0.02893491483782656</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1362397062163529</v>
+        <v>0.1342935896555695</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0635509406499763</v>
+        <v>0.01302456272480357</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1286664307554035</v>
+        <v>0.135707556661967</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01326355700451917</v>
+        <v>0.01304265582096836</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1361188028090146</v>
+        <v>0.13648748514853</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02105284437143604</v>
+        <v>0.02831095832062694</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1361554885630336</v>
+        <v>0.1357777486411528</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06166518855946521</v>
+        <v>0.02840070938502404</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1370226930336883</v>
+        <v>0.1350653918949693</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06194008596732986</v>
+        <v>0.01304265582096836</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1294058930011243</v>
+        <v>0.13648748514853</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01309649717416764</v>
+        <v>0.01296361305523103</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1368966245393519</v>
+        <v>0.137267413635093</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02068720869827002</v>
+        <v>0.02868009755950104</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1369335199262509</v>
+        <v>0.1365536214905308</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06124135894681199</v>
+        <v>0.0279830391291862</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1378056798510237</v>
+        <v>0.1358371941343691</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06062078274314581</v>
+        <v>0.01296361305523103</v>
       </c>
       <c r="O241" t="n">
-        <v>0.130145355246845</v>
+        <v>0.137267413635093</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01392864293194067</v>
+        <v>0.0125874751995213</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1376744462696891</v>
+        <v>0.138047342121656</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02052245445921345</v>
+        <v>0.02845095886796534</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1377115512894682</v>
+        <v>0.1373294943399088</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06141861440630805</v>
+        <v>0.02708269999316382</v>
       </c>
       <c r="M242" t="n">
-        <v>0.138588666668359</v>
+        <v>0.136608996373769</v>
       </c>
       <c r="N242" t="n">
-        <v>0.05959301795327732</v>
+        <v>0.0125874751995213</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1308848174925657</v>
+        <v>0.138047342121656</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0117599924109276</v>
+        <v>0.01271428302576885</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1384522680000263</v>
+        <v>0.1388272706082191</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02065859245424655</v>
+        <v>0.02832350589845017</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1384895826526856</v>
+        <v>0.1381053671892868</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06159694862175083</v>
+        <v>0.02630048789980749</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1393716534856944</v>
+        <v>0.1373807986131688</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05795677857357728</v>
+        <v>0.01271428302576885</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1316242797382864</v>
+        <v>0.1388272706082191</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01159054374421779</v>
+        <v>0.01244407730590346</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1392300897303635</v>
+        <v>0.1396071990947821</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0201956334833495</v>
+        <v>0.02789770230338592</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1392676140159029</v>
+        <v>0.1388812400386648</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06087635527693791</v>
+        <v>0.02533719877196766</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1401546403030297</v>
+        <v>0.1381526008525686</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05701205157989864</v>
+        <v>0.01244407730590346</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1323637419840071</v>
+        <v>0.1396071990947821</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01342029506490058</v>
+        <v>0.01267689881185481</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1400079114607008</v>
+        <v>0.1403871275813451</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02013358834650246</v>
+        <v>0.02797351173520293</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1400456453791202</v>
+        <v>0.1396571128880428</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06105682805566676</v>
+        <v>0.02549362853249515</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1409376271203651</v>
+        <v>0.1389244030919684</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05505882394809442</v>
+        <v>0.01267689881185481</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1331032042297278</v>
+        <v>0.1403871275813451</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01224924450606532</v>
+        <v>0.01241278831555263</v>
       </c>
       <c r="G246" t="n">
-        <v>0.140785733191038</v>
+        <v>0.1411670560679081</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02007246784368566</v>
+        <v>0.02795089784633153</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1408236767423376</v>
+        <v>0.1404329857374209</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06113836064173495</v>
+        <v>0.02517057310424042</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1417206139377004</v>
+        <v>0.1396962053313683</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05389708265401755</v>
+        <v>0.01241278831555263</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1338426664754485</v>
+        <v>0.1411670560679081</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01207739020080136</v>
+        <v>0.01245178658892664</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1415635549213752</v>
+        <v>0.1419469845544712</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02001228277487928</v>
+        <v>0.02852982428920209</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1416017081055549</v>
+        <v>0.1412088585867989</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06122094671894002</v>
+        <v>0.0239688284100541</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1425036007550358</v>
+        <v>0.1404680075707681</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05282681467352124</v>
+        <v>0.01245178658892664</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1345821287211692</v>
+        <v>0.1419469845544712</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01290473028219806</v>
+        <v>0.01249393440390655</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1423413766517125</v>
+        <v>0.1427269130410342</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01965304394006348</v>
+        <v>0.02811025471624495</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1423797394687722</v>
+        <v>0.1419847314361769</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06110457997107949</v>
+        <v>0.02338919037278669</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1432865875723712</v>
+        <v>0.1412398098101679</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05034800698245828</v>
+        <v>0.01249393440390655</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1353215909668899</v>
+        <v>0.1427269130410342</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01273126288334474</v>
+        <v>0.01213927253242207</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1431191983820497</v>
+        <v>0.1435068415275972</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0195947621392185</v>
+        <v>0.0282921527798905</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1431577708319896</v>
+        <v>0.1427606042855549</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06138925408195084</v>
+        <v>0.02373245491528903</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1440695743897066</v>
+        <v>0.1420116120495677</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0489606465566817</v>
+        <v>0.01213927253242207</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1360610532126106</v>
+        <v>0.1435068415275972</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01055698613733077</v>
+        <v>0.01228784174640295</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1438970201123869</v>
+        <v>0.1442867700141603</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01933744817232445</v>
+        <v>0.02837548213256905</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1439358021952069</v>
+        <v>0.1435364771349329</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06137496273535165</v>
+        <v>0.02329941796041146</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1448525612070419</v>
+        <v>0.1427834142889676</v>
       </c>
       <c r="N250" t="n">
-        <v>0.04796472037204441</v>
+        <v>0.01228784174640295</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1368005154583314</v>
+        <v>0.1442867700141603</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01238189817724549</v>
+        <v>0.01233968281777887</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1446748418427241</v>
+        <v>0.1450666985007233</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01908111283936162</v>
+        <v>0.02806020642671095</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1447138335584242</v>
+        <v>0.1443123499843109</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06086169961507942</v>
+        <v>0.02189087543100487</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1456355480243773</v>
+        <v>0.1435552165283674</v>
       </c>
       <c r="N251" t="n">
-        <v>0.04686021540439961</v>
+        <v>0.01233968281777887</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1375399777040521</v>
+        <v>0.1450666985007233</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01020599713617825</v>
+        <v>0.01209483651847958</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1454526635730614</v>
+        <v>0.1458466269872863</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0192257669403101</v>
+        <v>0.02824628931474657</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1454918649216416</v>
+        <v>0.1450882228336889</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06074945840493168</v>
+        <v>0.02240762324991963</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1464185348417126</v>
+        <v>0.1443270187677672</v>
       </c>
       <c r="N252" t="n">
-        <v>0.04534711862960011</v>
+        <v>0.01209483651847958</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1382794399497728</v>
+        <v>0.1458466269872863</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01102928114721841</v>
+        <v>0.01215334362043478</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1462304853033986</v>
+        <v>0.1466265554738493</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01907142127515016</v>
+        <v>0.02823369444910628</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1462698962848589</v>
+        <v>0.145864095683067</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06083823278870598</v>
+        <v>0.02145045734000645</v>
       </c>
       <c r="M253" t="n">
-        <v>0.147201521659048</v>
+        <v>0.145098821007167</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04372541702349902</v>
+        <v>0.01215334362043478</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1390189021954935</v>
+        <v>0.1466265554738493</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01185174834345529</v>
+        <v>0.0121152448955742</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1470083070337358</v>
+        <v>0.1474064839604124</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01891808664386194</v>
+        <v>0.02832238548222038</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1470479276480762</v>
+        <v>0.146639968532445</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06142801645019985</v>
+        <v>0.0214201736241158</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1479845084763833</v>
+        <v>0.1458706232465669</v>
       </c>
       <c r="N254" t="n">
-        <v>0.04159509756194918</v>
+        <v>0.0121152448955742</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1397583644412142</v>
+        <v>0.1474064839604124</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01067339685797825</v>
+        <v>0.01198058111582755</v>
       </c>
       <c r="G255" t="n">
-        <v>0.147786128764073</v>
+        <v>0.1481864124469754</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01856577384642562</v>
+        <v>0.02811232606651926</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1478259590112936</v>
+        <v>0.147415841381823</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06111880307321077</v>
+        <v>0.02041756802509853</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1487674952937187</v>
+        <v>0.1466424254859667</v>
       </c>
       <c r="N255" t="n">
-        <v>0.03985614722080372</v>
+        <v>0.01198058111582755</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1404978266869349</v>
+        <v>0.1481864124469754</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00949422482387665</v>
+        <v>0.01184939305312455</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1485639504944103</v>
+        <v>0.1489663409335384</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01841449368282141</v>
+        <v>0.02790347985443328</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1486039903745109</v>
+        <v>0.148191714231201</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06101058634153633</v>
+        <v>0.02044343646580488</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1495504821110541</v>
+        <v>0.1474142277253665</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0390085529759156</v>
+        <v>0.01184939305312455</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1412372889326556</v>
+        <v>0.1489663409335384</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01131423037423984</v>
+        <v>0.01212172147939491</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1493417722247475</v>
+        <v>0.1497462694201015</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01826425695302954</v>
+        <v>0.02829581049839272</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1493820217377282</v>
+        <v>0.148967587080579</v>
       </c>
       <c r="L257" t="n">
-        <v>0.061403359938974</v>
+        <v>0.02069857486908583</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1503334689283894</v>
+        <v>0.1481860299647663</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0373523018031377</v>
+        <v>0.01212172147939491</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1419767511783763</v>
+        <v>0.1497462694201015</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01113341164215714</v>
+        <v>0.01179760716656836</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1501195939550847</v>
+        <v>0.1505261979066645</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01831507445703012</v>
+        <v>0.02838928165082802</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1501600531009456</v>
+        <v>0.1497434599299571</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06069711754932133</v>
+        <v>0.01998377915779176</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1511164557457248</v>
+        <v>0.1489578322041662</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0353873806783232</v>
+        <v>0.01179760716656836</v>
       </c>
       <c r="O258" t="n">
-        <v>0.142716213424097</v>
+        <v>0.1505261979066645</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.00995176676071792</v>
+        <v>0.01197709088657462</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1508974156854219</v>
+        <v>0.1513061263932275</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01816695699480339</v>
+        <v>0.02818385696416945</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1509380844641629</v>
+        <v>0.1505193327793351</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06119185285637588</v>
+        <v>0.02059984525477337</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1518994425630601</v>
+        <v>0.149729634443566</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03411377657732484</v>
+        <v>0.01197709088657462</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1434556756698178</v>
+        <v>0.1513061263932275</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01076929386301152</v>
+        <v>0.01176021341134342</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1516752374157592</v>
+        <v>0.1520860548797905</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01791991536632952</v>
+        <v>0.02767950009084741</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1517161158273803</v>
+        <v>0.1512952056287131</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06098755954393512</v>
+        <v>0.01994756908288114</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1526824293803955</v>
+        <v>0.1505014366829658</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03263147647599585</v>
+        <v>0.01176021341134342</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1441951379155385</v>
+        <v>0.1520860548797905</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.009585991082127293</v>
+        <v>0.01204701551280444</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1524530591460964</v>
+        <v>0.1528659833663536</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0177739603715887</v>
+        <v>0.02767617468329228</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1524941471905976</v>
+        <v>0.1520710784780911</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06128423129579666</v>
+        <v>0.0202277465649659</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1534654161977309</v>
+        <v>0.1512732389223656</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03104046735018906</v>
+        <v>0.01204701551280444</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1449346001612592</v>
+        <v>0.1528659833663536</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0104018565511546</v>
+        <v>0.01173753796288743</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1532308808764336</v>
+        <v>0.1536459118529166</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01762910281056113</v>
+        <v>0.02767384439393433</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1532721785538149</v>
+        <v>0.1528469513274691</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06108186179575792</v>
+        <v>0.01994117362387798</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1542484030150662</v>
+        <v>0.1520450411617655</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02864073617575758</v>
+        <v>0.01173753796288743</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1456740624069799</v>
+        <v>0.1536459118529166</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01021688840318276</v>
+        <v>0.01203182153352209</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1540087026067709</v>
+        <v>0.1544258403394796</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01738535348322696</v>
+        <v>0.02817247287520402</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1540502099170322</v>
+        <v>0.1536228241768471</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06078044472761651</v>
+        <v>0.01968864618246813</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1550313898324016</v>
+        <v>0.1528168434011653</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02813226992855433</v>
+        <v>0.01203182153352209</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1464135246527006</v>
+        <v>0.1544258403394796</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009031084771301129</v>
+        <v>0.01192990699663814</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1547865243371081</v>
+        <v>0.1552057688260426</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01714272318956646</v>
+        <v>0.02797202377953159</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1548282412802496</v>
+        <v>0.1543986970262251</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0613799737751699</v>
+        <v>0.01957096016358695</v>
       </c>
       <c r="M264" t="n">
-        <v>0.155814376649737</v>
+        <v>0.1535886456405651</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0254150555844323</v>
+        <v>0.01192990699663814</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1471529868984213</v>
+        <v>0.1552057688260426</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8263518223330697</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06610814578664558</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08579055466999208</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.03579055466999208</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01017498303960121</v>
+        <v>0.01558515391799653</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9269,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0003197600000000003</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002153748108486106</v>
+        <v>0.001877387868586343</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007799284865630284</v>
+        <v>0.0006620975143231974</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005834857938482207</v>
+        <v>0.0022399994496205</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007758728493780159</v>
+        <v>0.0007799284865630284</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01280586188862737</v>
+        <v>0.007999999999999979</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007718022393998247</v>
+        <v>0.001076632996632993</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.002153748108486106</v>
+        <v>0.008394871869603193</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007799284865630284</v>
+        <v>0.0007722077383601429</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00411034399640739</v>
+        <v>0.003721919977115434</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001559856973126057</v>
+        <v>0.001324195028646395</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01199999999999998</v>
+        <v>0.004149109312285883</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001756923076923074</v>
+        <v>0.001559856973126057</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02414146408518469</v>
+        <v>0.01020930912587339</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001543604478799649</v>
+        <v>0.001547493593576848</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.00411034399640739</v>
+        <v>0.01546312840972452</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001559856973126057</v>
+        <v>0.001544415476720286</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.005533878833503016</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001998499999999999</v>
+        <v>0.001986292542969592</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01432709054573011</v>
+        <v>0.005852925392392121</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002327618548134047</v>
+        <v>0.002339785459689085</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03380726100439591</v>
+        <v>0.01452976851814872</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002315406718199474</v>
+        <v>0.002321240390365272</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.02240819806379785</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001998499999999999</v>
+        <v>0.002316623215080429</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006624979210870512</v>
+        <v>0.007313546945664787</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003119713946252114</v>
+        <v>0.002648390057292789</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01783401016153949</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003103491397512064</v>
+        <v>0.002797899999999999</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04110370706098476</v>
+        <v>0.01791755242022375</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003087208957599299</v>
+        <v>0.003094987187153696</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006624979210870512</v>
+        <v>0.02985256691630384</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003119713946252114</v>
+        <v>0.003088830953440572</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001998499999999999</v>
+        <v>0.009908784701595837</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.02479055466999209</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008064123879990136</v>
+        <v>0.009061206821516468</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003899642432815142</v>
+        <v>0.003310487571615986</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02120270769202898</v>
+        <v>0.008507971617918622</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003879364246890079</v>
+        <v>0.003899642432815142</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04499999999999998</v>
+        <v>0.02214432158894358</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003526764705882351</v>
+        <v>0.00386873398394212</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008064123879990136</v>
+        <v>0.03531872105172307</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003899642432815142</v>
+        <v>0.003861038691800715</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009022411004174287</v>
+        <v>0.0107771409689738</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004679570919378171</v>
+        <v>0.003972585085939184</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02382546847214084</v>
+        <v>0.009499747832959954</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004655237096268095</v>
+        <v>0.004679570919378171</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04942853062653346</v>
+        <v>0.02518173678115337</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004630813436398948</v>
+        <v>0.004642480780730544</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009022411004174287</v>
+        <v>0.04072914655453636</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004679570919378171</v>
+        <v>0.004633246430160857</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01010080222078677</v>
+        <v>0.01246163189595247</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0054594994059412</v>
+        <v>0.004634682600262382</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02699457783681722</v>
+        <v>0.01070112855496267</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005431109945646111</v>
+        <v>0.0054594994059412</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05221721036594545</v>
+        <v>0.02830145875369822</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005402615675798773</v>
+        <v>0.005416227577518968</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01010080222078677</v>
+        <v>0.04610632950922433</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0054594994059412</v>
+        <v>0.005405454168521001</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0114002591671914</v>
+        <v>0.01411496211036822</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006239427892504227</v>
+        <v>0.005296780114585579</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02970232112100035</v>
+        <v>0.01151813297906842</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006206982795024127</v>
+        <v>0.006239427892504227</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05326480791267907</v>
+        <v>0.03067514826342332</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006174417915198597</v>
+        <v>0.006189974374307392</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0114002591671914</v>
+        <v>0.05047275600026774</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006239427892504227</v>
+        <v>0.006177661906881143</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01212174348075196</v>
+        <v>0.01573741412013677</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007019356379067256</v>
+        <v>0.005958877628908776</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03204098365963254</v>
+        <v>0.01235678030041883</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006982855644402142</v>
+        <v>0.007019356379067256</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05507342976323015</v>
+        <v>0.03357446606717365</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006946220154598422</v>
+        <v>0.006963721171095816</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01212174348075196</v>
+        <v>0.05375091211214722</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007019356379067256</v>
+        <v>0.006949869645241286</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0130662167988323</v>
+        <v>0.01732927043317383</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007799284865630284</v>
+        <v>0.006620975143231973</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03400285078765594</v>
+        <v>0.0131230897141556</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007758728493780159</v>
+        <v>0.007799284865630284</v>
       </c>
       <c r="L75" s="172" t="n">
+        <v>0.03537107292179451</v>
+      </c>
+      <c r="M75" s="170" t="n">
+        <v>0.00773746796788424</v>
+      </c>
+      <c r="N75" s="171" t="n">
         <v>0.05730159255302764</v>
       </c>
-      <c r="M75" s="170" t="n">
-        <v>0.007484786452106256</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.0130662167988323</v>
-      </c>
       <c r="O75" s="172" t="n">
-        <v>0.007799284865630284</v>
+        <v>0.007634482181148382</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0139346407587962</v>
+        <v>0.01889081355739512</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008579213352193313</v>
+        <v>0.007283072657555172</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
+        <v>0.01382308041542038</v>
+      </c>
+      <c r="K76" s="171" t="n">
+        <v>0.008579213352193313</v>
+      </c>
+      <c r="L76" s="172" t="n">
         <v>0.0362877612799673</v>
       </c>
-      <c r="K76" s="171" t="n">
-        <v>0.008854834055923645</v>
-      </c>
-      <c r="L76" s="172" t="n">
-        <v>0.05852361993903282</v>
-      </c>
       <c r="M76" s="170" t="n">
-        <v>0.008489824633398072</v>
+        <v>0.00813929190999042</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0139346407587962</v>
+        <v>0.05960235991662116</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008579213352193313</v>
+        <v>0.008494285121961574</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01452797699800747</v>
+        <v>0.02042232600071637</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007945170171878369</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01456277159935482</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009359141838756342</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.0369135876862515</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009310474192536189</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06051073786724648</v>
+        <v>0.03822116416201568</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009261626872797897</v>
+        <v>0.009284961561461089</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01452797699800747</v>
+        <v>0.06129172968624397</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009359141838756342</v>
+        <v>0.009266492860321714</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.02192409027105331</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.008607267686201564</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.01527393000690699</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.01017498303960121</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03830595492797134</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01008634704191421</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06249921441644107</v>
+        <v>0.03923261127617805</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01003342911219772</v>
+        <v>0.01005870835824951</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.0642368272250618</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01017498303960121</v>
+        <v>0.01003870059868186</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0157245259269877</v>
+        <v>0.02339638887632162</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009269365200524763</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01580534459868332</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.0109189988118824</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03988028174904451</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01086221989129222</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.06418716175464956</v>
+        <v>0.04051992186775491</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01080523135159755</v>
+        <v>0.01083245515503794</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0157245259269877</v>
+        <v>0.06573733592144143</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0109189988118824</v>
+        <v>0.010810908337042</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01619746149190865</v>
+        <v>0.02479055466999209</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009908784701595837</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01636003632474743</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01169892729844543</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04063590852749635</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01163809274067024</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06677269204990505</v>
+        <v>0.04218270961810941</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01157703359099737</v>
+        <v>0.01160620195182636</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01619746149190865</v>
+        <v>0.06859293916374964</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01169892729844543</v>
+        <v>0.01158311607540214</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01696561240652664</v>
+        <v>0.02629376400927206</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01059356022917116</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01691178222626498</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01247885578500845</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04197217564135225</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01241396559004825</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06815391747024058</v>
+        <v>0.0436205882086047</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01234883583039719</v>
+        <v>0.01237994874861478</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01696561240652664</v>
+        <v>0.07070332034035309</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01247885578500845</v>
+        <v>0.01235532381376229</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01732852381937268</v>
+        <v>0.02777201537367501</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01125565774349436</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01746005795153376</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01325878427157148</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04338842346863764</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01318983843942627</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.07032895018368929</v>
+        <v>0.04513317132060382</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01312063806979702</v>
+        <v>0.01315369554540321</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01732852381937268</v>
+        <v>0.07276816283961857</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01325878427157148</v>
+        <v>0.01312753155212243</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01798574087897778</v>
+        <v>0.02924237534037256</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01191775525781755</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0178043391488515</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01403871275813451</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.0445839923873779</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01396571128880428</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.07119590235828405</v>
+        <v>0.04602007263546989</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01389244030919684</v>
+        <v>0.01392744234219163</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01798574087897778</v>
+        <v>0.07438715004991264</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01403871275813451</v>
+        <v>0.01389973929048257</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01853680873387299</v>
+        <v>0.03067291061308858</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01257985277214075</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01844410146651604</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01481864124469754</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.0463582227755984</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.0147415841381823</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07375288616205805</v>
+        <v>0.04728090583456598</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01466424254859667</v>
+        <v>0.01470118913898006</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01853680873387299</v>
+        <v>0.07645996535960214</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01481864124469754</v>
+        <v>0.01467194702884272</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01908127253258929</v>
+        <v>0.0320316878955469</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01324195028646395</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01877882055282512</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01559856973126057</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04741045501132454</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01551745698756032</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07519801376304425</v>
+        <v>0.0485152845992553</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01543604478799649</v>
+        <v>0.01547493593576848</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01908127253258929</v>
+        <v>0.07788629215705378</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01559856973126057</v>
+        <v>0.01544415476720286</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01971867742365777</v>
+        <v>0.03328677389147134</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01390404780078715</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0194079720560765</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.0163784982178236</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04884002947258173</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01629332983693833</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07672939732927581</v>
+        <v>0.05012282261090092</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01620784702739632</v>
+        <v>0.0162486827325569</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01971867742365777</v>
+        <v>0.08036581383063413</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0163784982178236</v>
+        <v>0.016216362505563</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01994856855560941</v>
+        <v>0.03440623530458575</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01456614531511034</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.020131031624568</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01715842670438663</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05004628653739535</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01706920268631635</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.0779451490287858</v>
+        <v>0.05120313355086586</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01697964926679614</v>
+        <v>0.01702242952934533</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01994856855560941</v>
+        <v>0.08209821376871007</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01715842670438663</v>
+        <v>0.01698857024392315</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02077049107697522</v>
+        <v>0.03535813883861395</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01522824282943354</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02054747490659735</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01793835519094965</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05092856658379075</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01784507553569437</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.08064338102960705</v>
+        <v>0.05215583110051333</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01775145150619597</v>
+        <v>0.01779617632613375</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02077049107697522</v>
+        <v>0.08428317535964819</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01793835519094965</v>
+        <v>0.01776077798228329</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02108399013628626</v>
+        <v>0.03579055466999208</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01558515391799653</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02115677755046237</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01871828367751268</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05188620998979337</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01862094838507238</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.08202220549977274</v>
+        <v>0.05358052894120646</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01852325374559579</v>
+        <v>0.01856992312292218</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02108399013628626</v>
+        <v>0.08552038199181522</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01871828367751268</v>
+        <v>0.01853298572064343</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02148861088207353</v>
+        <v>0.03685176442252993</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01655243785807993</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02165841520446078</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01949821216407571</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05321855713342855</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01939682123445039</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08317973460731604</v>
+        <v>0.0542768407543083</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01929505598499562</v>
+        <v>0.0193436699197106</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02148861088207353</v>
+        <v>0.08710951705357795</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01949821216407571</v>
+        <v>0.01930519345900357</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02228389846286807</v>
+        <v>0.03754656268700742</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01721453537240313</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0220518635168904</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02027814065063874</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05462494839272178</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02017269408382841</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.08481408052026973</v>
+        <v>0.05554438022118194</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02006685822439544</v>
+        <v>0.02011741671649903</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02228389846286807</v>
+        <v>0.08835026393330303</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02027814065063874</v>
+        <v>0.02007740119736372</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0227693980272009</v>
+        <v>0.03821599486464684</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01787663288672633</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02233659813604898</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02105806913720177</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05530472414569831</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02094856693320643</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.08652335540666711</v>
+        <v>0.05668276102319053</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02083866046379526</v>
+        <v>0.02089116351328745</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0227693980272009</v>
+        <v>0.09044230601935715</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02105806913720177</v>
+        <v>0.02084960893572386</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02314465472360304</v>
+        <v>0.03886032756892732</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01853873040104953</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0230120947102343</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0218379976237648</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05665722477038365</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02172443978258444</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.08870567143454122</v>
+        <v>0.05749159684169716</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02161046270319509</v>
+        <v>0.02166491031007587</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02314465472360304</v>
+        <v>0.09228532670010697</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0218379976237648</v>
+        <v>0.021621816674084</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02340921370060552</v>
+        <v>0.03947982741332805</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01920082791537273</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02347782888774413</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02261792611032782</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05738179064480317</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02250031263196246</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09025914077192498</v>
+        <v>0.05837050135806501</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02238226494259492</v>
+        <v>0.0224386571068643</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02340921370060552</v>
+        <v>0.09407900936391939</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02261792611032782</v>
+        <v>0.02239402441244414</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02386262010673935</v>
+        <v>0.04007476101132815</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01986292542969592</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02403327631687628</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02339785459689086</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05837776214698218</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02327618548134048</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09098187558685145</v>
+        <v>0.0597190882536571</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02315406718199474</v>
+        <v>0.02321240390365272</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02386262010673935</v>
+        <v>0.0955230373991609</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02339785459689086</v>
+        <v>0.02316623215080429</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02460441909053558</v>
+        <v>0.0406453949764068</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02052502294401912</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02417791264592849</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02417778308345388</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05934447965494613</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02405205833071849</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.09327198804735376</v>
+        <v>0.06003697120983659</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02392586942139456</v>
+        <v>0.02398615070044114</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02460441909053558</v>
+        <v>0.09671709419419838</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02417778308345388</v>
+        <v>0.02393843988916443</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02473415580052524</v>
+        <v>0.04119199592204315</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02118712045834232</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02491121352319853</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02495771157001691</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.0605812835467204</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02482793118009651</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.09382759032146487</v>
+        <v>0.06162376390796653</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02469767166079439</v>
+        <v>0.02475989749722957</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02473415580052524</v>
+        <v>0.09816086313739841</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02495771157001691</v>
+        <v>0.02471064762752457</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02525137538523931</v>
+        <v>0.04171483046171632</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02184921797266551</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02533265459698419</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02573764005657994</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06148751420033041</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02560380402947452</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.09584679457721784</v>
+        <v>0.06207908002941009</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02546947390019421</v>
+        <v>0.02553364429401799</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02525137538523931</v>
+        <v>0.09875402761712782</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02573764005657994</v>
+        <v>0.02548285536588472</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02565562299320885</v>
+        <v>0.04221416520890551</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02251131548698871</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02544171151558325</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02651756854314297</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06216251199380149</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02637967687885254</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.09752771298264584</v>
+        <v>0.06310253325553036</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02624127613959404</v>
+        <v>0.02630739109080642</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02565562299320885</v>
+        <v>0.1001962710217532</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02651756854314297</v>
+        <v>0.02625506310424486</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02594644377296486</v>
+        <v>0.04269026677708985</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02317341300131191</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02593785992729347</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02729749702970599</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06320561730515911</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02715554972823056</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.09796845770578189</v>
+        <v>0.06369373726769045</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02701307837899386</v>
+        <v>0.02708113788759484</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02594644377296486</v>
+        <v>0.1014872767396414</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02729749702970599</v>
+        <v>0.02702727084260501</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02652338287303839</v>
+        <v>0.04314340177974851</v>
       </c>
       <c r="G101" t="n">
+        <v>0.0238355105156351</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02642057548041264</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02807742551626902</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.06351617051242855</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02793142257760857</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1002671409146588</v>
+        <v>0.06445230574725347</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02778488061839369</v>
+        <v>0.02785488468438327</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02652338287303839</v>
+        <v>0.1029267281591589</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02807742551626902</v>
+        <v>0.02779947858096514</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02688598544196044</v>
+        <v>0.04357383683036061</v>
       </c>
       <c r="G102" t="n">
+        <v>0.0244976080299583</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02658933382323854</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02885735400283205</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06499351199363532</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02870729542698659</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.10122187477731</v>
+        <v>0.06547785237558257</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02855668285779351</v>
+        <v>0.02862863148117169</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02688598544196044</v>
+        <v>0.1035143086686727</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02885735400283205</v>
+        <v>0.02857168631932529</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02703379662826207</v>
+        <v>0.04398183854240533</v>
       </c>
       <c r="G103" t="n">
+        <v>0.0251597055442815</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0271436106040689</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02963728248939508</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.0652369821268047</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02948316827636461</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1018307714617682</v>
+        <v>0.06606999083404075</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02932848509719333</v>
+        <v>0.02940237827796011</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02703379662826207</v>
+        <v>0.1045497016565493</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02963728248939508</v>
+        <v>0.02934389405768543</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02766636158047427</v>
+        <v>0.04436767352936182</v>
       </c>
       <c r="G104" t="n">
+        <v>0.0258218030586047</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02738288147120156</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03041721097595811</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.06594592128996216</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03025904112574262</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1036919431360666</v>
+        <v>0.06672833480399121</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03010028733659316</v>
+        <v>0.03017612507474854</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02766636158047427</v>
+        <v>0.1061325905111554</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03041721097595811</v>
+        <v>0.03011610179604557</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02768322544712806</v>
+        <v>0.04473160840470924</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02648390057292789</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02780662207293423</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03119713946252113</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.06641966986113304</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03103491397512063</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1050035019682384</v>
+        <v>0.06725249796679705</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03087208957599298</v>
+        <v>0.03094987187153696</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02768322544712806</v>
+        <v>0.107062658620858</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03119713946252113</v>
+        <v>0.03088830953440572</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0281839333767545</v>
+        <v>0.04507390978192672</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02714599808725109</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02811430805756475</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03197706794908416</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06775756821834278</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03181078682449865</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1050635601263165</v>
+        <v>0.06804209400382139</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03164389181539282</v>
+        <v>0.03172361866832538</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0281839333767545</v>
+        <v>0.1069395893740234</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03197706794908416</v>
+        <v>0.03166051727276586</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02856803051788459</v>
+        <v>0.04539484427449345</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02780809560157429</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02820541507339085</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.0327569964356472</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.06815895673961672</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03258665967387666</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1070702297783338</v>
+        <v>0.06819673659642728</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03241569405479264</v>
+        <v>0.03249736546511381</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02856803051788459</v>
+        <v>0.1077630661590185</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0327569964356472</v>
+        <v>0.03243272501112601</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02883506201904935</v>
+        <v>0.04569467849588855</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02847019311589748</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02877941876871032</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03353692492221022</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.06872317580298026</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03336253252325468</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1075216230923236</v>
+        <v>0.06921603942597787</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03318749629419247</v>
+        <v>0.03327111226190223</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02883506201904935</v>
+        <v>0.1090327723642101</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03353692492221022</v>
+        <v>0.03320493274948615</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02908457302877983</v>
+        <v>0.04597367905959118</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02913229063022069</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02873579479182094</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03431685340877325</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.06894956578645883</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0341384053726327</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1090158522363188</v>
+        <v>0.06939961617383628</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03395929853359229</v>
+        <v>0.03404485905869065</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02908457302877983</v>
+        <v>0.1096483913779647</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03431685340877325</v>
+        <v>0.03397714048784629</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02901610869560704</v>
+        <v>0.0462321125790805</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02979438814454388</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02907401879102045</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03509678189533628</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.0694374670680778</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03491427822201071</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1098510293783525</v>
+        <v>0.06974708052136555</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03473110077299211</v>
+        <v>0.03481860585547908</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02901610869560704</v>
+        <v>0.1100096065886492</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03509678189533628</v>
+        <v>0.03474934822620643</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02932921416806196</v>
+        <v>0.04647026648120476</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03045648565886708</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02929356641460666</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.0358767103818993</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.07018622002586253</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03569015107138873</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1098252666864578</v>
+        <v>0.06985804614992888</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03550290301239194</v>
+        <v>0.0355923526522675</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02932921416806196</v>
+        <v>0.1113161013846303</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0358767103818993</v>
+        <v>0.03552155596456658</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0297234345946757</v>
+        <v>0.04669825945416439</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03111858317319027</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02969391331087735</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03665663886846234</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.07069516503783843</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03646602392076675</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1102366763286677</v>
+        <v>0.07053212674088938</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03627470525179176</v>
+        <v>0.03636609944905593</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0297234345946757</v>
+        <v>0.1112675591542747</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03665663886846234</v>
+        <v>0.03629376370292672</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02989831512397921</v>
+        <v>0.04692429362634313</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03178068068751348</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02987453512813028</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03743656735502537</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.07056364248203092</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03724189677014476</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1114833704730152</v>
+        <v>0.07096893597561013</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03704650749119159</v>
+        <v>0.03713984624584436</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02989831512397921</v>
+        <v>0.1121636632859488</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03743656735502537</v>
+        <v>0.03706597144128686</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03005340090450358</v>
+        <v>0.04714827641537236</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03244277820183667</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02983490751466321</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03821649584158839</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.07089099273646532</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03801776961952277</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1119634612875334</v>
+        <v>0.0711680875354542</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03781830973059141</v>
+        <v>0.03791359304263277</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03005340090450358</v>
+        <v>0.1124040971680199</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03821649584158839</v>
+        <v>0.03783817917964701</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03018823708477977</v>
+        <v>0.04737011523888347</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03310487571615987</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02987450611877396</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03899642432815142</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.07137655617916705</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03879364246890079</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1120750609402553</v>
+        <v>0.07112919510178473</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03859011196999124</v>
+        <v>0.03868733983942121</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03018823708477977</v>
+        <v>0.1125885441888541</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03899642432815142</v>
+        <v>0.03861038691800715</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03010236881333886</v>
+        <v>0.04758971751450785</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03376697323048307</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03029280658876025</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03977635281471445</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.07131967318816157</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03956951531827881</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1133162815992141</v>
+        <v>0.07175187235596489</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03936191420939106</v>
+        <v>0.03946108663620963</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03010236881333886</v>
+        <v>0.1135166877368186</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03977635281471445</v>
+        <v>0.03938259465636729</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03009534123871184</v>
+        <v>0.0478069906598769</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03442907074480626</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0301892845729199</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04055628130127747</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.07151968414147419</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04034538816765682</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1127852354324427</v>
+        <v>0.07203573297935764</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04013371644879088</v>
+        <v>0.04023483343299805</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03009534123871184</v>
+        <v>0.1132882112002797</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04055628130127747</v>
+        <v>0.04015480239472743</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03036669950942973</v>
+        <v>0.04802184209262201</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03509116825912946</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03046341571955066</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04133620978784051</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.07187592941713031</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04112126101703484</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1140800346079743</v>
+        <v>0.07218039065332624</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04090551868819071</v>
+        <v>0.04100858022978647</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03036669950942973</v>
+        <v>0.1139027979676044</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04133620978784051</v>
+        <v>0.04092701013308758</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03051598877402358</v>
+        <v>0.04823417923037459</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03575326577345266</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03021467567695034</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04211613827440354</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.07238774939315534</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04189713386641286</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1142987912938417</v>
+        <v>0.07208545905923372</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04167732092759053</v>
+        <v>0.0417823270265749</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03051598877402358</v>
+        <v>0.1136601314271593</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04211613827440354</v>
+        <v>0.04169921787144772</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.048443909490766</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03641536328777586</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.03054786001381399</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04289606676096656</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.07257552255993463</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04267300671579087</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04255607382336332</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1146031851060553</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04244912316699036</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03054786001381399</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04289606676096656</v>
+        <v>0.04247142560980786</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03034697120175253</v>
+        <v>0.04865094029142767</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03707746080209905</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03054721584298657</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0436759952475296</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.07237550732859377</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04344887956516889</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1139006258687167</v>
+        <v>0.0725752827923179</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04322092540639019</v>
+        <v>0.04332982062015175</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03034697120175253</v>
+        <v>0.1146017719764267</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0436759952475296</v>
+        <v>0.043243633348168</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03023406267794057</v>
+        <v>0.04885517904999095</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03773955831642225</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03033781141258896</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04445592373409262</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.07236748502873538</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.0442247524145469</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.114281317055025</v>
+        <v>0.07236122081794175</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04399272764579001</v>
+        <v>0.04410356741694017</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03023406267794057</v>
+        <v>0.1143913294487413</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04445592373409262</v>
+        <v>0.04401584108652815</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0303064127566014</v>
+        <v>0.04905653318408725</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03840165583074545</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03031752187073332</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04523585222065565</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.0719450226563588</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04500062526392492</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1144861490956868</v>
+        <v>0.07211196195509373</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04476452988518984</v>
+        <v>0.04487731421372859</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0303064127566014</v>
+        <v>0.113742130464883</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04523585222065565</v>
+        <v>0.04478804882488829</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03026482120417291</v>
+        <v>0.04925491011134799</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03906375334506864</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03048676248681267</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04601578070721868</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.07210851020131642</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04577649811330294</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1135191115740376</v>
+        <v>0.07192890061577392</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04553633212458966</v>
+        <v>0.04565106101051702</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03026482120417291</v>
+        <v>0.1134559778746973</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04601578070721868</v>
+        <v>0.04556025656324843</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03041008778709293</v>
+        <v>0.04945021724940454</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03972585085939184</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03014594853022007</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04679570919378171</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.07205833765346084</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04655237096268095</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1129841002110222</v>
+        <v>0.07161340572295666</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04630813436398949</v>
+        <v>0.04642480780730544</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03041008778709293</v>
+        <v>0.1143342184352388</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04679570919378171</v>
+        <v>0.04633246430160858</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03024301227179928</v>
+        <v>0.04964236201588828</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04038794837371504</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03009549527034851</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04757563768034474</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07209489500264454</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04732824381205897</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1132850107275856</v>
+        <v>0.07176684619961649</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04707993660338931</v>
+        <v>0.04719855460409386</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03024301227179928</v>
+        <v>0.1139781989035621</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04757563768034474</v>
+        <v>0.04710467203996872</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03006439442472982</v>
+        <v>0.0498312518284306</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04105004588803823</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03023581797659104</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04835556616690776</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.07171857223872008</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04810411666143698</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1134257388446724</v>
+        <v>0.07179059096872775</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04785173884278913</v>
+        <v>0.04797230140088229</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03006439442472982</v>
+        <v>0.1139892660367215</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04835556616690776</v>
+        <v>0.04787687977832886</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0298750340123224</v>
+        <v>0.05001679410466294</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04171214340236143</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02996733191834072</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04913549465347079</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.0721297593515399</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.048879989510815</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1130101802832276</v>
+        <v>0.07128600895326495</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04862354108218896</v>
+        <v>0.04874604819767071</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0298750340123224</v>
+        <v>0.1126687665917719</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04913549465347079</v>
+        <v>0.048649087516689</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0299757308010148</v>
+        <v>0.05019889626221665</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04237424091668463</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03009045236499057</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04991542314003382</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.07142884633095653</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04965586236019302</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1117422307641959</v>
+        <v>0.0712544690762025</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04939534332158878</v>
+        <v>0.04951979499445914</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0299757308010148</v>
+        <v>0.1128180473257677</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04991542314003382</v>
+        <v>0.04942129525504915</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02986728455724492</v>
+        <v>0.05037746571872313</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04303633843100783</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03000559458593362</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05069535162659685</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.07181622316682254</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05043173520957103</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1118257860085224</v>
+        <v>0.07099734026051485</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05016714556098861</v>
+        <v>0.05029354179124756</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02986728455724492</v>
+        <v>0.1124384549957633</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05069535162659685</v>
+        <v>0.05019350299340929</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0295504950474506</v>
+        <v>0.05055240989181378</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04369843594533102</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.0299131738505629</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05147528011315988</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.07169227984899038</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05120760805894904</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1113647417371516</v>
+        <v>0.07071599142917642</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05093894780038843</v>
+        <v>0.05106728858803598</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0295504950474506</v>
+        <v>0.1125313363588136</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05147528011315988</v>
+        <v>0.05096571073176943</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02952616203806961</v>
+        <v>0.05072363619911999</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04436053345965423</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02981360542827145</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.0522552085997229</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.07175740636731259</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05198348090832706</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1107629936710285</v>
+        <v>0.07021179150516163</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05171075003978826</v>
+        <v>0.05184103538482441</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02952616203806961</v>
+        <v>0.1124980381719728</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0522552085997229</v>
+        <v>0.05173791847012957</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02939508529553984</v>
+        <v>0.05089105205827314</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04502263097397742</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0296073045884523</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05303513708628594</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.07141199271164167</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05275935375770507</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.109124437531098</v>
+        <v>0.06988610941144488</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05248255227918808</v>
+        <v>0.05261478218161283</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02939508529553984</v>
+        <v>0.1118399071922957</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05303513708628594</v>
+        <v>0.05251012620848972</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02935806458629915</v>
+        <v>0.05105456488690465</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04568472848830062</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02949468660049852</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05381506557284896</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.07145642887183012</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05353522660708309</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1086529690383048</v>
+        <v>0.06944031407100074</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05325435451858791</v>
+        <v>0.05338852897840126</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02935806458629915</v>
+        <v>0.1107582901768367</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05381506557284896</v>
+        <v>0.05328233394684986</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02931589967678533</v>
+        <v>0.05121408210264589</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04634682600262381</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02947616673380311</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05459499405941198</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07109110483773048</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05431109945646111</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1078524839135938</v>
+        <v>0.06917577440680348</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05402615675798773</v>
+        <v>0.05416227577518969</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02931589967678533</v>
+        <v>0.1114545338826505</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05459499405941198</v>
+        <v>0.05405454168521001</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02886939033343626</v>
+        <v>0.05136951112312826</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04700892351694701</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02925216025775912</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05537492254597502</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.07101641059919528</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05508697230583912</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1076268778779099</v>
+        <v>0.06869385934182765</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05479795899738756</v>
+        <v>0.0549360225719781</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02886939033343626</v>
+        <v>0.1103299850667916</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05537492254597502</v>
+        <v>0.05482674942357015</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02891933632268974</v>
+        <v>0.05152075936598315</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04767102103127021</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02902308244175958</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05615485103253805</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07043273614607698</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05586284515521714</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1066800466521978</v>
+        <v>0.06869593779904762</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05556976123678738</v>
+        <v>0.05570976936876653</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02891933632268974</v>
+        <v>0.1103859904863145</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05615485103253805</v>
+        <v>0.05559895716193029</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02886653741098362</v>
+        <v>0.05166773424884196</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04833311854559341</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02898934855519751</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05693477951910107</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.07024047146822812</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05663871800459516</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1055158859574025</v>
+        <v>0.06828337870143789</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05634156347618721</v>
+        <v>0.05648351616555496</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02886653741098362</v>
+        <v>0.1097238968982737</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05693477951910107</v>
+        <v>0.05637116490029043</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02851179336475577</v>
+        <v>0.05181034318933609</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04899521605991661</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02905137386746597</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.0577147080056641</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.07024000655550119</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05741459085397317</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1047382915144686</v>
+        <v>0.06735755097197282</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05711336571558703</v>
+        <v>0.05725726296234338</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02851179336475577</v>
+        <v>0.1096450510597239</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0577147080056641</v>
+        <v>0.05714337263865058</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02845590395044399</v>
+        <v>0.05194849360509691</v>
       </c>
       <c r="G140" t="n">
+        <v>0.0496573135742398</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02870957364795797</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05849463649222714</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.07013173139774875</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05819046370335119</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1039511590443412</v>
+        <v>0.0672198235336269</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05788516795498685</v>
+        <v>0.0580310097591318</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02845590395044399</v>
+        <v>0.1091507997277196</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05849463649222714</v>
+        <v>0.05791558037701072</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02819966893448614</v>
+        <v>0.05208209291375584</v>
       </c>
       <c r="G141" t="n">
+        <v>0.050319411088563</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02876436316606658</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05927456497879016</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.07011603598482327</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05896633655272921</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1038583842679649</v>
+        <v>0.06697156530937456</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05865697019438667</v>
+        <v>0.05880475655592023</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02819966893448614</v>
+        <v>0.1075424896593155</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05927456497879016</v>
+        <v>0.05868778811537086</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02794388808332007</v>
+        <v>0.05221104853294423</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05098150860288619</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02851615769118479</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06005449346535319</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.06979331030657732</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05974220940210722</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1034638629062847</v>
+        <v>0.06641414522219022</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0594287724337865</v>
+        <v>0.05957850335270865</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02794388808332007</v>
+        <v>0.1070214676115658</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06005449346535319</v>
+        <v>0.05945999585373101</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02798936116338357</v>
+        <v>0.05233526788029352</v>
       </c>
       <c r="G143" t="n">
+        <v>0.0516436061172094</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02846537249270567</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06083442195191622</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.06896394435286329</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06051808225148524</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1018714906802454</v>
+        <v>0.06554893219504829</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06020057467318632</v>
+        <v>0.06035225014949708</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02798936116338357</v>
+        <v>0.1072890803415253</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06083442195191622</v>
+        <v>0.06023220359209114</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02763688794111455</v>
+        <v>0.05245465837343508</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05230570363153259</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02801242284002226</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06161435043847925</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.0694283281135338</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06129395510086325</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1009851633107918</v>
+        <v>0.06577729515092323</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06097237691258615</v>
+        <v>0.06112599694628549</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02763688794111455</v>
+        <v>0.1066466746062486</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06161435043847925</v>
+        <v>0.06100441133045129</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02748726818295077</v>
+        <v>0.0525691274300003</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05296780114585578</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02785772400252756</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06239427892504227</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06878685157844133</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06206982795024127</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1001087765188688</v>
+        <v>0.06520060301278952</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06174417915198597</v>
+        <v>0.06189974374307392</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02748726818295077</v>
+        <v>0.1059955971627902</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06239427892504227</v>
+        <v>0.06177661906881143</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02764130165533012</v>
+        <v>0.05267858246762056</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05362989866017898</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02800169124961463</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.0631742074116053</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.06843990473743844</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06284570079961929</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.09974622602542116</v>
+        <v>0.0646202247036215</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0625159813913858</v>
+        <v>0.06267349053986235</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02764130165533012</v>
+        <v>0.1059371947682046</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0631742074116053</v>
+        <v>0.06254882680717158</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02729978812469043</v>
+        <v>0.05278293090392729</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05429199617450218</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0275447398506765</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06395413589816833</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06858787758037754</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.0636215736489973</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.09930140755139366</v>
+        <v>0.06373752914639369</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06328778363078563</v>
+        <v>0.06344723733665077</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02729978812469043</v>
+        <v>0.1049728141795463</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06395413589816833</v>
+        <v>0.06332103454553172</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02736352735746954</v>
+        <v>0.05288208015655187</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05495409368882538</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02758728507510619</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06473406438473135</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.06823116009711122</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06439744649837531</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.09787821681773129</v>
+        <v>0.06325388526408046</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06405958587018545</v>
+        <v>0.0642209841334392</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02736352735746954</v>
+        <v>0.1047038021538701</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06473406438473135</v>
+        <v>0.06409324228389186</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02703331912010526</v>
+        <v>0.05297593764312567</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05561619120314858</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02722974219229676</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06551399287129439</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.06817014227749196</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06517331934775332</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.09808054954537887</v>
+        <v>0.06297066197965626</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06483138810958528</v>
+        <v>0.06499473093022762</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02703331912010526</v>
+        <v>0.1041315054482303</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06551399287129439</v>
+        <v>0.06486545002225201</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02700979469896393</v>
+        <v>0.05306441078128012</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05627828871747177</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02727252647164125</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06629392135785742</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.06770521411137229</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06594919219713134</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.09691230145528118</v>
+        <v>0.06248922821609557</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0656031903489851</v>
+        <v>0.06576847772701604</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02700979469896393</v>
+        <v>0.1026572708196816</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06629392135785742</v>
+        <v>0.06563765776061214</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02678991913527745</v>
+        <v>0.05314740698864657</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05694038623179497</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02711605318253266</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06707384984442044</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06723676558860472</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06672506504650937</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.09677736826838296</v>
+        <v>0.06231095289637281</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06637499258838493</v>
+        <v>0.06654222452380447</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02678991913527745</v>
+        <v>0.1021824450252785</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06707384984442044</v>
+        <v>0.06640986549897229</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02687218051702085</v>
+        <v>0.05322483368285643</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05760248374611817</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02696073759436404</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06785377833098348</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.0667651866990418</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06750093789588738</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.09547201781113829</v>
+        <v>0.06143720494346236</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06714679482778474</v>
+        <v>0.0673159713205929</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02687218051702085</v>
+        <v>0.1016083748220755</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06785377833098348</v>
+        <v>0.06718207323733244</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02655642114340681</v>
+        <v>0.05329659828154112</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05826458126044137</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02680699497652844</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06863370681754651</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06709086743253595</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.0682768107452654</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.09467673969903551</v>
+        <v>0.06116935328033873</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06791859706718457</v>
+        <v>0.06808971811738131</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02655642114340681</v>
+        <v>0.1013364069671273</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06863370681754651</v>
+        <v>0.06795428097569259</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02634248331364798</v>
+        <v>0.053362608202332</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05892667877476457</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02675524059841891</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06941363530410953</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.06631419777893971</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06905268359464341</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.09428977828289781</v>
+        <v>0.06060876682997626</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0686903993065844</v>
+        <v>0.06886346491416974</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02634248331364798</v>
+        <v>0.1009678882174883</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06941363530410953</v>
+        <v>0.06872648871405272</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02633020932695698</v>
+        <v>0.05342277086286045</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05958877628908776</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02640588972942842</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07019356379067257</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.06633556772810567</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06982855644402142</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.09361056558515862</v>
+        <v>0.06045681451534954</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06946220154598422</v>
+        <v>0.06963721171095816</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02633020932695698</v>
+        <v>0.1006041653302133</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07019356379067257</v>
+        <v>0.06949869645241287</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0261194414825465</v>
+        <v>0.05347699368075792</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06025087380341096</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02615935763895008</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07097349227723558</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.06575536726988626</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07060442929339944</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.09363853362825136</v>
+        <v>0.05961486525943283</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07023400378538404</v>
+        <v>0.07041095850774659</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0261194414825465</v>
+        <v>0.09984658506235644</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07097349227723558</v>
+        <v>0.07027090419077302</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02611002207962912</v>
+        <v>0.05352518407365574</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06091297131773415</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02631605959637687</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07175342076379861</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.065573986394134</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07138030214277746</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.09247311443460948</v>
+        <v>0.05938428798520068</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07100580602478387</v>
+        <v>0.07118470530453501</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02611002207962912</v>
+        <v>0.09929649417097264</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07175342076379861</v>
+        <v>0.07104311192913315</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02600179341741753</v>
+        <v>0.05356724945918533</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06157506883205736</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02617248779524373</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07253334925036165</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06539181509070147</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07215617499215547</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.09171374002666655</v>
+        <v>0.05855430494021496</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0717776082641837</v>
+        <v>0.07195845210132343</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02600179341741753</v>
+        <v>0.09844101203754652</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07253334925036165</v>
+        <v>0.07181531966749329</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02599459779512438</v>
+        <v>0.0536030972549781</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06223716634638055</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.025722263857394</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07331327773692467</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06540924334944109</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.0729320478415335</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.09175984242685564</v>
+        <v>0.05880530947290225</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07254941050358352</v>
+        <v>0.07273219889811186</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02599459779512438</v>
+        <v>0.0984573139881223</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07331327773692467</v>
+        <v>0.07258752740585343</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02598827751196227</v>
+        <v>0.05363263487866544</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06289926386070374</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02586569953152969</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.0740932062234877</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06502666116020545</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.0737079206909115</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.09131085365761049</v>
+        <v>0.05763826051748977</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07332121274298334</v>
+        <v>0.07350594569490028</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02598827751196227</v>
+        <v>0.09724639557965209</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0740932062234877</v>
+        <v>0.07335973514421358</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02568267486714389</v>
+        <v>0.05365576974787869</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06356136137502695</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02570322794355302</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07487313471005073</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06434445851284701</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07448379354028951</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.09026620574136446</v>
+        <v>0.05775448316170587</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07409301498238317</v>
+        <v>0.07427969249168871</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02568267486714389</v>
+        <v>0.09710965496973312</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07487313471005073</v>
+        <v>0.07413194288257371</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02577763215988187</v>
+        <v>0.05367240928024931</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06422345888935015</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0252352822193662</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07565306319661376</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06456302539721828</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07525966638966754</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.08972533070055094</v>
+        <v>0.05705530249327892</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07486481722178299</v>
+        <v>0.07505343928847713</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02577763215988187</v>
+        <v>0.09604849031596246</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07565306319661376</v>
+        <v>0.07490415062093386</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02547299168938885</v>
+        <v>0.05368246089340866</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06488555640367334</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02516229548487142</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07643299168317678</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.06418275180317184</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07603553923904555</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.0897876605576034</v>
+        <v>0.05644204359993724</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07563661946118282</v>
+        <v>0.07582718608526555</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02547299168938885</v>
+        <v>0.0951642997759376</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07643299168317678</v>
+        <v>0.07567635835929401</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02526859575487748</v>
+        <v>0.05368583200498813</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06554765391799654</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02518470086597091</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07721292016973982</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06350402772056013</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07681141208842357</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.08915262733495527</v>
+        <v>0.05601603156940921</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07640842170058265</v>
+        <v>0.07660093288205398</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02526859575487748</v>
+        <v>0.09505848150725577</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07721292016973982</v>
+        <v>0.07644856609765414</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02516428665556038</v>
+        <v>0.05368583200498813</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06554765391799654</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02480293148856685</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07799284865630285</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.06312724313923568</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07758728493780158</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.08831966305503997</v>
+        <v>0.05507859148942312</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07718022393998247</v>
+        <v>0.07737467967884241</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02516428665556038</v>
+        <v>0.09383243366751404</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07799284865630285</v>
+        <v>0.07722077383601429</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02535990669065022</v>
+        <v>0.05278237007104324</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06554738538953252</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0246174204785615</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07877277714286587</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.06275278804905102</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0783631577871796</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.08838819974029088</v>
+        <v>0.05473104844770738</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07795202617938229</v>
+        <v>0.07814842647563082</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02535990669065022</v>
+        <v>0.09288755441430968</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07877277714286587</v>
+        <v>0.07799298157437444</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02515529815935966</v>
+        <v>0.05188900427157988</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06554711686106851</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02452860096185702</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.0795527056294289</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.06288106050226644</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07913903063655763</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.08785766941314149</v>
+        <v>0.05427472753199034</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07872382841878212</v>
+        <v>0.07892217327241925</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02515529815935966</v>
+        <v>0.09292524190524004</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0795527056294289</v>
+        <v>0.07876518931273459</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02485030336090131</v>
+        <v>0.05100620487382198</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06554684833260448</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02413690606435563</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08033263411599192</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.06281229475225594</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07991490348593562</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.08712750409602515</v>
+        <v>0.05411095383000028</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07949563065818195</v>
+        <v>0.07969592006920767</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02485030336090131</v>
+        <v>0.0915468942979023</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08033263411599192</v>
+        <v>0.07953739705109472</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02474476459448784</v>
+        <v>0.05013444214510854</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06554657980414047</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02404276891195951</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08111256260255495</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.06264581123156993</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08069077633531364</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.08619713581137556</v>
+        <v>0.05354105242946561</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08026743289758176</v>
+        <v>0.0804696668659961</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02474476459448784</v>
+        <v>0.09075390974989361</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08111256260255495</v>
+        <v>0.08030960478945487</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02463852415933186</v>
+        <v>0.04927418635266303</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06554631127567645</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02374662263057094</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08189249108911799</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.0616807435756454</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08146664918469167</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.08566599658162583</v>
+        <v>0.05266634841811466</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08103923513698159</v>
+        <v>0.08124341366278452</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02463852415933186</v>
+        <v>0.09064768641881132</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08189249108911799</v>
+        <v>0.08108181252781502</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02453142435464606</v>
+        <v>0.04842590776374756</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06554604274721243</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02374890034609206</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08267241957568101</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.06191622541991934</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08224252203406968</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.08543351842920949</v>
+        <v>0.0517881668836758</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08181103737638142</v>
+        <v>0.08201716045957294</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02453142435464606</v>
+        <v>0.08962962246225276</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08267241957568101</v>
+        <v>0.08185402026617515</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02442330747964305</v>
+        <v>0.04759007664558821</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06554577421874841</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02345003518442509</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08345234806224404</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0616513903998287</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.0830183948834477</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.08439913337655996</v>
+        <v>0.05120783291387732</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08258283961578124</v>
+        <v>0.08279090725636137</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02442330747964305</v>
+        <v>0.0886011160378149</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08345234806224404</v>
+        <v>0.0826262280045353</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0243140158335355</v>
+        <v>0.04676716326551985</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06554550569028439</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02325046027147226</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08423227654880708</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.06108537215081042</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08379426773282572</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.08426227344611087</v>
+        <v>0.05102667159644758</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08335464185518106</v>
+        <v>0.08356465405314979</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0243140158335355</v>
+        <v>0.08716356530309516</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08423227654880708</v>
+        <v>0.08339843574289545</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02430339171553601</v>
+        <v>0.04595763789076798</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06554523716182038</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02295060873313579</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.0850122050353701</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.06091730430830153</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08457014058220373</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.08402237066029539</v>
+        <v>0.05014600801911498</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08412644409458089</v>
+        <v>0.08433840084993821</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02430339171553601</v>
+        <v>0.08631836841569079</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0850122050353701</v>
+        <v>0.08417064348125558</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02429127742485727</v>
+        <v>0.04516197078859468</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06554496863335636</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0228509136953178</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08579213352193313</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.06064632050773897</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08534601343158174</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.08307885704154705</v>
+        <v>0.04936716726960783</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08489824633398071</v>
+        <v>0.08511214764672664</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02429127742485727</v>
+        <v>0.08636692353319902</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08579213352193313</v>
+        <v>0.08494285121961571</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02417751526071193</v>
+        <v>0.04438063222622845</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06554470010489234</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02285180828392061</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08657206200849617</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.06067155438455973</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08612188628095975</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.08273116461229924</v>
+        <v>0.0491914744356545</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08567004857338054</v>
+        <v>0.08588589444351506</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02417751526071193</v>
+        <v>0.08481062881321694</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08657206200849617</v>
+        <v>0.08571505895797586</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02416194752231261</v>
+        <v>0.04361409247099938</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06554443157642832</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02245372562484634</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08735199049505919</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.05989213957420073</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08689775913033777</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.08227872539498543</v>
+        <v>0.04872025460498328</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08644185081278037</v>
+        <v>0.08665964124030349</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02416194752231261</v>
+        <v>0.08395088241334192</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08735199049505919</v>
+        <v>0.08648726669633601</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02394441650887194</v>
+        <v>0.04286282179013536</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06554416304796432</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02215709884399727</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.0881319189816222</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.06000720971209894</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.0876736319797158</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.0813209714120392</v>
+        <v>0.04775483286532259</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08721365305218019</v>
+        <v>0.08743338803709193</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02394441650887194</v>
+        <v>0.08328908249117123</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0881319189816222</v>
+        <v>0.08725947443469614</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02372476451960261</v>
+        <v>0.04212729045089846</v>
       </c>
       <c r="G179" t="n">
+        <v>0.0655438945195003</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02226236106727555</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08891184746818524</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05921589843369138</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08844950482909381</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.08045733468589372</v>
+        <v>0.04709653430440075</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08798545529158001</v>
+        <v>0.08820713483388033</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02372476451960261</v>
+        <v>0.08282662720430206</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08891184746818524</v>
+        <v>0.08803168217305629</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02380283385371723</v>
+        <v>0.0414079687205199</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06554362599103628</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02196994542058342</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08969177595474827</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.05931733937441505</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08922537767847183</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.07988724723898255</v>
+        <v>0.04714668400994609</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08875725753097984</v>
+        <v>0.08898088163066876</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02380283385371723</v>
+        <v>0.08156491471033162</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08969177595474827</v>
+        <v>0.08880388991141644</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02357846681042844</v>
+        <v>0.04070532686632441</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06554335746257225</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02178028502982308</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09047170444131129</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.05871066616970688</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09000125052784984</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.07991014109373917</v>
+        <v>0.04630660706968692</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08952905977037967</v>
+        <v>0.08975462842745718</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02357846681042844</v>
+        <v>0.0810053431668572</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09047170444131129</v>
+        <v>0.08957609764977657</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0234515056889489</v>
+        <v>0.04001983515554248</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06554308893410825</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02149381302089672</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09125163292787433</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.05839501245500378</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09077712337722785</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.07872544827259692</v>
+        <v>0.04597762857135171</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09030086200977949</v>
+        <v>0.09052837522424562</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0234515056889489</v>
+        <v>0.08024931073147606</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09125163292787433</v>
+        <v>0.09034830538813672</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02342179278849126</v>
+        <v>0.03935196385543622</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06554282040564423</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02141096251970658</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09203156141443736</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.0580695118657428</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09155299622660587</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.07853260079798924</v>
+        <v>0.04526107360266871</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09107266424917931</v>
+        <v>0.09130212202103404</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02342179278849126</v>
+        <v>0.07939821556178528</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09203156141443736</v>
+        <v>0.09112051312649687</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02298917040826817</v>
+        <v>0.03870218323323989</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06554255187718021</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02133216665215483</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09281148990100038</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.05833329803736084</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09232886907598388</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.07753103069234957</v>
+        <v>0.0450582672513663</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09184446648857914</v>
+        <v>0.09207586881782245</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02298917040826817</v>
+        <v>0.07865345581538224</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09281148990100038</v>
+        <v>0.09189272086485702</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02315348084749223</v>
+        <v>0.0380709635562722</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06554228334871619</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02105785854414367</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09359141838756342</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05778550460529497</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.0931047419253619</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.07792016997811141</v>
+        <v>0.04397053460517281</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09261626872797897</v>
+        <v>0.09284961561461089</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02315348084749223</v>
+        <v>0.07721642964986419</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09359141838756342</v>
+        <v>0.09266492860321715</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02301456640537615</v>
+        <v>0.0374587750917666</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06554201482025217</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02088847132157537</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09437134687412645</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.05742526520498206</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09388061477473993</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.0772994506777081</v>
+        <v>0.04379920075181659</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09338807096737878</v>
+        <v>0.09362336241139931</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02301456640537615</v>
+        <v>0.07698853522282828</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09437134687412645</v>
+        <v>0.0934371363415773</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02277226938113251</v>
+        <v>0.03686608810698521</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06554174629178816</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0206244381103521</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09515127536068947</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.05665171347185916</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09465648762411794</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.07626830481357311</v>
+        <v>0.04324559077902607</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09415987320677861</v>
+        <v>0.09439710920818772</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02277226938113251</v>
+        <v>0.07567117069187185</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09515127536068947</v>
+        <v>0.09420934407993745</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.022426432073974</v>
+        <v>0.0362933728691657</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06554147776332413</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02066619203637608</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.0959312038472525</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.05626398304136315</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09543236047349594</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.07552616440813986</v>
+        <v>0.04321102977452945</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09493167544617843</v>
+        <v>0.09517085600497616</v>
       </c>
       <c r="N188" t="n">
-        <v>0.022426432073974</v>
+        <v>0.07456573421459212</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0959312038472525</v>
+        <v>0.09498155181829758</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02227689678311326</v>
+        <v>0.03574109964562003</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06554120923486012</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02031416622554948</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09671113233381552</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.05636120754893109</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09620823332287397</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.07457246148384183</v>
+        <v>0.04289684282605513</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09570347768557826</v>
+        <v>0.09594460280176458</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02227689678311326</v>
+        <v>0.07467362394858623</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09671113233381552</v>
+        <v>0.09575375955665773</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02242350580776288</v>
+        <v>0.03520781844559779</v>
       </c>
       <c r="G190" t="n">
+        <v>0.0655409407063961</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02036879380377456</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09749106082037855</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.05574252062999988</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09698410617225198</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.07450662806311237</v>
+        <v>0.04200435502133151</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09647527992497808</v>
+        <v>0.09671834959855301</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02242350580776288</v>
+        <v>0.07339623805145146</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09749106082037855</v>
+        <v>0.09652596729501788</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02196610144713558</v>
+        <v>0.03468247798843881</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06554067217793209</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02003050789695346</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09827098930694159</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.05530705592000654</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09775997902163</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.07302809616838496</v>
+        <v>0.04143489144808693</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09724708216437791</v>
+        <v>0.09749209639534143</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02196610144713558</v>
+        <v>0.07213497468078517</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09827098930694159</v>
+        <v>0.09729817503337801</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02200452600044397</v>
+        <v>0.03416362828339591</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06554040364946806</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01999974163098844</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09905091779350461</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.05475394705438802</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09853585187100801</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.07313629782209313</v>
+        <v>0.04178977719404972</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09801888440377773</v>
+        <v>0.09826584319212985</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02200452600044397</v>
+        <v>0.07239123199418446</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09905091779350461</v>
+        <v>0.09807038277173814</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0217386217669007</v>
+        <v>0.0336517395977764</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06554013512100405</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01967493338260828</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09983084628006764</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.0546823276685813</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09931172472038603</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.07223066504667008</v>
+        <v>0.04076465471861745</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09879068664317756</v>
+        <v>0.09903958998891828</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0217386217669007</v>
+        <v>0.07125388037956237</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09983084628006764</v>
+        <v>0.09884259051009829</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02156823104571841</v>
+        <v>0.03314728219881969</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06553986659254003</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01955366681701005</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1006107747666307</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.05399133139802334</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.100087597569764</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.0712106298645494</v>
+        <v>0.04045250564492031</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09956248888257739</v>
+        <v>0.0998133367857067</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02156823104571841</v>
+        <v>0.0698081204121544</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1006107747666307</v>
+        <v>0.09961479824845844</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02129319613610975</v>
+        <v>0.03265072635378787</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06553959806407601</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01943576334532035</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1013907032531937</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.05348009187815111</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1008634704191421</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.07087562429816446</v>
+        <v>0.04075259916858648</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1003342911219772</v>
+        <v>0.1005870835824951</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02129319613610975</v>
+        <v>0.0694548185965177</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1013907032531937</v>
+        <v>0.1003870059868186</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02121335933728734</v>
+        <v>0.03216254232992206</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06553932953561199</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01932105088667771</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1021706317397567</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.05264774274440159</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1016393432685201</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.06932508036994878</v>
+        <v>0.04056422369608498</v>
       </c>
       <c r="M196" t="n">
-        <v>0.101106093361377</v>
+        <v>0.1013608303792835</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02121335933728734</v>
+        <v>0.06829489599884248</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1021706317397567</v>
+        <v>0.1011592137251787</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02122856294846388</v>
+        <v>0.03168320039452687</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06553906100714797</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01950935736022055</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1029505602263198</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.05189341763221175</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1024152161178981</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.06875843010233573</v>
+        <v>0.04028666763388497</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1018778956007769</v>
+        <v>0.102134577176072</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02122856294846388</v>
+        <v>0.06812927368531918</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1029505602263198</v>
+        <v>0.1019314214635389</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02073864926885197</v>
+        <v>0.031213170814843</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06553879247868397</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01910051068508735</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1037304887128828</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.05181625017701849</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1031910889672761</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.06787510551775872</v>
+        <v>0.04001921938845548</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1026496978401767</v>
+        <v>0.1029083239728604</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02073864926885197</v>
+        <v>0.06695887272213813</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1037304887128828</v>
+        <v>0.102703629201899</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02053972701070705</v>
+        <v>0.03075292385813259</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06553852395021995</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01899433878041658</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1045104171994458</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.05121537401425891</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1039669618166541</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.06717453863865125</v>
+        <v>0.03956116736626555</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1034215000795765</v>
+        <v>0.1036820707696488</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02053972701070705</v>
+        <v>0.06678461417548953</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1045104171994458</v>
+        <v>0.1034758369402591</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02049966110181672</v>
+        <v>0.03030292979163839</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06553825542175593</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01919066956534671</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1052903456860088</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.05058992277936988</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1047428346660321</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.0670561614874467</v>
+        <v>0.03881179997378431</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1041933023189763</v>
+        <v>0.1044558175664372</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02049966110181672</v>
+        <v>0.06610741911156393</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1052903456860088</v>
+        <v>0.1042480446786193</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02021681495229791</v>
+        <v>0.02986365888266173</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06553798689329191</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.0188893309590162</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1060702741725719</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05003903010778846</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1055187075154101</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.06551940608657841</v>
+        <v>0.03907040561748082</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1049651045583762</v>
+        <v>0.1052295643632257</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02021681495229791</v>
+        <v>0.06532820859655142</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1060702741725719</v>
+        <v>0.1050202524169794</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01979831256483487</v>
+        <v>0.02943558139844494</v>
       </c>
       <c r="G202" t="n">
+        <v>0.0655377183648279</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01879015088056353</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1068502026591349</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04884040379118981</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1062945803647882</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.06526370445848001</v>
+        <v>0.03893627270382413</v>
       </c>
       <c r="M202" t="n">
-        <v>0.105736906797776</v>
+        <v>0.1060033111600141</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01979831256483487</v>
+        <v>0.06454790369664248</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1068502026591349</v>
+        <v>0.1057924601553396</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01965127794211188</v>
+        <v>0.02901916760625011</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06553744983636388</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01859295724912716</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1076301311456979</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.04779311806842468</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1070704532141662</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.06378804405799721</v>
+        <v>0.03810868963928332</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1065087090371758</v>
+        <v>0.1067770579568025</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01965127794211188</v>
+        <v>0.06326742547802744</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1076301311456979</v>
+        <v>0.1065646678936997</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0191828350868132</v>
+        <v>0.02861488777332207</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06553718130789986</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01849757798384558</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.108410059632261</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.04636531103184707</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1078463260635442</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.0629213462857483</v>
+        <v>0.03838694483032748</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1072805112765756</v>
+        <v>0.107550804753591</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0191828350868132</v>
+        <v>0.06238769500689645</v>
       </c>
       <c r="O204" t="n">
-        <v>0.108410059632261</v>
+        <v>0.1073368756320599</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01870010800162314</v>
+        <v>0.02822321216695816</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06553691277943584</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01840384100385718</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.109189988118824</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.04454123143741714</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1086221989129222</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.0621254103915414</v>
+        <v>0.03807032668342569</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1080523135159755</v>
+        <v>0.1083245515503794</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01870010800162314</v>
+        <v>0.06230963334944006</v>
       </c>
       <c r="O205" t="n">
-        <v>0.109189988118824</v>
+        <v>0.10810908337042</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01831022068922593</v>
+        <v>0.02784461105440263</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06553664425097183</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01851157422830049</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.109969916605387</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.0427051280410955</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1093980717623002</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.06061893301933224</v>
+        <v>0.037958123605047</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1088241157553753</v>
+        <v>0.1090982983471678</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01831022068922593</v>
+        <v>0.06103416157184854</v>
       </c>
       <c r="O206" t="n">
-        <v>0.109969916605387</v>
+        <v>0.1088812911087802</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01802029715230588</v>
+        <v>0.02747955470291761</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06553637572250781</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01852060557631401</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.11074984509195</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.0406412495988423</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1101739446116782</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.05922061081307634</v>
+        <v>0.03794962400166046</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1095959179947751</v>
+        <v>0.1098720451439562</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01802029715230588</v>
+        <v>0.0600622007403121</v>
       </c>
       <c r="O207" t="n">
-        <v>0.11074984509195</v>
+        <v>0.1096534988471403</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01753746139354724</v>
+        <v>0.02712851337975029</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06553610719404379</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01843076296703615</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1115297735785131</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03903384486661785</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1109498174610563</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.05774914041672929</v>
+        <v>0.03734411627973516</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1103677202341749</v>
+        <v>0.1106457919407446</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01753746139354724</v>
+        <v>0.05919467192102124</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1115297735785131</v>
+        <v>0.1104257065855004</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01726883741563433</v>
+        <v>0.02679195735219333</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06553583866557977</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.0180418743196054</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1123097020650761</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03686716260038253</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1117256903104343</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.0569232184742467</v>
+        <v>0.03714088884574018</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1111395224735748</v>
+        <v>0.1114195387375331</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01726883741563433</v>
+        <v>0.05933249618016617</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1123097020650761</v>
+        <v>0.1111979143238606</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01702154922125138</v>
+        <v>0.02647035688749328</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06553557013711575</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.0181537675531602</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1130896305516391</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03472545155609677</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1125015631598123</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.05536154162958407</v>
+        <v>0.03683923010614462</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1119113247129746</v>
+        <v>0.1121932855343215</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01702154922125138</v>
+        <v>0.05807659458393721</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1130896305516391</v>
+        <v>0.1119701220622207</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01650272081308267</v>
+        <v>0.02616418225291229</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06553530160865174</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01796627058683906</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1138695590382021</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.03269296048972076</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1132774360091903</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.05378280652669704</v>
+        <v>0.03653842846741751</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1126831269523744</v>
+        <v>0.1129670323311099</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01650272081308267</v>
+        <v>0.05702788819852478</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1138695590382021</v>
+        <v>0.1127423298005809</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01631947619381249</v>
+        <v>0.02587390371570019</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06553503308018771</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.0180792113397804</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1146494875247652</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03145393815721492</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1140533088585683</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.05290570980954112</v>
+        <v>0.0365377723360279</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1134549291917742</v>
+        <v>0.1137407791278983</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01631947619381249</v>
+        <v>0.05678729809011912</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1146494875247652</v>
+        <v>0.113514537538941</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01617893936612513</v>
+        <v>0.0255999915431444</v>
       </c>
       <c r="G213" t="n">
+        <v>0.0655347645517237</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01779241773112271</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1154294160113282</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03029263331453957</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1148291817079463</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.05034894812207202</v>
+        <v>0.03653655011844492</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1142267314311741</v>
+        <v>0.1145145259246868</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01617893936612513</v>
+        <v>0.05535574532491061</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1154294160113282</v>
+        <v>0.1142867452773012</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01578823433270483</v>
+        <v>0.02534291600249406</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06553449602325968</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.0176057176800045</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1162093444978912</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02959329471765501</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1156050545573244</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.04963121810824506</v>
+        <v>0.03643405022113763</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1149985336705739</v>
+        <v>0.1152882727214752</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01578823433270483</v>
+        <v>0.0548341509690895</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1162093444978912</v>
+        <v>0.1150589530156613</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01554356282894379</v>
+        <v>0.02534291600249406</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06553449602325968</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01781893910556416</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1169892729844543</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.03004846660681326</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1163809274067024</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.04847121641201618</v>
+        <v>0.03612956105057508</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1157703359099737</v>
+        <v>0.1160620195182636</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01554356282894379</v>
+        <v>0.0545234360888463</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1169892729844543</v>
+        <v>0.1158311607540214</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01540514818967506</v>
+        <v>0.02470063906445264</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06545542642650094</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.0175319099269402</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1177692014710173</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02956274114579641</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1171568002560804</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.04738763967734061</v>
+        <v>0.03602237101322639</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1165421381493735</v>
+        <v>0.116835766315052</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01540514818967506</v>
+        <v>0.05412452175037119</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1177692014710173</v>
+        <v>0.1166033684923816</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01526861916219095</v>
+        <v>0.02406547977491962</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06537635682974219</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0175444580632711</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1185491299575803</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.029579646443611</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1179326731054584</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.04519918454817418</v>
+        <v>0.03521176851556054</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1173139403887733</v>
+        <v>0.1176095131118405</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01526861916219095</v>
+        <v>0.0534383290198544</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1185491299575803</v>
+        <v>0.1173755762307417</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01533401651842121</v>
+        <v>0.02343775812530836</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06529728723298345</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0175564114336953</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1193290584441433</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.02939914615268738</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1187085459548364</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.04462454766847229</v>
+        <v>0.03559704196404673</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1180857426281732</v>
+        <v>0.1183832599086289</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01533401651842121</v>
+        <v>0.05206577896348646</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1193290584441433</v>
+        <v>0.1181477839691019</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01530138103029553</v>
+        <v>0.02281779410703182</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06521821763622471</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01736759795735127</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1201089869307064</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02932120392545587</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1194844188042144</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.04418242568219072</v>
+        <v>0.03497747976515389</v>
       </c>
       <c r="M219" t="n">
-        <v>0.118857544867573</v>
+        <v>0.1191570067054173</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01530138103029553</v>
+        <v>0.05220779264745767</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1201089869307064</v>
+        <v>0.118919991707462</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01487075346974365</v>
+        <v>0.02220590771150336</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06513914803946597</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01727784555337748</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1208889154172694</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02904578341434683</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1202602916535924</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.04316792847308731</v>
+        <v>0.0349523703253512</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1196293471069728</v>
+        <v>0.1199307535022057</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01487075346974365</v>
+        <v>0.05106529113795821</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1208889154172694</v>
+        <v>0.1196921994458222</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01504217460869527</v>
+        <v>0.02160241893013607</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06506007844270723</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01708698214091241</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1216688439038324</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.02897284827179061</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1210361645029705</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.0425707796195679</v>
+        <v>0.03432100205110766</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1204011493463726</v>
+        <v>0.1207045002989942</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01504217460869527</v>
+        <v>0.05023919550117861</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1216688439038324</v>
+        <v>0.1204644071841823</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01491568521908013</v>
+        <v>0.02100764775434302</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06498100884594847</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01689483563909454</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1224487723903955</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.0289023621502176</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1218120373523485</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.04077504342885174</v>
+        <v>0.03458266334889243</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1211729515857725</v>
+        <v>0.1214782470957826</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01491568521908013</v>
+        <v>0.04983042680330901</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1224487723903955</v>
+        <v>0.1212366149225424</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01459132607282793</v>
+        <v>0.02042191417553756</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06490193924918973</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01690123396706227</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1232287008769585</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02883428870205809</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1225879102017265</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.04088151582378974</v>
+        <v>0.0343366426251745</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1219447538251723</v>
+        <v>0.122251993892571</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01459132607282793</v>
+        <v>0.04883990611053984</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1232287008769585</v>
+        <v>0.1220088226609026</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0145691379418684</v>
+        <v>0.01984553818513274</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06482286965243099</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01680600504395414</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1240086293635215</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02876859157974246</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1233637830511045</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.03909099272723221</v>
+        <v>0.03428222828642299</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1227165560645721</v>
+        <v>0.1230257406893594</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0145691379418684</v>
+        <v>0.04866855448906149</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1240086293635215</v>
+        <v>0.1227810303992627</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01444916159813124</v>
+        <v>0.01927883977454168</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06474380005567223</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01670897678890858</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1247885578500845</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.02910523443570109</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1241396559004825</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.03850427006202983</v>
+        <v>0.03401870873910695</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1234883583039719</v>
+        <v>0.1237994874861478</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01444916159813124</v>
+        <v>0.04851729300506408</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1247885578500845</v>
+        <v>0.1235532381376229</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0141314378135462</v>
+        <v>0.01872213893517771</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06466473045891349</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01660997712106406</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1255684863366476</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.02914418092236429</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1249155287498605</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.03772214375103322</v>
+        <v>0.03304537238969543</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1242601605433718</v>
+        <v>0.1245732342829363</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0141314378135462</v>
+        <v>0.04708704272473813</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1255684863366476</v>
+        <v>0.124325445875983</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01401600736004296</v>
+        <v>0.01817575565845381</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06458566086215474</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01640883395955908</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1263484148232106</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02868539469216244</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1256914015992386</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.03754540971709303</v>
+        <v>0.03326150764465757</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1250319627827716</v>
+        <v>0.1253469810797247</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01401600736004296</v>
+        <v>0.04747872471427395</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1263484148232106</v>
+        <v>0.1250976536143432</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01390291100955128</v>
+        <v>0.01764000993578332</v>
       </c>
       <c r="G228" t="n">
+        <v>0.064506591265396</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01650537522353207</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1271283433097736</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02872883939752585</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1264672744486166</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.03597486388305982</v>
+        <v>0.03316640291046238</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1258037650221714</v>
+        <v>0.1261207278765131</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01390291100955128</v>
+        <v>0.04699326003986176</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1271283433097736</v>
+        <v>0.1258698613527033</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01409218953400083</v>
+        <v>0.01711522175857933</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06442752166863726</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01639942883212152</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1279082717963367</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02877447869088492</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1272431472979946</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.03531130217178413</v>
+        <v>0.03255934659357901</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1265755672615713</v>
+        <v>0.1268944746733015</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01409218953400083</v>
+        <v>0.04663156976769195</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1279082717963367</v>
+        <v>0.1266420690910634</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01388388370532137</v>
+        <v>0.01660171111825493</v>
       </c>
       <c r="G230" t="n">
+        <v>0.0643484520718785</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01629083509607486</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1286882002828997</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02882227622466998</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1280190201473726</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.03475552050611663</v>
+        <v>0.03253963890309364</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1273473695009711</v>
+        <v>0.12766822147009</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01388388370532137</v>
+        <v>0.04559444599115897</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1286882002828997</v>
+        <v>0.1274142768294236</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01367803429544261</v>
+        <v>0.01609979800622345</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06426938247511976</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01608055490265231</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1294681287694627</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02897219565131134</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1287948929967506</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.03420831480890796</v>
+        <v>0.03220775572104129</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1281191717403709</v>
+        <v>0.1284419682668784</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01367803429544261</v>
+        <v>0.04506925090022906</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1294681287694627</v>
+        <v>0.1281864845677837</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01377468207629425</v>
+        <v>0.01560980241389789</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06419031287836101</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01606928330933489</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1302480572560258</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02902420062323943</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1295707658461286</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.0338704810030086</v>
+        <v>0.03186443386111626</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1288909739797707</v>
+        <v>0.1292157150636668</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01377468207629425</v>
+        <v>0.04524739430329094</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1302480572560258</v>
+        <v>0.1289586923061439</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01337386781980601</v>
+        <v>0.01513204433269158</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06411124328160227</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01605703127795553</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1310279857425888</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02897825479288452</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1303466386955066</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.03264281501126925</v>
+        <v>0.03110989664763608</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1296627762191706</v>
+        <v>0.1299894618604552</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01337386781980601</v>
+        <v>0.04442920757849711</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1310279857425888</v>
+        <v>0.129730900044504</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01337563229790761</v>
+        <v>0.0146668437540176</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06403217368484353</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01594380977034704</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1318079142291518</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02853432181267701</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1311225115448847</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.0324261127565405</v>
+        <v>0.03084436740491836</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1304345784585704</v>
+        <v>0.1307632086572437</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01337563229790761</v>
+        <v>0.04411502210400015</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1318079142291518</v>
+        <v>0.1305031077828642</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01318001628252882</v>
+        <v>0.01421452066928906</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06395310408808479</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01562962974834235</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1325878427157148</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02879236533504728</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1318983843942627</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.03162117016167293</v>
+        <v>0.03016806945728079</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1312063806979702</v>
+        <v>0.1315369554540321</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01318001628252882</v>
+        <v>0.04410516925795271</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1325878427157148</v>
+        <v>0.1312753155212243</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01318706054559929</v>
+        <v>0.01377539506991926</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06387403449132605</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01541450217377437</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1333677712022779</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02865234901242561</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1326742572436407</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.03052878314951718</v>
+        <v>0.03028122612904086</v>
       </c>
       <c r="M236" t="n">
-        <v>0.13197818293737</v>
+        <v>0.1323107022508205</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01318706054559929</v>
+        <v>0.04359998041850693</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1333677712022779</v>
+        <v>0.1320475232595844</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01329680585904876</v>
+        <v>0.01334978694732124</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06379496489456729</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01529843800847591</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1341476996888409</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02821423649724242</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1334501300930187</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02974974764292376</v>
+        <v>0.02938406074451619</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1327499851767699</v>
+        <v>0.1330844490476089</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01329680585904876</v>
+        <v>0.04319978696381566</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1341476996888409</v>
+        <v>0.1328197309979446</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01310929299480695</v>
+        <v>0.01293801629290828</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06371589529780855</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01538144821427989</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1349276281754039</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02867799144192801</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1342260029423967</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.02898485956474339</v>
+        <v>0.02917679662802444</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1335217874161697</v>
+        <v>0.1338581958443974</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01310929299480695</v>
+        <v>0.04200492027203123</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1349276281754039</v>
+        <v>0.1335919387363047</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01302456272480357</v>
+        <v>0.0125404030980935</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06363682570104981</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01516354375301919</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.135707556661967</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02824357749891271</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1350018757917748</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.02893491483782656</v>
+        <v>0.02865965710388321</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1342935896555695</v>
+        <v>0.1346319426411858</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01302456272480357</v>
+        <v>0.04201571172130625</v>
       </c>
       <c r="O239" t="n">
-        <v>0.135707556661967</v>
+        <v>0.1343641464746649</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01304265582096836</v>
+        <v>0.01215596072268622</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06355775610429105</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.0149447355865267</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.13648748514853</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02831095832062694</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1357777486411528</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.02840070938502404</v>
+        <v>0.02803286549641007</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1350653918949693</v>
+        <v>0.1354056894379742</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01304265582096836</v>
+        <v>0.04183249268979305</v>
       </c>
       <c r="O240" t="n">
-        <v>0.13648748514853</v>
+        <v>0.135136354213025</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01296361305523103</v>
+        <v>0.01177716936847716</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06347868650753231</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01502503467663527</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.137267413635093</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02868009755950104</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1365536214905308</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0279830391291862</v>
+        <v>0.02759664512992258</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1358371941343691</v>
+        <v>0.1361794362347626</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01296361305523103</v>
+        <v>0.04125559455564437</v>
       </c>
       <c r="O241" t="n">
-        <v>0.137267413635093</v>
+        <v>0.1359085619513852</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0125874751995213</v>
+        <v>0.01140304239527563</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06339961691077357</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01480445198517781</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.138047342121656</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02845095886796534</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1373294943399088</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.02708269999316382</v>
+        <v>0.02755121932873844</v>
       </c>
       <c r="M242" t="n">
-        <v>0.136608996373769</v>
+        <v>0.136953183031551</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0125874751995213</v>
+        <v>0.04108534869701258</v>
       </c>
       <c r="O242" t="n">
-        <v>0.138047342121656</v>
+        <v>0.1366807696897453</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01271428302576885</v>
+        <v>0.01103389979449475</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06332054731401482</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01458299847398721</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1388272706082191</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02832350589845017</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1381053671892868</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.02630048789980749</v>
+        <v>0.02709681141717518</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1373807986131688</v>
+        <v>0.1377269298283395</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01271428302576885</v>
+        <v>0.04022208649205022</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1388272706082191</v>
+        <v>0.1374529774281054</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01244407730590346</v>
+        <v>0.01067006155754779</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06324147771725608</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01446068510489634</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1396071990947821</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02789770230338592</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1388812400386648</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.02533719877196766</v>
+        <v>0.02623364471955039</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1381526008525686</v>
+        <v>0.1385006766251279</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01244407730590346</v>
+        <v>0.04046613931890986</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1396071990947821</v>
+        <v>0.1382251851664656</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01267689881185481</v>
+        <v>0.01031184767584784</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06316240812049732</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01433752283973805</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1403871275813451</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02797351173520293</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1396571128880428</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.02549362853249515</v>
+        <v>0.02616194256018176</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1389244030919684</v>
+        <v>0.1392744234219163</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01267689881185481</v>
+        <v>0.03951783855574392</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1403871275813451</v>
+        <v>0.1389973929048257</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01241278831555263</v>
+        <v>0.009959578140808133</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06308333852373858</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01431352264034526</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1411670560679081</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02795089784633153</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1404329857374209</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.02517057310424042</v>
+        <v>0.02578192826338679</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1396962053313683</v>
+        <v>0.1400481702187047</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01241278831555263</v>
+        <v>0.03957751558070494</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1411670560679081</v>
+        <v>0.1397696006431859</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01245178658892664</v>
+        <v>0.009613572943841818</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06300426892697984</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01428869546855085</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1419469845544712</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02852982428920209</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1412088585867989</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.0239688284100541</v>
+        <v>0.02549382515348311</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1404680075707681</v>
+        <v>0.1408219170154932</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01245178658892664</v>
+        <v>0.03934550177194535</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1419469845544712</v>
+        <v>0.140541808381546</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01249393440390655</v>
+        <v>0.009274152076361987</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06292519933022109</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01426305228618768</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1427269130410342</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02811025471624495</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1419847314361769</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.02338919037278669</v>
+        <v>0.02459785655478836</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1412398098101679</v>
+        <v>0.1415956638122816</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01249393440390655</v>
+        <v>0.03872212850761786</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1427269130410342</v>
+        <v>0.1413140161199062</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01213927253242207</v>
+        <v>0.00894163552978193</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06284612973346235</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01413660405508865</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1435068415275972</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.0282921527798905</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1427606042855549</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.02373245491528903</v>
+        <v>0.02429424579162015</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1420116120495677</v>
+        <v>0.14236941060907</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01213927253242207</v>
+        <v>0.03900772716587481</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1435068415275972</v>
+        <v>0.1420862238582663</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01228784174640295</v>
+        <v>0.008616343295514695</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06276706013670359</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01370936173708664</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1442867700141603</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02837548213256905</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1435364771349329</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.02329941796041146</v>
+        <v>0.02398321618829605</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1427834142889676</v>
+        <v>0.1431431574058585</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01228784174640295</v>
+        <v>0.0378026291248687</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1442867700141603</v>
+        <v>0.1428584315966265</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01233968281777887</v>
+        <v>0.00829859536497355</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06268799053994485</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01378133629401453</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1450666985007233</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02806020642671095</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1443123499843109</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.02189087543100487</v>
+        <v>0.02326499106913363</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1435552165283674</v>
+        <v>0.1439169042026469</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01233968281777887</v>
+        <v>0.03800716576275215</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1450666985007233</v>
+        <v>0.1436306393349866</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01209483651847958</v>
+        <v>0.007988711729571628</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06260892094318611</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01375253868770519</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1458466269872863</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02824628931474657</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1450882228336889</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.02240762324991963</v>
+        <v>0.02273979375845053</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1443270187677672</v>
+        <v>0.1446906509994353</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01209483651847958</v>
+        <v>0.0372216684576776</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1458466269872863</v>
+        <v>0.1444028470733467</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01215334362043478</v>
+        <v>0.007687012380722044</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06252985134642737</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01342297987999151</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1466265554738493</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02823369444910628</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.145864095683067</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.02145045734000645</v>
+        <v>0.0217078475805644</v>
       </c>
       <c r="M253" t="n">
-        <v>0.145098821007167</v>
+        <v>0.1454643977962237</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01215334362043478</v>
+        <v>0.03704646858779753</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1466265554738493</v>
+        <v>0.1451750548117069</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0121152448955742</v>
+        <v>0.007393817309838048</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06245078174966862</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01329267083270637</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1474064839604124</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02832238548222038</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.146639968532445</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.0214201736241158</v>
+        <v>0.02186937585979273</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1458706232465669</v>
+        <v>0.1462381445930122</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0121152448955742</v>
+        <v>0.03658189753126456</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1474064839604124</v>
+        <v>0.145947262550067</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01198058111582755</v>
+        <v>0.007109446508332729</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06237171215290988</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01306162250768267</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1481864124469754</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02811232606651926</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.147415841381823</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.02041756802509853</v>
+        <v>0.02092460192045317</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1466424254859667</v>
+        <v>0.1470118913898006</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01198058111582755</v>
+        <v>0.03632828666623111</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1481864124469754</v>
+        <v>0.1467194702884272</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01184939305312455</v>
+        <v>0.006834219967619334</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06229264255615113</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01302984586675326</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1489663409335384</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02790347985443328</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.148191714231201</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.02044343646580488</v>
+        <v>0.02077374908686341</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1474142277253665</v>
+        <v>0.147785638186589</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01184939305312455</v>
+        <v>0.03708596737084963</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1489663409335384</v>
+        <v>0.1474916780267873</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01212172147939491</v>
+        <v>0.006568457679110996</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06221357295939239</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01309735187175105</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1497462694201015</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02829581049839272</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.148967587080579</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.02069857486908583</v>
+        <v>0.01991704068334091</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1481860299647663</v>
+        <v>0.1485593849833774</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01212172147939491</v>
+        <v>0.03645527102327278</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1497462694201015</v>
+        <v>0.1482638857651474</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01179760716656836</v>
+        <v>0.006312479634220831</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06213450336263364</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01286415148450891</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1505261979066645</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.02838928165082802</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1497434599299571</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.01998377915779176</v>
+        <v>0.01895470003420338</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1489578322041662</v>
+        <v>0.1493331317801658</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01179760716656836</v>
+        <v>0.03613652900165298</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1505261979066645</v>
+        <v>0.1490360935035076</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01197709088657462</v>
+        <v>0.006066605824362095</v>
       </c>
       <c r="G259" t="n">
+        <v>0.0620554337658749</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01253025566685972</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1513061263932275</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02818385696416945</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1505193327793351</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.02059984525477337</v>
+        <v>0.01908695046376835</v>
       </c>
       <c r="M259" t="n">
-        <v>0.149729634443566</v>
+        <v>0.1501068785769543</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01197709088657462</v>
+        <v>0.03643007268414278</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1513061263932275</v>
+        <v>0.1498083012418677</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01176021341134342</v>
+        <v>0.005831156240947911</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06197636416911616</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01249567538063637</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1520860548797905</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02767950009084741</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1512952056287131</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.01994756908288114</v>
+        <v>0.01851401529635344</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1505014366829658</v>
+        <v>0.1508806253737427</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01176021341134342</v>
+        <v>0.03603623344889462</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1520860548797905</v>
+        <v>0.1505805089802279</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01204701551280444</v>
+        <v>0.005606450875391418</v>
       </c>
       <c r="G261" t="n">
+        <v>0.0618972945723574</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.0124604215876717</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1528659833663536</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02767617468329228</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1520710784780911</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.0202277465649659</v>
+        <v>0.01773611785627627</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1512732389223656</v>
+        <v>0.1516543721705311</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01204701551280444</v>
+        <v>0.03555534267406113</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1528659833663536</v>
+        <v>0.151352716718588</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01173753796288743</v>
+        <v>0.005392809719105836</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06181822497559866</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01232450524979865</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1536459118529166</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02767384439393433</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1528469513274691</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.01994117362387798</v>
+        <v>0.01715348146785445</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1520450411617655</v>
+        <v>0.1524281189673195</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01173753796288743</v>
+        <v>0.03548773173779463</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1536459118529166</v>
+        <v>0.1521249244569482</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01203182153352209</v>
+        <v>0.005190552763504296</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06173915537883991</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01208793732885009</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1544258403394796</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02817247287520402</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1536228241768471</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.01968864618246813</v>
+        <v>0.01626632945540554</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1528168434011653</v>
+        <v>0.153201865764108</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01203182153352209</v>
+        <v>0.03523373201824781</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1544258403394796</v>
+        <v>0.1528971321953083</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01192990699663814</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06166008578208117</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01195072878665888</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1552057688260426</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02797202377953159</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1543986970262251</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.01957096016358695</v>
+        <v>0.01567488514324719</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1535886456405651</v>
+        <v>0.1539756125608964</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01192990699663814</v>
+        <v>0.03509367489357307</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1552057688260426</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1536693399336684</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06164692788734433</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005675334058698057</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06164719641580834</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006346939167411067</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06164746494427235</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007014773190297599</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06164773347273638</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007678793991429109</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06164800200120039</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00833895943496437</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06164827052966441</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008995227385032958</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06164853905812842</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009647555705792787</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06164880758659245</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01029590226131669</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06164907611505646</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01094022491576271</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06164934464352047</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01158048153326046</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0616496131719845</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01221662997796716</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06164988170044852</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.012848628113957</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06165015022891254</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01347643380538738</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06165041875737655</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.0141000049163879</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06165068728584056</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471929931111501</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06165095581430459</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01533427485364439</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0616512243427686</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01594488940813271</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06165149287123262</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01655110083870957</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06165176139969663</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01715286700953064</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06165202992816066</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01775014578467316</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06165229845662467</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01834289502829301</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06165256698508868</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01893107260451979</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0616528355135527</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01951463637750839</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06165310404201672</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02009354421133763</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06165337257048074</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02066792602496673</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06165364109894476</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02123877201135013</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06165390962740877</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02180621208944616</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0616541781558728</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02237020412333501</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06165444668433681</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02293070597717108</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06165471521280082</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02348767551508393</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06165498374126484</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02404107060122723</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06165525226972886</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02459084909968234</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06165552079819288</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02513696887460307</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06165578932665689</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02567938779011902</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0616560578551209</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02621806371038311</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06165632638358493</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02675295449947807</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06165659491204895</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02728401802155705</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06165686344051297</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02781121214074964</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06165713196897698</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0283344947212081</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06165740049744101</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02885382362701652</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06165766902590502</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02936915672232732</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06165793755436903</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02988045187127016</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06165820608283305</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03038766693799656</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06165847461129707</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03089075978659198</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06165874313976109</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03138968828120822</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0616590116682251</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03188441028597488</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06165928019668911</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03237488366504276</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06165954872515314</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03286106628249882</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06165981725361715</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03334291600249407</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06166008578208117</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03334291600249407</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06164692788734433</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0338518262972023</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06172653454103111</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03435604633465559</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06180614119471789</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03485545106191567</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06188574784840467</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03534991542604437</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06196535450209145</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03583931437410338</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06204496115577822</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03632352285315459</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.062124567809465</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03680241581025977</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06220417446315178</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03727586819248067</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06228378111683856</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03774375494687906</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06236338777052534</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03820595102051672</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06244299442421213</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03866233136045547</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06252260107789891</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03911277091375704</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06260220773158569</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03955714462748319</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06268181438527246</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03999532744869579</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06276142103895924</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04042719432445661</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06284102769264602</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04085262020182736</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0629206343463328</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04127148002786987</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06300024100001958</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0416836487496459</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06307984765370636</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04208900131421723</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06315945430739314</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04248741266864566</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06323906096107992</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0428787577599929</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06331866761476669</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04326291153532085</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06339827426845347</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04363974894169122</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06347788092214025</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04400914492616582</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06355748757582703</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04437148506863747</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06363709422951382</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04472970811315431</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0637167008832006</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04508419963960923</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06379630753688738</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04543483459506397</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06387591419057416</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04578148792658026</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06395552084426093</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04612403458121999</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06403512749794771</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04646234950604491</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06411473415163449</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04679630764811678</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06419434080532127</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04712578395449741</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06427394745900805</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04745065337224854</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06435355411269483</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04777079084843195</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06443316076638161</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04808607133010945</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0645127674200684</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04839636976434276</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06459237407375518</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04870156109819376</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06467198072744196</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04900152027872418</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06475158738112874</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0492961222529958</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06483119403481552</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0495852419680704</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0649108006885023</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04986875437100975</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06499040734218908</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05014653440887564</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06507001399587586</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05041845702872989</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06514962064956265</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05068439717763421</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06522922730324943</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05094422980265039</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06530883395693619</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05119782985084027</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06538844061062297</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05144507226926558</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06546804726430976</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05168583200498813</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06554765391799654</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04679055466999208</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06554765391799654</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05190490665495303</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06735429468207048</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05210736919378151</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06916093544614445</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05229387461764096</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07096757621021839</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05246507792269874</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07277421697429236</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05262163410512228</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07458085773836631</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05276419816107892</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07638749850244027</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05289342508673604</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07819413926651422</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05300996987826103</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08000078003058816</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05311448753182128</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08180742079466213</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05320763304358416</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08361406155873607</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05329006140971706</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08542070232281004</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05336242762638736</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.087227343086884</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05342538668976243</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08903398385095794</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05347959359600966</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09084062461503191</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05352570334129645</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09264726537910585</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05356437092179014</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09445390614317982</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05359625133365816</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09626054690725376</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05362199957306784</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09806718767132772</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0536422706361866</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09987382843540167</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05365771951918184</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1016804691994756</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05366900121822086</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1034871099635496</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05367677072947111</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1052937507276235</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05368168304909996</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1071003914916975</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.0536843931732748</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1089070322557715</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05368555609816298</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1107136730198454</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0536858268199319</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1125203137839194</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05366241464166412</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1143269545479933</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05353551892274564</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1161335953120673</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05330653884851592</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1179402360761412</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05298461707444104</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1197468768402152</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05257889625598711</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1215535176042891</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05209851904862026</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1233601583683631</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05155262810780658</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.125166799132437</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05095036608901215</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.126973439896511</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0503008756477031</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.128780080660585</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0496132994393455</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1305867214246589</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04889678011940548</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1323933621887328</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04816046034334914</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1342000029528068</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04741348276664255</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1360066437168808</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04666499004475185</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1378132844809547</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.0459241248331431</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1396199252450287</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04520002978728244</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1414265660091026</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04450184756263596</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1432332067731766</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04383872081466975</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1450398475372505</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04321979219884992</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1468464883013245</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04265420437064258</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1486531290653985</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04215109998551381</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04171962169892974</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1522664105935464</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04136891216635644</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1540730513576203</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04110811404326003</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1558796921216943</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04091029783408378</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1576863328857682</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04072686708578948</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1594929736498422</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04055641449727045</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1612996144139162</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0403979135862465</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1631062551779901</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04025033787043732</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.164912895942064</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0401126608675627</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.166719536706138</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03998385609534239</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.168526177470212</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03986289707149614</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1703328182342859</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0397487573137437</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1721394589983599</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03964041033980484</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1739460997624338</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0395368296673993</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1757527405265077</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03943698881424686</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1775593812905817</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03933986129806723</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1793660220546557</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03924442063658021</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1811726628187297</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03914964034750552</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1829793035828036</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03905449394856295</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1847859443468776</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03895795495747222</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1865925851109515</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03885899689195312</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1883992258750254</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03875659326972535</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1902058666390994</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03864971760850874</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1920125074031734</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03853734342602299</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1938191481672473</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03841844423998787</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1956257889313213</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03829199356812314</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1974324296953952</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03815696492814852</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1992390704594692</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03801233183778383</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2010457112235431</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03785716037977766</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2028523519876171</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03769419482479427</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2046589927516911</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03752523910474604</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.206465633515765</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03735044970813963</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2082722742798389</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03716998312348167</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2100789150439129</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03698399583927881</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2118855558079868</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03679264434403774</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2136921965720608</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03659608512626509</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2154988373361348</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0363944746744675</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2173054781002088</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03618796947715163</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2191121188642827</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03597672602282418</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2209187596283566</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03576090079999172</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2227254003924306</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03554065029716096</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2245320411565045</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03531613100283854</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2263386819205785</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0350874994055311</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2281453226846525</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0348549119937453</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2299519634487264</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0346185252559878</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2317586042128004</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03437849568076527</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2335652449768743</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03413497975658431</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2353718857409483</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03388813397195162</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2371785265050222</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03363811481537384</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2389851672690962</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03338507877535762</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2407918080331701</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03312918234040959</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2425984487972441</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03287058199903645</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.244405089561318</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08579055466999208</v>
+        <v>0.06115574960149644</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03579055466999208</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01558515391799653</v>
+        <v>0.007431588526196876</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9295,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.004000000000000004</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003197600000000003</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001877387868586343</v>
+        <v>0.004515952184028463</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006620975143231974</v>
+        <v>0.001619566819313806</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.0022399994496205</v>
+        <v>0.004503601487896067</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007799284865630284</v>
+        <v>0.001627414364408294</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007999999999999979</v>
+        <v>0.01778100302718397</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001076632996632993</v>
+        <v>0.002193539169742417</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008394871869603193</v>
+        <v>0.0263587325743927</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007722077383601429</v>
+        <v>0.001951034335182363</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003721919977115434</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001324195028646395</v>
+        <v>0.002477196175398959</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004149109312285883</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001559856973126057</v>
+        <v>0.002997749999999997</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01020930912587339</v>
+        <v>0.02235993853906193</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001547493593576848</v>
+        <v>0.003248133586438028</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01546312840972452</v>
+        <v>0.03492187114965961</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001544415476720286</v>
+        <v>0.003248133586438028</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005533878833503016</v>
+        <v>0.008115250218921184</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001986292542969592</v>
+        <v>0.004858700457941417</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005852925392392121</v>
+        <v>0.01034335394495142</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002339785459689085</v>
+        <v>0.004882243093224881</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01452976851814872</v>
+        <v>0.02739173378583368</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002321240390365272</v>
+        <v>0.004872200379657042</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02240819806379785</v>
+        <v>0.04406225334571051</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002316623215080429</v>
+        <v>0.004872200379657042</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007313546945664787</v>
+        <v>0.008498549406818129</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002648390057292789</v>
+        <v>0.006478267277255223</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.01261694184878238</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002797899999999999</v>
+        <v>0.006509657457633176</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01791755242022375</v>
+        <v>0.03213261882926391</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003094987187153696</v>
+        <v>0.006496267172876055</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02985256691630384</v>
+        <v>0.04996621919384736</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003088830953440572</v>
+        <v>0.006496267172876055</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.009908784701595837</v>
+        <v>0.002477196175398959</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009061206821516468</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003310487571615986</v>
+        <v>0.007431588526196876</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008507971617918622</v>
+        <v>0.01439233056254309</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003899642432815142</v>
+        <v>0.008137071822041469</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02214432158894358</v>
+        <v>0.0362877612799673</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00386873398394212</v>
+        <v>0.008327083333333329</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03531872105172307</v>
+        <v>0.05730159255302764</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003861038691800715</v>
+        <v>0.008327083333333329</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0107771409689738</v>
+        <v>0.01157381063331892</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003972585085939184</v>
+        <v>0.009717400915882834</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009499747832959954</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004679570919378171</v>
+        <v>0.008993249999999991</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02518173678115337</v>
+        <v>0.03868672361256775</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004642480780730544</v>
+        <v>0.009744400759314084</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04072914655453636</v>
+        <v>0.06094214043076834</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004633246430160857</v>
+        <v>0.009744400759314084</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01246163189595247</v>
+        <v>0.0135157968391846</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004634682600262382</v>
+        <v>0.01133696773519664</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01070112855496267</v>
+        <v>0.01725793099054052</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.0054594994059412</v>
+        <v>0.01139190055085806</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02830145875369822</v>
+        <v>0.04147032369179626</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005416227577518968</v>
+        <v>0.0113684675525331</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04610632950922433</v>
+        <v>0.06562811725965628</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005405454168521001</v>
+        <v>0.0113684675525331</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01411496211036822</v>
+        <v>0.01440409120558976</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005296780114585579</v>
+        <v>0.01295653455451045</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01151813297906842</v>
+        <v>0.01822884358509611</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006239427892504227</v>
+        <v>0.01301931491526635</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03067514826342332</v>
+        <v>0.04481279037210106</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006189974374307392</v>
+        <v>0.01299253434575211</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05047275600026774</v>
+        <v>0.0703846233121328</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006177661906881143</v>
+        <v>0.01299253434575211</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01573741412013677</v>
+        <v>0.01423724747767566</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005958877628908776</v>
+        <v>0.01457610137382425</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01235678030041883</v>
+        <v>0.01953486734857643</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007019356379067256</v>
+        <v>0.01464672927967465</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03357446606717365</v>
+        <v>0.04790465168474528</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006963721171095816</v>
+        <v>0.01461660113897112</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05375091211214722</v>
+        <v>0.07559767904099346</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006949869645241286</v>
+        <v>0.01461660113897112</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01732927043317383</v>
+        <v>0.01401381940058351</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006620975143231973</v>
+        <v>0.01619566819313806</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0131230897141556</v>
+        <v>0.02057244855049559</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007799284865630284</v>
+        <v>0.01627414364408294</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03537107292179451</v>
+        <v>0.05013643566099221</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00773746796788424</v>
+        <v>0.01624066793219014</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05730159255302764</v>
+        <v>0.07875330489903376</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007634482181148382</v>
+        <v>0.01624066793219014</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01889081355739512</v>
+        <v>0.0157323607194546</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007283072657555172</v>
+        <v>0.01781523501245186</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01382308041542038</v>
+        <v>0.02183803346036761</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008579213352193313</v>
+        <v>0.01790155800849123</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0362877612799673</v>
+        <v>0.05249867033210515</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00813929190999042</v>
+        <v>0.01786473472540915</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05960235991662116</v>
+        <v>0.08323752133904921</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008494285121961574</v>
+        <v>0.01786473472540915</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02042232600071637</v>
+        <v>0.01639142517943015</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007945170171878369</v>
+        <v>0.01943480183176567</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01456277159935482</v>
+        <v>0.02282806834770658</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009359141838756342</v>
+        <v>0.01952897237289953</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03822116416201568</v>
+        <v>0.05528188372934731</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009284961561461089</v>
+        <v>0.01948880151862817</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06129172968624397</v>
+        <v>0.08733634881383534</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009266492860321714</v>
+        <v>0.01948880151862817</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02192409027105331</v>
+        <v>0.0179895665256514</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008607267686201564</v>
+        <v>0.02105436865107948</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.02363899948202652</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01017498303960121</v>
+        <v>0.02115638673730782</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03923261127617805</v>
+        <v>0.05717660388398188</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01005870835824951</v>
+        <v>0.02111286831184718</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0642368272250618</v>
+        <v>0.09003580777618758</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01003870059868186</v>
+        <v>0.02111286831184718</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02339638887632162</v>
+        <v>0.01652533850325959</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009269365200524763</v>
+        <v>0.02267393547039328</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01580534459868332</v>
+        <v>0.02436727313284152</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0109189988118824</v>
+        <v>0.02278380110171611</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04051992186775491</v>
+        <v>0.05907335882727216</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01083245515503794</v>
+        <v>0.0227369351050662</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06573733592144143</v>
+        <v>0.09362191867890152</v>
       </c>
       <c r="O79" t="n">
-        <v>0.010810908337042</v>
+        <v>0.0227369351050662</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.01699729485739599</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009908784701595837</v>
+        <v>0.02429350228970709</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01636003632474743</v>
+        <v>0.02510933556966564</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01169892729844543</v>
+        <v>0.02441121546612441</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04218270961810941</v>
+        <v>0.06096267659048138</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01160620195182636</v>
+        <v>0.02436100189828521</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06859293916374964</v>
+        <v>0.09548070197477265</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01158311607540214</v>
+        <v>0.02436100189828521</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02629376400927206</v>
+        <v>0.01740398933320183</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01059356022917116</v>
+        <v>0.02591306910902089</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01691178222626498</v>
+        <v>0.02596163306201288</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01247885578500845</v>
+        <v>0.0260386298305327</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0436205882086047</v>
+        <v>0.06203508520487275</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01237994874861478</v>
+        <v>0.02598506869150422</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07070332034035309</v>
+        <v>0.09759817811659643</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01235532381376229</v>
+        <v>0.02598506869150422</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02777201537367501</v>
+        <v>0.01874397567581835</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01125565774349436</v>
+        <v>0.0275326359283347</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01746005795153376</v>
+        <v>0.02632061187939738</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01325878427157148</v>
+        <v>0.027666044194941</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04513317132060382</v>
+        <v>0.06298111270170959</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01315369554540321</v>
+        <v>0.02760913548472324</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07276816283961857</v>
+        <v>0.09956036755716846</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01312753155212243</v>
+        <v>0.02760913548472324</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02924237534037256</v>
+        <v>0.01902152839184508</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01191775525781755</v>
+        <v>0.0291522027476485</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0178043391488515</v>
+        <v>0.02698271829133313</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01403871275813451</v>
+        <v>0.02929345855934929</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04602007263546989</v>
+        <v>0.06419128711225505</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01392744234219163</v>
+        <v>0.02923320227794225</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07438715004991264</v>
+        <v>0.1013532907492842</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01389973929048257</v>
+        <v>0.02923320227794225</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03067291061308858</v>
+        <v>0.02028215219172518</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01257985277214075</v>
+        <v>0.03077176956696231</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01844410146651604</v>
+        <v>0.02735869266497407</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01481864124469754</v>
+        <v>0.03092087292375758</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04728090583456598</v>
+        <v>0.06535339059109932</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01470118913898006</v>
+        <v>0.03085726907116126</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07645996535960214</v>
+        <v>0.1032146161026563</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01467194702884272</v>
+        <v>0.03085726907116126</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0320316878955469</v>
+        <v>0.0205345943050892</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01324195028646395</v>
+        <v>0.03239133638627612</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01877882055282512</v>
+        <v>0.02751592033215608</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01559856973126057</v>
+        <v>0.03254828728816588</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0485152845992553</v>
+        <v>0.0658908215724682</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01547493593576848</v>
+        <v>0.03248133586438028</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07788629215705378</v>
+        <v>0.1046369938739234</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01544415476720286</v>
+        <v>0.03248133586438028</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03328677389147134</v>
+        <v>0.01877716464312298</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01390404780078715</v>
+        <v>0.03401090320558992</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0194079720560765</v>
+        <v>0.02816152723419724</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0163784982178236</v>
+        <v>0.03417570165257417</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05012282261090092</v>
+        <v>0.06669871209849654</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0162486827325569</v>
+        <v>0.03410540265759929</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08036581383063413</v>
+        <v>0.105512724646973</v>
       </c>
       <c r="O86" t="n">
-        <v>0.016216362505563</v>
+        <v>0.03410540265759929</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03440623530458575</v>
+        <v>0.02100817311701236</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01456614531511034</v>
+        <v>0.03563047002490373</v>
       </c>
       <c r="J87" t="n">
-        <v>0.020131031624568</v>
+        <v>0.02819316558033851</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01715842670438663</v>
+        <v>0.03580311601698247</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05120313355086586</v>
+        <v>0.06797151864440207</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01702242952934533</v>
+        <v>0.03572946945081831</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08209821376871007</v>
+        <v>0.106333054704651</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01698857024392315</v>
+        <v>0.03572946945081831</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03535813883861395</v>
+        <v>0.02022592963794318</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01522824282943354</v>
+        <v>0.03725003684421754</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02054747490659735</v>
+        <v>0.02850848757982077</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01793835519094965</v>
+        <v>0.03743053038139076</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05215583110051333</v>
+        <v>0.06840369768540236</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01779617632613375</v>
+        <v>0.03735353624403732</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08428317535964819</v>
+        <v>0.1079892303298039</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01776077798228329</v>
+        <v>0.03735353624403732</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03579055466999208</v>
+        <v>0.02042874411710126</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01558515391799653</v>
+        <v>0.03886960366353134</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02115677755046237</v>
+        <v>0.02910514544188499</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01871828367751268</v>
+        <v>0.03905794474579905</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05358052894120646</v>
+        <v>0.06898970569671498</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01856992312292218</v>
+        <v>0.03897760303725634</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08552038199181522</v>
+        <v>0.1085724978052777</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01853298572064343</v>
+        <v>0.03897760303725634</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03685176442252993</v>
+        <v>0.02061492646567243</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01655243785807993</v>
+        <v>0.04048917048284515</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02165841520446078</v>
+        <v>0.02928079137577207</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01949821216407571</v>
+        <v>0.04068535911020734</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0542768407543083</v>
+        <v>0.06992399915355765</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0193436699197106</v>
+        <v>0.04060166983047535</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08710951705357795</v>
+        <v>0.110374103413919</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01930519345900357</v>
+        <v>0.04060166983047535</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03754656268700742</v>
+        <v>0.02078278659484254</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01721453537240313</v>
+        <v>0.04210873730215895</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0220518635168904</v>
+        <v>0.02953307759072295</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02027814065063874</v>
+        <v>0.04231277347461564</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05554438022118194</v>
+        <v>0.07050103453114787</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02011741671649903</v>
+        <v>0.04222573662369436</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08835026393330303</v>
+        <v>0.1114852934385738</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02007740119736372</v>
+        <v>0.04222573662369436</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03821599486464684</v>
+        <v>0.02193063441579742</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01787663288672633</v>
+        <v>0.04372830412147276</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02233659813604898</v>
+        <v>0.02975965629597854</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02105806913720177</v>
+        <v>0.04394018783902393</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05668276102319053</v>
+        <v>0.07111526830470338</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02089116351328745</v>
+        <v>0.04384980341691338</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09044230601935715</v>
+        <v>0.1120973141620883</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02084960893572386</v>
+        <v>0.04384980341691338</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03886032756892732</v>
+        <v>0.02005677983972291</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01853873040104953</v>
+        <v>0.04534787094078657</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0230120947102343</v>
+        <v>0.0297581797007798</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0218379976237648</v>
+        <v>0.04556760220343223</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05749159684169716</v>
+        <v>0.0708611569494417</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02166491031007587</v>
+        <v>0.04547387021013239</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09228532670010697</v>
+        <v>0.1127014118673089</v>
       </c>
       <c r="O93" t="n">
-        <v>0.021621816674084</v>
+        <v>0.04547387021013239</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03947982741332805</v>
+        <v>0.02215953277780484</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01920082791537273</v>
+        <v>0.04696743776010037</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02347782888774413</v>
+        <v>0.03002630001436761</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02261792611032782</v>
+        <v>0.04719501656784052</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05837050135806501</v>
+        <v>0.07163315694058053</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0224386571068643</v>
+        <v>0.0470979370033514</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09407900936391939</v>
+        <v>0.1125888328370818</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02239402441244414</v>
+        <v>0.0470979370033514</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04007476101132815</v>
+        <v>0.02223720314122902</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01986292542969592</v>
+        <v>0.04858700457941417</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02403327631687628</v>
+        <v>0.03036166944598295</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02339785459689086</v>
+        <v>0.04882243093224882</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0597190882536571</v>
+        <v>0.07202572475333743</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02321240390365272</v>
+        <v>0.04872200379657041</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0955230373991609</v>
+        <v>0.1134508233542533</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02316623215080429</v>
+        <v>0.04872200379657041</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0406453949764068</v>
+        <v>0.02231149920299288</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02052502294401912</v>
+        <v>0.05020657139872799</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02417791264592849</v>
+        <v>0.03026194020486668</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02417778308345388</v>
+        <v>0.05044984529665711</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06003697120983659</v>
+        <v>0.0723333168629301</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02398615070044114</v>
+        <v>0.05034607058978943</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09671709419419838</v>
+        <v>0.1136786297016696</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02393843988916443</v>
+        <v>0.05034607058978943</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04119199592204315</v>
+        <v>0.02231053578884758</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02118712045834232</v>
+        <v>0.05182613821804179</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02491121352319853</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02495771157001691</v>
+        <v>0.0520772596610654</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06162376390796653</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02475989749722957</v>
+        <v>0.05197013738300844</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09816086313739841</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02471064762752457</v>
+        <v>0.05197013738300844</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04171483046171632</v>
+        <v>0.02230736431140787</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02184921797266551</v>
+        <v>0.05344570503735559</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02533265459698419</v>
+        <v>0.03054779454140316</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02573764005657994</v>
+        <v>0.0537046740254737</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06207908002941009</v>
+        <v>0.07187352396701438</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02553364429401799</v>
+        <v>0.05359420417622746</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09875402761712782</v>
+        <v>0.1140000291506269</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02548285536588472</v>
+        <v>0.05359420417622746</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04221416520890551</v>
+        <v>0.02028938548983655</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02251131548698871</v>
+        <v>0.0550652718566694</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02544171151558325</v>
+        <v>0.03023879567054194</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02651756854314297</v>
+        <v>0.055332088389882</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06310253325553036</v>
+        <v>0.07223599951948223</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02630739109080642</v>
+        <v>0.05521827096944647</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1001962710217532</v>
+        <v>0.1137407747208296</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02625506310424486</v>
+        <v>0.05521827096944647</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04269026677708985</v>
+        <v>0.02025797669966001</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02317341300131191</v>
+        <v>0.0566848386759832</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02593785992729347</v>
+        <v>0.03051021268197911</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02729749702970599</v>
+        <v>0.05695950275429029</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06369373726769045</v>
+        <v>0.07225321085989364</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02708113788759484</v>
+        <v>0.05684233776266549</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1014872767396414</v>
+        <v>0.1137100440867969</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02702727084260501</v>
+        <v>0.05684233776266549</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04314340177974851</v>
+        <v>0.02121402866642282</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0238355105156351</v>
+        <v>0.05830440549529701</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02642057548041264</v>
+        <v>0.03016331624269437</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02807742551626902</v>
+        <v>0.05858691711869858</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06445230574725347</v>
+        <v>0.07232807958567528</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02785488468438327</v>
+        <v>0.0584664045558845</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1029267281591589</v>
+        <v>0.113712450709912</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02779947858096514</v>
+        <v>0.0584664045558845</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04357383683036061</v>
+        <v>0.02115843211566949</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0244976080299583</v>
+        <v>0.05992397231461082</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02658933382323854</v>
+        <v>0.03019934370612432</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02885735400283205</v>
+        <v>0.06021433148310687</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06547785237558257</v>
+        <v>0.07176352729425384</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02862863148117169</v>
+        <v>0.06009047134910352</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1035143086686727</v>
+        <v>0.1138526080515581</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02857168631932529</v>
+        <v>0.06009047134910352</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04398183854240533</v>
+        <v>0.02209207777294452</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0251597055442815</v>
+        <v>0.06154353913392462</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0271436106040689</v>
+        <v>0.03031953242570548</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02963728248939508</v>
+        <v>0.06184174584751517</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06606999083404075</v>
+        <v>0.07176247558305604</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02940237827796011</v>
+        <v>0.06171453814232253</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1045497016565493</v>
+        <v>0.1134351295731185</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02934389405768543</v>
+        <v>0.06171453814232253</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04436767352936182</v>
+        <v>0.02201585636379245</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0258218030586047</v>
+        <v>0.06316310595323843</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02738288147120156</v>
+        <v>0.02992511975487445</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03041721097595811</v>
+        <v>0.06346916021192346</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06672833480399121</v>
+        <v>0.07142784604950864</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03017612507474854</v>
+        <v>0.06333860493554154</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1061325905111554</v>
+        <v>0.1125646287359763</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03011610179604557</v>
+        <v>0.06333860493554154</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04473160840470924</v>
+        <v>0.02093065861375782</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02648390057292789</v>
+        <v>0.06478267277255223</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02780662207293423</v>
+        <v>0.03011734304706777</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03119713946252113</v>
+        <v>0.06509657457633175</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06725249796679705</v>
+        <v>0.07146256029103823</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03094987187153696</v>
+        <v>0.06496267172876055</v>
       </c>
       <c r="N105" t="n">
-        <v>0.107062658620858</v>
+        <v>0.112645719001515</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03088830953440572</v>
+        <v>0.06496267172876055</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04507390978192672</v>
+        <v>0.01983737524838513</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02714599808725109</v>
+        <v>0.06640223959186604</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02811430805756475</v>
+        <v>0.029797439655722</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03197706794908416</v>
+        <v>0.06672398894074004</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06804209400382139</v>
+        <v>0.07066953990507163</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03172361866832538</v>
+        <v>0.06658673852197956</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1069395893740234</v>
+        <v>0.1119830138311174</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03166051727276586</v>
+        <v>0.06658673852197956</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04539484427449345</v>
+        <v>0.01973689699321893</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02780809560157429</v>
+        <v>0.06802180641117984</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02820541507339085</v>
+        <v>0.02986664693427372</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0327569964356472</v>
+        <v>0.06835140330514834</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06819673659642728</v>
+        <v>0.07085170648903547</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03249736546511381</v>
+        <v>0.06821080531519859</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1077630661590185</v>
+        <v>0.1114811266861672</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03243272501112601</v>
+        <v>0.06821080531519859</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04569467849588855</v>
+        <v>0.02063011457380371</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02847019311589748</v>
+        <v>0.06964137323049364</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02877941876871032</v>
+        <v>0.0297262022361595</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03353692492221022</v>
+        <v>0.06997881766955664</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06921603942597787</v>
+        <v>0.07031198164035646</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03327111226190223</v>
+        <v>0.0698348721084176</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1090327723642101</v>
+        <v>0.1102446710280472</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03320493274948615</v>
+        <v>0.0698348721084176</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04597367905959118</v>
+        <v>0.02151791871568403</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02913229063022069</v>
+        <v>0.07126094004980746</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02873579479182094</v>
+        <v>0.02937734291481588</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03431685340877325</v>
+        <v>0.07160623203396493</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06939961617383628</v>
+        <v>0.07005328695646137</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03404485905869065</v>
+        <v>0.07145893890163661</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1096483913779647</v>
+        <v>0.109878260318141</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03397714048784629</v>
+        <v>0.07145893890163661</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0462321125790805</v>
+        <v>0.02040120014440439</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02979438814454388</v>
+        <v>0.07288050686912127</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02907401879102045</v>
+        <v>0.02912130632367944</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03509678189533628</v>
+        <v>0.07323364639837322</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06974708052136555</v>
+        <v>0.06917854403477683</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03481860585547908</v>
+        <v>0.07308300569485562</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1100096065886492</v>
+        <v>0.1101865080178316</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03474934822620643</v>
+        <v>0.07308300569485562</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04647026648120476</v>
+        <v>0.01928084958550932</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03045648565886708</v>
+        <v>0.07450007368843507</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02929356641460666</v>
+        <v>0.02925932981618673</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0358767103818993</v>
+        <v>0.07486106076278151</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06985804614992888</v>
+        <v>0.0692906744727296</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0355923526522675</v>
+        <v>0.07470707248807464</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1113161013846303</v>
+        <v>0.1087740275885023</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03552155596456658</v>
+        <v>0.07470707248807464</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04669825945416439</v>
+        <v>0.01915775776454335</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03111858317319027</v>
+        <v>0.07611964050774887</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02969391331087735</v>
+        <v>0.02879265074577433</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03665663886846234</v>
+        <v>0.07648847512718981</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07053212674088938</v>
+        <v>0.06879259986774633</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03636609944905593</v>
+        <v>0.07633113928129365</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1112675591542747</v>
+        <v>0.1089454324915364</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03629376370292672</v>
+        <v>0.07633113928129365</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04692429362634313</v>
+        <v>0.020032815407051</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03178068068751348</v>
+        <v>0.07773920732706267</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02987453512813028</v>
+        <v>0.02892250646587878</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03743656735502537</v>
+        <v>0.0781158894915981</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07096893597561013</v>
+        <v>0.06828724181725379</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03713984624584436</v>
+        <v>0.07795520607451267</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1121636632859488</v>
+        <v>0.1073053361883171</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03706597144128686</v>
+        <v>0.07795520607451267</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04714827641537236</v>
+        <v>0.01890691323857679</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03244277820183667</v>
+        <v>0.07935877414637649</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02983490751466321</v>
+        <v>0.02875013432993667</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03821649584158839</v>
+        <v>0.07974330385600639</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0711680875354542</v>
+        <v>0.06817752191867865</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03791359304263277</v>
+        <v>0.07957927286773168</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1124040971680199</v>
+        <v>0.1065583521402275</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03783817917964701</v>
+        <v>0.07957927286773168</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04737011523888347</v>
+        <v>0.01978094198466526</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03310487571615987</v>
+        <v>0.0809783409656903</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02987450611877396</v>
+        <v>0.02847677169138454</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03899642432815142</v>
+        <v>0.08137071822041468</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07112919510178473</v>
+        <v>0.0673663617694476</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03868733983942121</v>
+        <v>0.0812033396609507</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1125885441888541</v>
+        <v>0.106209093808651</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03861038691800715</v>
+        <v>0.0812033396609507</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04758971751450785</v>
+        <v>0.02065579237086092</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03376697323048307</v>
+        <v>0.0825979077850041</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03029280658876025</v>
+        <v>0.02810365590365897</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03977635281471445</v>
+        <v>0.08299813258482298</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07175187235596489</v>
+        <v>0.06675668296698739</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03946108663620963</v>
+        <v>0.08282740645416971</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1135166877368186</v>
+        <v>0.1058621746549707</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03938259465636729</v>
+        <v>0.08282740645416971</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0478069906598769</v>
+        <v>0.01953120567871505</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03442907074480626</v>
+        <v>0.0842174746043179</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0301892845729199</v>
+        <v>0.02793202432019654</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04055628130127747</v>
+        <v>0.08462554694923129</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07203573297935764</v>
+        <v>0.06635140710872472</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04023483343299805</v>
+        <v>0.08445147324738872</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1132882112002797</v>
+        <v>0.10502220814057</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04015480239472743</v>
+        <v>0.08445147324738872</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04802184209262201</v>
+        <v>0.01839222888544497</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03509116825912946</v>
+        <v>0.0858370414236317</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03046341571955066</v>
+        <v>0.02805733883107367</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04133620978784051</v>
+        <v>0.08625296131363958</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07218039065332624</v>
+        <v>0.06612304691104001</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04100858022978647</v>
+        <v>0.08607554004060773</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1139027979676044</v>
+        <v>0.103945789407425</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04092701013308758</v>
+        <v>0.08607554004060773</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04823417923037459</v>
+        <v>0.01923625434995079</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03575326577345266</v>
+        <v>0.08745660824294552</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03021467567695034</v>
+        <v>0.0275588244355404</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04211613827440354</v>
+        <v>0.08788037567804786</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07208545905923372</v>
+        <v>0.06543555543373838</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0417823270265749</v>
+        <v>0.08769960683382676</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1136601314271593</v>
+        <v>0.1040759971408287</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04169921787144772</v>
+        <v>0.08769960683382676</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.048443909490766</v>
+        <v>0.02006618416252963</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03641536328777586</v>
+        <v>0.08907617506225933</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03054786001381399</v>
+        <v>0.02753800465292794</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04289606676096656</v>
+        <v>0.08950779004245617</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07257552255993463</v>
+        <v>0.06499813366039459</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04255607382336332</v>
+        <v>0.08932367362704577</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1146031851060553</v>
+        <v>0.1030273605096604</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04247142560980786</v>
+        <v>0.08932367362704577</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04865094029142767</v>
+        <v>0.01988492041347864</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03707746080209905</v>
+        <v>0.09069574188157313</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03054721584298657</v>
+        <v>0.02719891092863992</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0436759952475296</v>
+        <v>0.09113520440686446</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0725752827923179</v>
+        <v>0.06462030050465867</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04332982062015175</v>
+        <v>0.09094774042026478</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1146017719764267</v>
+        <v>0.1023149107225778</v>
       </c>
       <c r="O121" t="n">
-        <v>0.043243633348168</v>
+        <v>0.09094774042026478</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04885517904999095</v>
+        <v>0.01969536519309496</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03773955831642225</v>
+        <v>0.09231530870088693</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03033781141258896</v>
+        <v>0.02684557470808002</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04445592373409262</v>
+        <v>0.09276261877127275</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07236122081794175</v>
+        <v>0.06411157488018063</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04410356741694017</v>
+        <v>0.09257180721348379</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1143913294487413</v>
+        <v>0.1006536789882387</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04401584108652815</v>
+        <v>0.09257180721348379</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04905653318408725</v>
+        <v>0.01850042059167571</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03840165583074545</v>
+        <v>0.09393487552020074</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03031752187073332</v>
+        <v>0.02658202743665186</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04523585222065565</v>
+        <v>0.09439003313568103</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07211196195509373</v>
+        <v>0.06328147570061055</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04487731421372859</v>
+        <v>0.0941958740067028</v>
       </c>
       <c r="N123" t="n">
-        <v>0.113742130464883</v>
+        <v>0.09965869651530074</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04478804882488829</v>
+        <v>0.0941958740067028</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04925491011134799</v>
+        <v>0.01930298869951805</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03906375334506864</v>
+        <v>0.09555444233951454</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03048676248681267</v>
+        <v>0.02631230055975906</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04601578070721868</v>
+        <v>0.09601744750008934</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07192890061577392</v>
+        <v>0.06293952187959839</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04565106101051702</v>
+        <v>0.09581994079992182</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1134559778746973</v>
+        <v>0.0986449945124217</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04556025656324843</v>
+        <v>0.09581994079992182</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04945021724940454</v>
+        <v>0.01910597160691909</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03972585085939184</v>
+        <v>0.09717400915882835</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03014594853022007</v>
+        <v>0.0263404255228053</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04679570919378171</v>
+        <v>0.09764486186449764</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07161340572295666</v>
+        <v>0.06179523233079412</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04642480780730544</v>
+        <v>0.09744400759314083</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1143342184352388</v>
+        <v>0.0979276041882593</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04633246430160858</v>
+        <v>0.09744400759314083</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04964236201588828</v>
+        <v>0.018912271404176</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04038794837371504</v>
+        <v>0.09879357597814216</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03009549527034851</v>
+        <v>0.02587043377119422</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04757563768034474</v>
+        <v>0.09927227622890593</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07176684619961649</v>
+        <v>0.0612581259678478</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04719855460409386</v>
+        <v>0.09906807438635985</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1139781989035621</v>
+        <v>0.09652155675147112</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04710467203996872</v>
+        <v>0.09906807438635985</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0498312518284306</v>
+        <v>0.0187247901815859</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04105004588803823</v>
+        <v>0.100413142797456</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03023581797659104</v>
+        <v>0.02570635675032945</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04835556616690776</v>
+        <v>0.1008996905933142</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07179059096872775</v>
+        <v>0.06103772170440944</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04797230140088229</v>
+        <v>0.1006921411795789</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1139892660367215</v>
+        <v>0.09574188341071499</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04787687977832886</v>
+        <v>0.1006921411795789</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05001679410466294</v>
+        <v>0.01654613577793731</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04171214340236143</v>
+        <v>0.1020327096167698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02996733191834072</v>
+        <v>0.02555222590561466</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04913549465347079</v>
+        <v>0.1025271049577225</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07128600895326495</v>
+        <v>0.06054353845412905</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04874604819767071</v>
+        <v>0.1023162079727979</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1126687665917719</v>
+        <v>0.09450361537464869</v>
       </c>
       <c r="O128" t="n">
-        <v>0.048649087516689</v>
+        <v>0.1023162079727979</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05019889626221665</v>
+        <v>0.01735954733045686</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04237424091668463</v>
+        <v>0.1036522764360836</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03009045236499057</v>
+        <v>0.02510698094433071</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04991542314003382</v>
+        <v>0.1041545193221308</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0712544690762025</v>
+        <v>0.05945499207480168</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04951979499445914</v>
+        <v>0.1039402747660169</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1128180473257677</v>
+        <v>0.09397424845761609</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04942129525504915</v>
+        <v>0.1039402747660169</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05037746571872313</v>
+        <v>0.01615693071148777</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04303633843100783</v>
+        <v>0.1052718432553974</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03000559458593362</v>
+        <v>0.0247419483999519</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05069535162659685</v>
+        <v>0.1057819336865391</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07099734026051485</v>
+        <v>0.05921203883912787</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05029354179124756</v>
+        <v>0.1055643415592359</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1124384549957633</v>
+        <v>0.09325896829037217</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05019350299340929</v>
+        <v>0.1055643415592359</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05055240989181378</v>
+        <v>0.01594244026414057</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04369843594533102</v>
+        <v>0.1068914100747112</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0299131738505629</v>
+        <v>0.02475677183520675</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05147528011315988</v>
+        <v>0.1074093480509474</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07071599142917642</v>
+        <v>0.05862518783222725</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05106728858803598</v>
+        <v>0.1071884083524549</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1125313363588136</v>
+        <v>0.09197436965011985</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05096571073176943</v>
+        <v>0.1071884083524549</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05072363619911999</v>
+        <v>0.0177202303315258</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04436053345965423</v>
+        <v>0.108510976894025</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02981360542827145</v>
+        <v>0.02415722226537166</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0522552085997229</v>
+        <v>0.1090367624153557</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07021179150516163</v>
+        <v>0.0579080653817784</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05184103538482441</v>
+        <v>0.1088124751456739</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1124980381719728</v>
+        <v>0.09074196971645587</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05173791847012957</v>
+        <v>0.1088124751456739</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05089105205827314</v>
+        <v>0.01549445525675396</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04502263097397742</v>
+        <v>0.1101305437133388</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0296073045884523</v>
+        <v>0.02414907070572292</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05303513708628594</v>
+        <v>0.110664176779764</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06988610941144488</v>
+        <v>0.05657429781545995</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05261478218161283</v>
+        <v>0.1104365419388929</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1118399071922957</v>
+        <v>0.08928328566897731</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05251012620848972</v>
+        <v>0.1104365419388929</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05105456488690465</v>
+        <v>0.01526926938293558</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04568472848830062</v>
+        <v>0.1117501105326526</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02949468660049852</v>
+        <v>0.0236380881715369</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05381506557284896</v>
+        <v>0.1122915911441723</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06944031407100074</v>
+        <v>0.05613751146095036</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05338852897840126</v>
+        <v>0.1120606087321119</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1107582901768367</v>
+        <v>0.088319834687281</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05328233394684986</v>
+        <v>0.1120606087321119</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05121408210264589</v>
+        <v>0.01604882705318119</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04634682600262381</v>
+        <v>0.1133696773519664</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02947616673380311</v>
+        <v>0.0233300456780899</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05459499405941198</v>
+        <v>0.1139190055085806</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06917577440680348</v>
+        <v>0.05521133264592826</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05416227577518969</v>
+        <v>0.113684675525331</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1114545338826505</v>
+        <v>0.08747313395096395</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05405454168521001</v>
+        <v>0.113684675525331</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05136951112312826</v>
+        <v>0.01683728261060131</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04700892351694701</v>
+        <v>0.1149892441712802</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02925216025775912</v>
+        <v>0.02313071424065828</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05537492254597502</v>
+        <v>0.1155464198729889</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06869385934182765</v>
+        <v>0.05490938769807224</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0549360225719781</v>
+        <v>0.11530874231855</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1103299850667916</v>
+        <v>0.086164700639623</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05482674942357015</v>
+        <v>0.11530874231855</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05152075936598315</v>
+        <v>0.01663879039830646</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04767102103127021</v>
+        <v>0.116608810990594</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02902308244175958</v>
+        <v>0.02264586487451839</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05615485103253805</v>
+        <v>0.1171738342373972</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06869593779904762</v>
+        <v>0.05364530294506076</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05570976936876653</v>
+        <v>0.116932809111769</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1103859904863145</v>
+        <v>0.08481605193285519</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05559895716193029</v>
+        <v>0.116932809111769</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05166773424884196</v>
+        <v>0.01545750475940717</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04833311854559341</v>
+        <v>0.1182283778099078</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02898934855519751</v>
+        <v>0.0226812685949465</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05693477951910107</v>
+        <v>0.1188012486018054</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06828337870143789</v>
+        <v>0.05363270471457257</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05648351616555496</v>
+        <v>0.118556875904988</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1097238968982737</v>
+        <v>0.0845487050102573</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05637116490029043</v>
+        <v>0.118556875904988</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05181034318933609</v>
+        <v>0.01429758003701397</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04899521605991661</v>
+        <v>0.1198479446292216</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02905137386746597</v>
+        <v>0.02244269641721901</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0577147080056641</v>
+        <v>0.1204286629662137</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06735755097197282</v>
+        <v>0.05308521933428609</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05725726296234338</v>
+        <v>0.120180942698207</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1096450510597239</v>
+        <v>0.08308417705142629</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05714337263865058</v>
+        <v>0.120180942698207</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05194849360509691</v>
+        <v>0.01416317057423735</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0496573135742398</v>
+        <v>0.1214675114485354</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02870957364795797</v>
+        <v>0.0221359193566122</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05849463649222714</v>
+        <v>0.122056077330622</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0672198235336269</v>
+        <v>0.05261647313187989</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0580310097591318</v>
+        <v>0.1218050094914261</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1091507997277196</v>
+        <v>0.08214398523595917</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05791558037701072</v>
+        <v>0.1218050094914261</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05208209291375584</v>
+        <v>0.01505843071418789</v>
       </c>
       <c r="G141" t="n">
-        <v>0.050319411088563</v>
+        <v>0.1230870782678492</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02876436316606658</v>
+        <v>0.02196670842840245</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05927456497879016</v>
+        <v>0.1236834916950303</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06697156530937456</v>
+        <v>0.05234009243503263</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05880475655592023</v>
+        <v>0.1234290762846451</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1075424896593155</v>
+        <v>0.08214964674345282</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05868778811537086</v>
+        <v>0.1234290762846451</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05221104853294423</v>
+        <v>0.01598751479997607</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05098150860288619</v>
+        <v>0.124706645087163</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02851615769118479</v>
+        <v>0.02194083464786607</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06005449346535319</v>
+        <v>0.1253109060594386</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06641414522219022</v>
+        <v>0.0517697035714228</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05957850335270865</v>
+        <v>0.1250531430778641</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1070214676115658</v>
+        <v>0.08122267875350409</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05945999585373101</v>
+        <v>0.1250531430778641</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05233526788029352</v>
+        <v>0.01495457717471243</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0516436061172094</v>
+        <v>0.1263262119064769</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02846537249270567</v>
+        <v>0.02186406903027942</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06083442195191622</v>
+        <v>0.1269383204238469</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06554893219504829</v>
+        <v>0.05161893286872901</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06035225014949708</v>
+        <v>0.1266772098710831</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1072890803415253</v>
+        <v>0.08178459844571001</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06023220359209114</v>
+        <v>0.1266772098710831</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05245465837343508</v>
+        <v>0.01495427982449099</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05230570363153259</v>
+        <v>0.1279457787257907</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02801242284002226</v>
+        <v>0.02174178697550404</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06161435043847925</v>
+        <v>0.1285657347882552</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06577729515092323</v>
+        <v>0.05149291785427007</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06112599694628549</v>
+        <v>0.1283012766643021</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1066466746062486</v>
+        <v>0.08174351843123112</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06100441133045129</v>
+        <v>0.1283012766643021</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0525691274300003</v>
+        <v>0.01396166961578226</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05296780114585578</v>
+        <v>0.1295653455451045</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02785772400252756</v>
+        <v>0.02164714035099184</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06239427892504227</v>
+        <v>0.1301931491526635</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06520060301278952</v>
+        <v>0.05131051920410654</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06189974374307392</v>
+        <v>0.1299253434575211</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1059955971627902</v>
+        <v>0.08187131252326479</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06177661906881143</v>
+        <v>0.1299253434575211</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05267858246762056</v>
+        <v>0.01497486043111331</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05362989866017898</v>
+        <v>0.1311849123644183</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02800169124961463</v>
+        <v>0.02176075670695209</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0631742074116053</v>
+        <v>0.1318205635170718</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0646202247036215</v>
+        <v>0.05164742544681192</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06267349053986235</v>
+        <v>0.1315494102507401</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1059371947682046</v>
+        <v>0.08162959075282683</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06254882680717158</v>
+        <v>0.1315494102507401</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05278293090392729</v>
+        <v>0.01599354701086565</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05429199617450218</v>
+        <v>0.1328044791837321</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0275447398506765</v>
+        <v>0.02158221199128446</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06395413589816833</v>
+        <v>0.1334479778814801</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06373752914639369</v>
+        <v>0.05130263532479204</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06344723733665077</v>
+        <v>0.1331734770439591</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1049728141795463</v>
+        <v>0.08141677204539854</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06332103454553172</v>
+        <v>0.1331734770439591</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05288208015655187</v>
+        <v>0.01601742409542084</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05495409368882538</v>
+        <v>0.1344240460030459</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02758728507510619</v>
+        <v>0.02171108215188865</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06473406438473135</v>
+        <v>0.1350753922458884</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06325388526408046</v>
+        <v>0.05207514758045279</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0642209841334392</v>
+        <v>0.1347975438371782</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1047038021538701</v>
+        <v>0.08183127532646112</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06409324228389186</v>
+        <v>0.1347975438371782</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05297593764312567</v>
+        <v>0.0140461864251604</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05561619120314858</v>
+        <v>0.1360436128223597</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02722974219229676</v>
+        <v>0.02194694313666437</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06551399287129439</v>
+        <v>0.1367028066102967</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06297066197965626</v>
+        <v>0.05216396095619993</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06499473093022762</v>
+        <v>0.1364216106303972</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1041315054482303</v>
+        <v>0.08127151952149592</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06486545002225201</v>
+        <v>0.1364216106303972</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05306441078128012</v>
+        <v>0.01507952874046586</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05627828871747177</v>
+        <v>0.1376631796416735</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02727252647164125</v>
+        <v>0.02178937089351127</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06629392135785742</v>
+        <v>0.138330220974705</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06248922821609557</v>
+        <v>0.05196807419443925</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06576847772701604</v>
+        <v>0.1380456774236162</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1026572708196816</v>
+        <v>0.08233592355598401</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06563765776061214</v>
+        <v>0.1380456774236162</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05314740698864657</v>
+        <v>0.01511714578171876</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05694038623179497</v>
+        <v>0.1392827464609873</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02711605318253266</v>
+        <v>0.02173794137032907</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06707384984442044</v>
+        <v>0.1399576353391133</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06231095289637281</v>
+        <v>0.05208648603757662</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06654222452380447</v>
+        <v>0.1396697442168352</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1021824450252785</v>
+        <v>0.08232290635540662</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06640986549897229</v>
+        <v>0.1396697442168352</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05322483368285643</v>
+        <v>0.01515873228930063</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05760248374611817</v>
+        <v>0.1409023132803011</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02696073759436404</v>
+        <v>0.02199223051501746</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06785377833098348</v>
+        <v>0.1415850497035216</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06143720494346236</v>
+        <v>0.05211819522801783</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0673159713205929</v>
+        <v>0.1412938110100542</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1016083748220755</v>
+        <v>0.08213088684524517</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06718207323733244</v>
+        <v>0.1412938110100542</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05329659828154112</v>
+        <v>0.01520398300359301</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05826458126044137</v>
+        <v>0.1425218800996149</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02680699497652844</v>
+        <v>0.02195181427547613</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06863370681754651</v>
+        <v>0.1432124640679299</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06116935328033873</v>
+        <v>0.05216220050816869</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06808971811738131</v>
+        <v>0.1429178778032732</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1013364069671273</v>
+        <v>0.08265828395098079</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06795428097569259</v>
+        <v>0.1429178778032732</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.053362608202332</v>
+        <v>0.01525259266497742</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05892667877476457</v>
+        <v>0.1441414469189287</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02675524059841891</v>
+        <v>0.02221626859960477</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06941363530410953</v>
+        <v>0.1448398784323381</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06060876682997626</v>
+        <v>0.05231750062043505</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06886346491416974</v>
+        <v>0.1445419445964922</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1009678882174883</v>
+        <v>0.08290351659809475</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06872648871405272</v>
+        <v>0.1445419445964922</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05342277086286045</v>
+        <v>0.0153042560138354</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05958877628908776</v>
+        <v>0.1457610137382425</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02640588972942842</v>
+        <v>0.02208516943530306</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07019356379067257</v>
+        <v>0.1464672927967464</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06045681451534954</v>
+        <v>0.0524830943072227</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06963721171095816</v>
+        <v>0.1461660113897112</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1006041653302133</v>
+        <v>0.08296500371206833</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06949869645241287</v>
+        <v>0.1461660113897112</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05347699368075792</v>
+        <v>0.01636721117162199</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06025087380341096</v>
+        <v>0.1473805805575563</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02615935763895008</v>
+        <v>0.02235816099244652</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07097349227723558</v>
+        <v>0.1480947071611547</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05961486525943283</v>
+        <v>0.05266421523517456</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07041095850774659</v>
+        <v>0.1477900781829303</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09984658506235644</v>
+        <v>0.0828510097165791</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07027090419077302</v>
+        <v>0.1477900781829303</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05352518407365574</v>
+        <v>0.01447729280718658</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06091297131773415</v>
+        <v>0.1490001473768701</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02631605959637687</v>
+        <v>0.02247361210034556</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07175342076379861</v>
+        <v>0.149722121525563</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05938428798520068</v>
+        <v>0.05347534411440166</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07118470530453501</v>
+        <v>0.1494141449761493</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09929649417097264</v>
+        <v>0.08444230980344314</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07104311192913315</v>
+        <v>0.1494141449761493</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05356724945918533</v>
+        <v>0.01663059186480001</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06157506883205736</v>
+        <v>0.1506197141961839</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02617248779524373</v>
+        <v>0.02245541420456407</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07253334925036165</v>
+        <v>0.1513495358899713</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05855430494021496</v>
+        <v>0.053736795378339</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07195845210132343</v>
+        <v>0.1510382117693683</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09844101203754652</v>
+        <v>0.0850709822642548</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07181531966749329</v>
+        <v>0.1510382117693683</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0536030972549781</v>
+        <v>0.01581789329335113</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06223716634638055</v>
+        <v>0.1522392810154977</v>
       </c>
       <c r="J159" t="n">
-        <v>0.025722263857394</v>
+        <v>0.02279076619567992</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07331327773692467</v>
+        <v>0.1529769502543796</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05880530947290225</v>
+        <v>0.05401834347683959</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07273219889811186</v>
+        <v>0.1526622785625873</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0984573139881223</v>
+        <v>0.08568929827535199</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07258752740585343</v>
+        <v>0.1526622785625873</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05363263487866544</v>
+        <v>0.01602998204172881</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06289926386070374</v>
+        <v>0.1538588478348115</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02586569953152969</v>
+        <v>0.02286686696427111</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0740932062234877</v>
+        <v>0.1546043646187879</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05763826051748977</v>
+        <v>0.05498976285975626</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07350594569490028</v>
+        <v>0.1542863453558063</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09724639557965209</v>
+        <v>0.0864495290130729</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07335973514421358</v>
+        <v>0.1542863453558063</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05365576974787869</v>
+        <v>0.01525764305882187</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06356136137502695</v>
+        <v>0.1554784146541253</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02570322794355302</v>
+        <v>0.0232709154009155</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07487313471005073</v>
+        <v>0.1562317789831962</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05775448316170587</v>
+        <v>0.05572082797694203</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07427969249168871</v>
+        <v>0.1559104121490253</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09710965496973312</v>
+        <v>0.08820394565375539</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07413194288257371</v>
+        <v>0.1559104121490253</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05367240928024931</v>
+        <v>0.01649166129351918</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06422345888935015</v>
+        <v>0.1570979814734391</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0252352822193662</v>
+        <v>0.02359011039619106</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07565306319661376</v>
+        <v>0.1578591933476045</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05705530249327892</v>
+        <v>0.05598131327824973</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07505343928847713</v>
+        <v>0.1575344789422443</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09604849031596246</v>
+        <v>0.08870481937373753</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07490415062093386</v>
+        <v>0.1575344789422443</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05368246089340866</v>
+        <v>0.01572282169470957</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06488555640367334</v>
+        <v>0.158717548292753</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02516229548487142</v>
+        <v>0.02401165084067569</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07643299168317678</v>
+        <v>0.1594866077120128</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05644204359993724</v>
+        <v>0.05724099321353238</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07582718608526555</v>
+        <v>0.1591585457354634</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0951642997759376</v>
+        <v>0.09030442134935757</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07567635835929401</v>
+        <v>0.1591585457354634</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05368583200498813</v>
+        <v>0.01694190921128191</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06554765391799654</v>
+        <v>0.1603371151120668</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02518470086597091</v>
+        <v>0.02432273562494736</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07721292016973982</v>
+        <v>0.1611140220764211</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05601603156940921</v>
+        <v>0.05816964223264284</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07660093288205398</v>
+        <v>0.1607826125286824</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09505848150725577</v>
+        <v>0.09185502275695329</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07644856609765414</v>
+        <v>0.1607826125286824</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05368583200498813</v>
+        <v>0.01713970879212501</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06554765391799654</v>
+        <v>0.1619566819313806</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02480293148856685</v>
+        <v>0.02451056363958393</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07799284865630285</v>
+        <v>0.1627414364408294</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05507859148942312</v>
+        <v>0.05883703478543395</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07737467967884241</v>
+        <v>0.1624066793219014</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09383243366751404</v>
+        <v>0.09260889477286283</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07722077383601429</v>
+        <v>0.1624066793219014</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05278237007104324</v>
+        <v>0.0163103886181186</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06554738538953252</v>
+        <v>0.1635762487506944</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0246174204785615</v>
+        <v>0.02476233377516336</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07877277714286587</v>
+        <v>0.1643688508052377</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05473104844770738</v>
+        <v>0.05941467749876439</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07814842647563082</v>
+        <v>0.1640307461151204</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09288755441430968</v>
+        <v>0.09372104383450147</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07799298157437444</v>
+        <v>0.1640307461151204</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05188900427157988</v>
+        <v>0.01747249465248195</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06554711686106851</v>
+        <v>0.1651958155700082</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02452860096185702</v>
+        <v>0.02488804881421927</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0795527056294289</v>
+        <v>0.165996265169646</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05427472753199034</v>
+        <v>0.05924706840491775</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07892217327241925</v>
+        <v>0.1656548129083394</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09292524190524004</v>
+        <v>0.09426173628030898</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07876518931273459</v>
+        <v>0.1656548129083394</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05100620487382198</v>
+        <v>0.01863068740434375</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06554684833260448</v>
+        <v>0.166815382389322</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02413690606435563</v>
+        <v>0.02510815591752677</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08033263411599192</v>
+        <v>0.1676236795340543</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05411095383000028</v>
+        <v>0.06036640152490805</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07969592006920767</v>
+        <v>0.1672788797015584</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0915468942979023</v>
+        <v>0.09458180932398291</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07953739705109472</v>
+        <v>0.1672788797015584</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05013444214510854</v>
+        <v>0.0177852592028605</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06554657980414047</v>
+        <v>0.1684349492086358</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02404276891195951</v>
+        <v>0.02562306923310749</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08111256260255495</v>
+        <v>0.1692510938984626</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05354105242946561</v>
+        <v>0.06097363570415823</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0804696668659961</v>
+        <v>0.1689029464947774</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09075390974989361</v>
+        <v>0.09518277706746314</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08030960478945487</v>
+        <v>0.1689029464947774</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04927418635266303</v>
+        <v>0.0189365023771888</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06554631127567645</v>
+        <v>0.1700545160279496</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02374662263057094</v>
+        <v>0.02563319485068084</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08189249108911799</v>
+        <v>0.1708785082628708</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05266634841811466</v>
+        <v>0.0609697297880914</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08124341366278452</v>
+        <v>0.1705270132879964</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09064768641881132</v>
+        <v>0.09636615361268969</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08108181252781502</v>
+        <v>0.1705270132879964</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04842590776374756</v>
+        <v>0.0170847092564852</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06554604274721243</v>
+        <v>0.1716740828472634</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02374890034609206</v>
+        <v>0.02603893885996628</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08267241957568101</v>
+        <v>0.1725059226272792</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0517881668836758</v>
+        <v>0.06135564262213061</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08201716045957294</v>
+        <v>0.1721510800812155</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08962962246225276</v>
+        <v>0.09703345306160249</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08185402026617515</v>
+        <v>0.1721510800812155</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04759007664558821</v>
+        <v>0.01723017216990625</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06554577421874841</v>
+        <v>0.1732936496665772</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02345003518442509</v>
+        <v>0.02624070735068323</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08345234806224404</v>
+        <v>0.1741333369916874</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05120783291387732</v>
+        <v>0.06203233305169883</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08279090725636137</v>
+        <v>0.1737751468744345</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0886011160378149</v>
+        <v>0.09808618951614168</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0826262280045353</v>
+        <v>0.1737751468744345</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04676716326551985</v>
+        <v>0.0183731834466085</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06554550569028439</v>
+        <v>0.174913216485891</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02325046027147226</v>
+        <v>0.02623890641255117</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08423227654880708</v>
+        <v>0.1757607513560957</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05102667159644758</v>
+        <v>0.06260075992221917</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08356465405314979</v>
+        <v>0.1753992136676535</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08716356530309516</v>
+        <v>0.09882587707824719</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08339843574289545</v>
+        <v>0.1753992136676535</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04595763789076798</v>
+        <v>0.01751403541574851</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06554523716182038</v>
+        <v>0.1765327833052048</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02295060873313579</v>
+        <v>0.02643394213528948</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0850122050353701</v>
+        <v>0.177388165720504</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05014600801911498</v>
+        <v>0.06266188207911458</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08433840084993821</v>
+        <v>0.1770232804608725</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08631836841569079</v>
+        <v>0.1000540298498589</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08417064348125558</v>
+        <v>0.1770232804608725</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04516197078859468</v>
+        <v>0.01765302040648285</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06554496863335636</v>
+        <v>0.1781523501245187</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0228509136953178</v>
+        <v>0.02652622060861765</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08579213352193313</v>
+        <v>0.1790155800849123</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04936716726960783</v>
+        <v>0.06381665836780812</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08511214764672664</v>
+        <v>0.1786473472540915</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08636692353319902</v>
+        <v>0.09987216193291693</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08494285121961571</v>
+        <v>0.1786473472540915</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04438063222622845</v>
+        <v>0.01779043074796805</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06554470010489234</v>
+        <v>0.1797719169438325</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02285180828392061</v>
+        <v>0.02671614792225509</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08657206200849617</v>
+        <v>0.1806429944493206</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0491914744356545</v>
+        <v>0.06406604763372284</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08588589444351506</v>
+        <v>0.1802714140473106</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08481062881321694</v>
+        <v>0.1009817874293613</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08571505895797586</v>
+        <v>0.1802714140473106</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04361409247099938</v>
+        <v>0.01892658810687389</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06554443157642832</v>
+        <v>0.1813914837631463</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02245372562484634</v>
+        <v>0.02690413016592122</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08735199049505919</v>
+        <v>0.1822704088137289</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04872025460498328</v>
+        <v>0.06401100872228174</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08665964124030349</v>
+        <v>0.1818954808405296</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08395088241334192</v>
+        <v>0.1012844204411318</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08648726669633601</v>
+        <v>0.1818954808405296</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04286282179013536</v>
+        <v>0.01806813355631198</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06554416304796432</v>
+        <v>0.1830110505824601</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02215709884399727</v>
+        <v>0.0270940604592138</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0881319189816222</v>
+        <v>0.1838978231781372</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04775483286532259</v>
+        <v>0.06456558221047642</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08743338803709193</v>
+        <v>0.1835195476337486</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08328908249117123</v>
+        <v>0.1026022322842206</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08725947443469614</v>
+        <v>0.1835195476337486</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04212729045089846</v>
+        <v>0.01821650937984357</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0655438945195003</v>
+        <v>0.1846306174017739</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02226236106727555</v>
+        <v>0.02739513635271942</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08891184746818524</v>
+        <v>0.1855252375425455</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04709653430440075</v>
+        <v>0.06544575142454967</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08820713483388033</v>
+        <v>0.1851436144269676</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08282662720430206</v>
+        <v>0.1027604620479433</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08803168217305629</v>
+        <v>0.1851436144269676</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0414079687205199</v>
+        <v>0.02036669387814827</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06554362599103628</v>
+        <v>0.1862501842210877</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02196994542058342</v>
+        <v>0.02780157192531055</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08969177595474827</v>
+        <v>0.1871526519069538</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04714668400994609</v>
+        <v>0.06613571597955628</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08898088163066876</v>
+        <v>0.1867676812201866</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08156491471033162</v>
+        <v>0.1034341595235138</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08880388991141644</v>
+        <v>0.1867676812201866</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04070532686632441</v>
+        <v>0.02051366535190563</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06554335746257225</v>
+        <v>0.1878697510404015</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02178028502982308</v>
+        <v>0.02780639127183916</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09047170444131129</v>
+        <v>0.1887800662713621</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04630660706968692</v>
+        <v>0.06641900460227135</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08975462842745718</v>
+        <v>0.1883917480134056</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0810053431668572</v>
+        <v>0.1046973151100674</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08957609764977657</v>
+        <v>0.1883917480134056</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04001983515554248</v>
+        <v>0.01865240210179524</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06554308893410825</v>
+        <v>0.1894893178597153</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02149381302089672</v>
+        <v>0.02810261848715725</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09125163292787433</v>
+        <v>0.1904074806357704</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04597762857135171</v>
+        <v>0.06677914601946996</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09052837522424562</v>
+        <v>0.1900158148066246</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08024931073147606</v>
+        <v>0.1052239192067396</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09034830538813672</v>
+        <v>0.1900158148066246</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03935196385543622</v>
+        <v>0.02077788242849665</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06554282040564423</v>
+        <v>0.1911088846790291</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02141096251970658</v>
+        <v>0.02838327766611677</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09203156141443736</v>
+        <v>0.1920348950001787</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04526107360266871</v>
+        <v>0.06719966895792728</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09130212202103404</v>
+        <v>0.1916398815998436</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07939821556178528</v>
+        <v>0.1056879622126659</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09112051312649687</v>
+        <v>0.1916398815998436</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03870218323323989</v>
+        <v>0.01888508463268947</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06554255187718021</v>
+        <v>0.1927284514983429</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02133216665215483</v>
+        <v>0.02824139290356975</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09281148990100038</v>
+        <v>0.193662309364587</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0450582672513663</v>
+        <v>0.06746410214441839</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09207586881782245</v>
+        <v>0.1932639483930627</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07865345581538224</v>
+        <v>0.1063634345269815</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09189272086485702</v>
+        <v>0.1932639483930627</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0380709635562722</v>
+        <v>0.02096898701505325</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06554228334871619</v>
+        <v>0.1943480183176567</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02105785854414367</v>
+        <v>0.02866998829436813</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09359141838756342</v>
+        <v>0.1952897237289953</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04397053460517281</v>
+        <v>0.06775597430571845</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09284961561461089</v>
+        <v>0.1948880151862817</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07721642964986419</v>
+        <v>0.1066243265488219</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09266492860321715</v>
+        <v>0.1948880151862817</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0374587750917666</v>
+        <v>0.01902807196096763</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06554201482025217</v>
+        <v>0.1959675851369705</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02088847132157537</v>
+        <v>0.02846229600455419</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09437134687412645</v>
+        <v>0.1969171380934036</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04379920075181659</v>
+        <v>0.06826218730595615</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09362336241139931</v>
+        <v>0.1965120819795007</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07698853522282828</v>
+        <v>0.1068499551602866</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0934371363415773</v>
+        <v>0.1965120819795007</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03686608810698521</v>
+        <v>0.0190820666276689</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06554174629178816</v>
+        <v>0.1975871519562843</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0206244381103521</v>
+        <v>0.0285371837543056</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09515127536068947</v>
+        <v>0.1985445524578119</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04324559077902607</v>
+        <v>0.06823913105914856</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09439710920818772</v>
+        <v>0.1981361487727197</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07567117069187185</v>
+        <v>0.1080293650354788</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09420934407993745</v>
+        <v>0.1981361487727197</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0362933728691657</v>
+        <v>0.0191348822390117</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06554147776332413</v>
+        <v>0.1992067187755981</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02066619203637608</v>
+        <v>0.02891045104679182</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0959312038472525</v>
+        <v>0.2001719668222201</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04321102977452945</v>
+        <v>0.06851223113567906</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09517085600497616</v>
+        <v>0.1997602155659387</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07456573421459212</v>
+        <v>0.108202705404418</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09498155181829758</v>
+        <v>0.1997602155659387</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03574109964562003</v>
+        <v>0.02018650031446301</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06554120923486012</v>
+        <v>0.2008262855949119</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02031416622554948</v>
+        <v>0.02868207220973801</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09671113233381552</v>
+        <v>0.2017993811866284</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04289684282605513</v>
+        <v>0.06828142691903333</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09594460280176458</v>
+        <v>0.2013842823591577</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07467362394858623</v>
+        <v>0.1085698805482539</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09575375955665773</v>
+        <v>0.2013842823591577</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03520781844559779</v>
+        <v>0.01923690237348982</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0655409407063961</v>
+        <v>0.2024458524142257</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02036879380377456</v>
+        <v>0.02895202157086919</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09749106082037855</v>
+        <v>0.2034267955510367</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04200435502133151</v>
+        <v>0.06854665779269703</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09671834959855301</v>
+        <v>0.2030083491523767</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07339623805145146</v>
+        <v>0.1082307947481355</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09652596729501788</v>
+        <v>0.2030083491523767</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03468247798843881</v>
+        <v>0.02028606993555906</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06554067217793209</v>
+        <v>0.2040654192335395</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02003050789695346</v>
+        <v>0.02882027345791051</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09827098930694159</v>
+        <v>0.205054209915445</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04143489144808693</v>
+        <v>0.06860786314015588</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09749209639534143</v>
+        <v>0.2046324159455958</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07213497468078517</v>
+        <v>0.1091853522852123</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09729817503337801</v>
+        <v>0.2046324159455958</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03416362828339591</v>
+        <v>0.02033398452013776</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06554040364946806</v>
+        <v>0.2056849860528533</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01999974163098844</v>
+        <v>0.02908680219858704</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09905091779350461</v>
+        <v>0.2066816242798533</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04178977719404972</v>
+        <v>0.06866498234489557</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09826584319212985</v>
+        <v>0.2062564827388148</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07239123199418446</v>
+        <v>0.1086334574406334</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09807038277173814</v>
+        <v>0.2062564827388148</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0336517395977764</v>
+        <v>0.02038062764669289</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06554013512100405</v>
+        <v>0.2073045528721671</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01967493338260828</v>
+        <v>0.0292515821206239</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09983084628006764</v>
+        <v>0.2083090386442616</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04076465471861745</v>
+        <v>0.06921795479040174</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09903958998891828</v>
+        <v>0.2078805495320338</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07125388037956237</v>
+        <v>0.108875014495548</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09884259051009829</v>
+        <v>0.2078805495320338</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03314728219881969</v>
+        <v>0.02142598083469142</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06553986659254003</v>
+        <v>0.2089241196914809</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01955366681701005</v>
+        <v>0.02931458755174615</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1006107747666307</v>
+        <v>0.2099364530086699</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04045250564492031</v>
+        <v>0.06966671986016015</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0998133367857067</v>
+        <v>0.2095046163252528</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0698081204121544</v>
+        <v>0.1092099277311055</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09961479824845844</v>
+        <v>0.2095046163252528</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03265072635378787</v>
+        <v>0.02047002560360032</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06553959806407601</v>
+        <v>0.2105436865107948</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01943576334532035</v>
+        <v>0.02937579281967891</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1013907032531937</v>
+        <v>0.2115638673730782</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04075259916858648</v>
+        <v>0.06931121693765641</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1005870835824951</v>
+        <v>0.2111286831184718</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0694548185965177</v>
+        <v>0.1091381014284553</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1003870059868186</v>
+        <v>0.2111286831184718</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03216254232992206</v>
+        <v>0.0215127434728866</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06553932953561199</v>
+        <v>0.2121632533301085</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01932105088667771</v>
+        <v>0.0294351722521473</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1021706317397567</v>
+        <v>0.2131912817374865</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04056422369608498</v>
+        <v>0.06955138540637629</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1013608303792835</v>
+        <v>0.2127527499116908</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06829489599884248</v>
+        <v>0.1096594398687465</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1011592137251787</v>
+        <v>0.2127527499116908</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03168320039452687</v>
+        <v>0.01955411596201719</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06553906100714797</v>
+        <v>0.2137828201494224</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01950935736022055</v>
+        <v>0.02939270017687637</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1029505602263198</v>
+        <v>0.2148186961018948</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04028666763388497</v>
+        <v>0.06978716464980544</v>
       </c>
       <c r="M197" t="n">
-        <v>0.102134577176072</v>
+        <v>0.2143768167049098</v>
       </c>
       <c r="N197" t="n">
-        <v>0.06812927368531918</v>
+        <v>0.1106738473331285</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1019314214635389</v>
+        <v>0.2143768167049098</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.031213170814843</v>
+        <v>0.02159412459045914</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06553879247868397</v>
+        <v>0.2154023869687362</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01910051068508735</v>
+        <v>0.02954835092159125</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1037304887128828</v>
+        <v>0.2164461104663031</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04001921938845548</v>
+        <v>0.06961849405142953</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1029083239728604</v>
+        <v>0.2160008834981288</v>
       </c>
       <c r="N198" t="n">
-        <v>0.06695887272213813</v>
+        <v>0.1105812281027504</v>
       </c>
       <c r="O198" t="n">
-        <v>0.102703629201899</v>
+        <v>0.2160008834981288</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03075292385813259</v>
+        <v>0.01963275087767936</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06553852395021995</v>
+        <v>0.21702195378805</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01899433878041658</v>
+        <v>0.02940209881401701</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1045104171994458</v>
+        <v>0.2180735248307114</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03956116736626555</v>
+        <v>0.0697453129947343</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1036820707696488</v>
+        <v>0.2176249502913479</v>
       </c>
       <c r="N199" t="n">
-        <v>0.06678461417548953</v>
+        <v>0.1101814864587616</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1034758369402591</v>
+        <v>0.2176249502913479</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03030292979163839</v>
+        <v>0.02166997634314489</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06553825542175593</v>
+        <v>0.2186415206073638</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01919066956534671</v>
+        <v>0.02965391818187878</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1052903456860088</v>
+        <v>0.2197009391951197</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03881179997378431</v>
+        <v>0.06996756086320532</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1044558175664372</v>
+        <v>0.2192490170845669</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06610741911156393</v>
+        <v>0.1106745266823114</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1042480446786193</v>
+        <v>0.2192490170845669</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02986365888266173</v>
+        <v>0.01970578250632265</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06553798689329191</v>
+        <v>0.2202610874266776</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0188893309590162</v>
+        <v>0.02940378335290164</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1060702741725719</v>
+        <v>0.221328353559528</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03907040561748082</v>
+        <v>0.07028517704032844</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1052295643632257</v>
+        <v>0.2208730838777859</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06532820859655142</v>
+        <v>0.110660253054549</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1050202524169794</v>
+        <v>0.2208730838777859</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02943558139844494</v>
+        <v>0.02074015088667965</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0655377183648279</v>
+        <v>0.2218806542459914</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01879015088056353</v>
+        <v>0.02945166865481066</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1068502026591349</v>
+        <v>0.2229557679239363</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03893627270382413</v>
+        <v>0.07029810090958924</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1060033111600141</v>
+        <v>0.2224971506710049</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06454790369664248</v>
+        <v>0.1111385698566237</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1057924601553396</v>
+        <v>0.2224971506710049</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02901916760625011</v>
+        <v>0.02177306300368289</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06553744983636388</v>
+        <v>0.2235002210653052</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01859295724912716</v>
+        <v>0.02949754841533098</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1076301311456979</v>
+        <v>0.2245831822883445</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03810868963928332</v>
+        <v>0.07060627185447343</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1067770579568025</v>
+        <v>0.2241212174642239</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06326742547802744</v>
+        <v>0.1108093813696848</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1065646678936997</v>
+        <v>0.2241212174642239</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02861488777332207</v>
+        <v>0.0208045003767993</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06553718130789986</v>
+        <v>0.225119787884619</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01849757798384558</v>
+        <v>0.02984139696218766</v>
       </c>
       <c r="K204" t="n">
-        <v>0.108410059632261</v>
+        <v>0.2262105966527529</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03838694483032748</v>
+        <v>0.07090962925846675</v>
       </c>
       <c r="M204" t="n">
-        <v>0.107550804753591</v>
+        <v>0.2257452842574429</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06238769500689645</v>
+        <v>0.1112725918748816</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1073368756320599</v>
+        <v>0.2257452842574429</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02822321216695816</v>
+        <v>0.01983444452549591</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06553691277943584</v>
+        <v>0.2267393547039328</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01840384100385718</v>
+        <v>0.02958318862310583</v>
       </c>
       <c r="K205" t="n">
-        <v>0.109189988118824</v>
+        <v>0.2278380110171611</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03807032668342569</v>
+        <v>0.07090811250505488</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1083245515503794</v>
+        <v>0.2273693510506619</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06230963334944006</v>
+        <v>0.1121281056533633</v>
       </c>
       <c r="O205" t="n">
-        <v>0.10810908337042</v>
+        <v>0.2273693510506619</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02784461105440263</v>
+        <v>0.02086287696923966</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06553664425097183</v>
+        <v>0.2283589215232466</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01851157422830049</v>
+        <v>0.02992289772581057</v>
       </c>
       <c r="K206" t="n">
-        <v>0.109969916605387</v>
+        <v>0.2294654253815694</v>
       </c>
       <c r="L206" t="n">
-        <v>0.037958123605047</v>
+        <v>0.07080166097772342</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1090982983471678</v>
+        <v>0.2289934178438809</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06103416157184854</v>
+        <v>0.1122758269862792</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1088812911087802</v>
+        <v>0.2289934178438809</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02747955470291761</v>
+        <v>0.02188977922749755</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06553637572250781</v>
+        <v>0.2299784883425604</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01852060557631401</v>
+        <v>0.02976049859802696</v>
       </c>
       <c r="K207" t="n">
-        <v>0.11074984509195</v>
+        <v>0.2310928397459777</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03794962400166046</v>
+        <v>0.07049021405995815</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1098720451439562</v>
+        <v>0.2306174846371</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0600622007403121</v>
+        <v>0.1113156601547787</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1096534988471403</v>
+        <v>0.2306174846371</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02712851337975029</v>
+        <v>0.02091513281973655</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06553610719404379</v>
+        <v>0.2315980551618742</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01843076296703615</v>
+        <v>0.02979596556748013</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1115297735785131</v>
+        <v>0.232720254110386</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03734411627973516</v>
+        <v>0.07087371113524468</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1106457919407446</v>
+        <v>0.232241551430319</v>
       </c>
       <c r="N208" t="n">
-        <v>0.05919467192102124</v>
+        <v>0.1124475094400108</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1104257065855004</v>
+        <v>0.232241551430319</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02679195735219333</v>
+        <v>0.02193891926542368</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06553583866557977</v>
+        <v>0.233217621981188</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0180418743196054</v>
+        <v>0.02992927296189517</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1123097020650761</v>
+        <v>0.2343476684747943</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03714088884574018</v>
+        <v>0.0712520915870688</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1114195387375331</v>
+        <v>0.233865618223538</v>
       </c>
       <c r="N209" t="n">
-        <v>0.05933249618016617</v>
+        <v>0.111771279123125</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1111979143238606</v>
+        <v>0.233865618223538</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02647035688749328</v>
+        <v>0.02096112008402583</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06553557013711575</v>
+        <v>0.2348371888005019</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0181537675531602</v>
+        <v>0.02976039510899715</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1130896305516391</v>
+        <v>0.2359750828392026</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03683923010614462</v>
+        <v>0.07132529479891611</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1121932855343215</v>
+        <v>0.235489685016757</v>
       </c>
       <c r="N210" t="n">
-        <v>0.05807659458393721</v>
+        <v>0.1122868734852706</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1119701220622207</v>
+        <v>0.235489685016757</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02616418225291229</v>
+        <v>0.01998171679501006</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06553530160865174</v>
+        <v>0.2364567556198157</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01796627058683906</v>
+        <v>0.02998930633651119</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1138695590382021</v>
+        <v>0.2376024972036109</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03653842846741751</v>
+        <v>0.07089326015427233</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1129670323311099</v>
+        <v>0.237113751809976</v>
       </c>
       <c r="N211" t="n">
-        <v>0.05702788819852478</v>
+        <v>0.1122941968075968</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1127423298005809</v>
+        <v>0.237113751809976</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02587390371570019</v>
+        <v>0.02200069091784333</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06553503308018771</v>
+        <v>0.2380763224391295</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0180792113397804</v>
+        <v>0.02981598097216238</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1146494875247652</v>
+        <v>0.2392299115680192</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0365377723360279</v>
+        <v>0.07095592703662315</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1137407791278983</v>
+        <v>0.2387378186031951</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05678729809011912</v>
+        <v>0.1119931533712527</v>
       </c>
       <c r="O212" t="n">
-        <v>0.113514537538941</v>
+        <v>0.2387378186031951</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0255999915431444</v>
+        <v>0.02201802397199259</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0655347645517237</v>
+        <v>0.2396958892584433</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01779241773112271</v>
+        <v>0.03014039334367581</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1154294160113282</v>
+        <v>0.2408573259324275</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03653655011844492</v>
+        <v>0.07131323482945429</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1145145259246868</v>
+        <v>0.2403618853964141</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05535574532491061</v>
+        <v>0.1130836474573879</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1142867452773012</v>
+        <v>0.2403618853964141</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02534291600249406</v>
+        <v>0.02003369747692486</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06553449602325968</v>
+        <v>0.2413154560777571</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0176057176800045</v>
+        <v>0.02986251777877658</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1162093444978912</v>
+        <v>0.2424847402968358</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03643405022113763</v>
+        <v>0.07096512291625134</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1152882727214752</v>
+        <v>0.2419859521896331</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0548341509690895</v>
+        <v>0.1127655833471515</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1150589530156613</v>
+        <v>0.2419859521896331</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02534291600249406</v>
+        <v>0.02104769295210709</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06553449602325968</v>
+        <v>0.2429350228970709</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01781893910556416</v>
+        <v>0.0298823286051898</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1169892729844543</v>
+        <v>0.2441121546612441</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03612956105057508</v>
+        <v>0.07151153068050012</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1160620195182636</v>
+        <v>0.2436100189828521</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0545234360888463</v>
+        <v>0.1132388653216929</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1158311607540214</v>
+        <v>0.2436100189828521</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02470063906445264</v>
+        <v>0.02005999191700627</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06545542642650094</v>
+        <v>0.2445545897163847</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0175319099269402</v>
+        <v>0.03019980015064055</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1177692014710173</v>
+        <v>0.2457395690256524</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03602237101322639</v>
+        <v>0.07105239750568623</v>
       </c>
       <c r="M216" t="n">
-        <v>0.116835766315052</v>
+        <v>0.2452340857760711</v>
       </c>
       <c r="N216" t="n">
-        <v>0.05412452175037119</v>
+        <v>0.1128033976621611</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1166033684923816</v>
+        <v>0.2452340857760711</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02406547977491962</v>
+        <v>0.02107057589108938</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06537635682974219</v>
+        <v>0.2461741565356985</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0175444580632711</v>
+        <v>0.03011490674285394</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1185491299575803</v>
+        <v>0.2473669833900607</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03521176851556054</v>
+        <v>0.07108766277529543</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1176095131118405</v>
+        <v>0.2468581525692901</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0534383290198544</v>
+        <v>0.1127590846497056</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1173755762307417</v>
+        <v>0.2468581525692901</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02343775812530836</v>
+        <v>0.02107942639382341</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06529728723298345</v>
+        <v>0.2477937233550123</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0175564114336953</v>
+        <v>0.03002762270955504</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1193290584441433</v>
+        <v>0.2489943977544689</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03559704196404673</v>
+        <v>0.07131726587281328</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1183832599086289</v>
+        <v>0.2484822193625091</v>
       </c>
       <c r="N218" t="n">
-        <v>0.05206577896348646</v>
+        <v>0.1133058305654758</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1181477839691019</v>
+        <v>0.2484822193625091</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02281779410703182</v>
+        <v>0.02108652494467531</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06521821763622471</v>
+        <v>0.2494132901743261</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01736759795735127</v>
+        <v>0.030037922378469</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1201089869307064</v>
+        <v>0.2506218121188772</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03497747976515389</v>
+        <v>0.07124114618172567</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1191570067054173</v>
+        <v>0.2501062861557281</v>
       </c>
       <c r="N219" t="n">
-        <v>0.05220779264745767</v>
+        <v>0.1126435396906206</v>
       </c>
       <c r="O219" t="n">
-        <v>0.118919991707462</v>
+        <v>0.2501062861557281</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02220590771150336</v>
+        <v>0.02109185306311209</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06513914803946597</v>
+        <v>0.2510328569936399</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01727784555337748</v>
+        <v>0.02994578007732088</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1208889154172694</v>
+        <v>0.2522492264832856</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0349523703253512</v>
+        <v>0.07165924308551805</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1199307535022057</v>
+        <v>0.2517303529489472</v>
       </c>
       <c r="N220" t="n">
-        <v>0.05106529113795821</v>
+        <v>0.1129721163062896</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1196921994458222</v>
+        <v>0.2517303529489472</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02160241893013607</v>
+        <v>0.02209539226860072</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06506007844270723</v>
+        <v>0.2526524238129537</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01708698214091241</v>
+        <v>0.03025117013383577</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1216688439038324</v>
+        <v>0.2538766408476938</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03432100205110766</v>
+        <v>0.0716714959676763</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1207045002989942</v>
+        <v>0.2533544197421662</v>
       </c>
       <c r="N221" t="n">
-        <v>0.05023919550117861</v>
+        <v>0.1127914646936319</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1204644071841823</v>
+        <v>0.2533544197421662</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02100764775434302</v>
+        <v>0.02209712408060818</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06498100884594847</v>
+        <v>0.2542719906322675</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01689483563909454</v>
+        <v>0.03025406687573877</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1224487723903955</v>
+        <v>0.2555040552121022</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03458266334889243</v>
+        <v>0.071377844211686</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1214782470957826</v>
+        <v>0.2549784865353852</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04983042680330901</v>
+        <v>0.1130014891337969</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1212366149225424</v>
+        <v>0.2549784865353852</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02042191417553756</v>
+        <v>0.02108866330017072</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06490193924918973</v>
+        <v>0.2558915574515813</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01690123396706227</v>
+        <v>0.03004972955169313</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1232287008769585</v>
+        <v>0.2571314695765105</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0343366426251745</v>
+        <v>0.07156103619739934</v>
       </c>
       <c r="M223" t="n">
-        <v>0.122251993892571</v>
+        <v>0.2566025533286042</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04883990611053984</v>
+        <v>0.1132749477889383</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1220088226609026</v>
+        <v>0.2566025533286042</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01984553818513274</v>
+        <v>0.0200310909591793</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06482286965243099</v>
+        <v>0.2575111242708951</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01680600504395414</v>
+        <v>0.02988471406242621</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1240086293635215</v>
+        <v>0.2587588839409187</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03428222828642299</v>
+        <v>0.07109244858373956</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1230257406893594</v>
+        <v>0.2582266201218232</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04866855448906149</v>
+        <v>0.112608732998974</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1227810303992627</v>
+        <v>0.2582266201218232</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01927883977454168</v>
+        <v>0.01992441140618798</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06474380005567223</v>
+        <v>0.2591306910902089</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01670897678890858</v>
+        <v>0.03005026644753565</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1247885578500845</v>
+        <v>0.260386298305327</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03401870873910695</v>
+        <v>0.07116114026884104</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1237994874861478</v>
+        <v>0.2598506869150422</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04851729300506408</v>
+        <v>0.1116855677939542</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1235532381376229</v>
+        <v>0.2598506869150422</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01872213893517771</v>
+        <v>0.02177438582507112</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06466473045891349</v>
+        <v>0.2607502579095227</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01660997712106406</v>
+        <v>0.02975438986883651</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1255684863366476</v>
+        <v>0.2620137126697353</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03304537238969543</v>
+        <v>0.07088600804991099</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1245732342829363</v>
+        <v>0.2614747537082612</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04708704272473813</v>
+        <v>0.1113352918921731</v>
       </c>
       <c r="O226" t="n">
-        <v>0.124325445875983</v>
+        <v>0.2614747537082612</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01817575565845381</v>
+        <v>0.02158677539970313</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06458566086215474</v>
+        <v>0.2623698247288365</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01640883395955908</v>
+        <v>0.02960508748814387</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1263484148232106</v>
+        <v>0.2636411270341436</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03326150764465757</v>
+        <v>0.06988594872415657</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1253469810797247</v>
+        <v>0.2630988205014802</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04747872471427395</v>
+        <v>0.1108877450119249</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1250976536143432</v>
+        <v>0.2630988205014802</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01764000993578332</v>
+        <v>0.02036734131395834</v>
       </c>
       <c r="G228" t="n">
-        <v>0.064506591265396</v>
+        <v>0.2639893915481504</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01650537522353207</v>
+        <v>0.02931036246727274</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1271283433097736</v>
+        <v>0.2652685413985519</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03316640291046238</v>
+        <v>0.06887985908878497</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1261207278765131</v>
+        <v>0.2647228872946993</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04699326003986176</v>
+        <v>0.1098727668715039</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1258698613527033</v>
+        <v>0.2647228872946993</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01711522175857933</v>
+        <v>0.02112184475171112</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06442752166863726</v>
+        <v>0.2656089583674642</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01639942883212152</v>
+        <v>0.02897821796803819</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1279082717963367</v>
+        <v>0.2668959557629602</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03255934659357901</v>
+        <v>0.06818663594100344</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1268944746733015</v>
+        <v>0.2663469540879183</v>
       </c>
       <c r="N229" t="n">
-        <v>0.04663156976769195</v>
+        <v>0.1081201971892043</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1266420690910634</v>
+        <v>0.2663469540879183</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01660171111825493</v>
+        <v>0.02085604689683587</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0643484520718785</v>
+        <v>0.267228525186778</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01629083509607486</v>
+        <v>0.02851665715225525</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1286882002828997</v>
+        <v>0.2685233701273685</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03253963890309364</v>
+        <v>0.06762517607801907</v>
       </c>
       <c r="M230" t="n">
-        <v>0.12766822147009</v>
+        <v>0.2679710208811373</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04559444599115897</v>
+        <v>0.1067598756833206</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1274142768294236</v>
+        <v>0.2679710208811373</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01609979800622345</v>
+        <v>0.02057570893320693</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06426938247511976</v>
+        <v>0.2688480920060918</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01608055490265231</v>
+        <v>0.02813368318173899</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1294681287694627</v>
+        <v>0.2701507844917768</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03220775572104129</v>
+        <v>0.06701437629703907</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1284419682668784</v>
+        <v>0.2695950876743563</v>
       </c>
       <c r="N231" t="n">
-        <v>0.04506925090022906</v>
+        <v>0.1047216420721468</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1281864845677837</v>
+        <v>0.2695950876743563</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01560980241389789</v>
+        <v>0.01828659204469869</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06419031287836101</v>
+        <v>0.2704676588254056</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01606928330933489</v>
+        <v>0.02763729921830445</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1302480572560258</v>
+        <v>0.271778198856185</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03186443386111626</v>
+        <v>0.0656731333952707</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1292157150636668</v>
+        <v>0.2712191544675753</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04524739430329094</v>
+        <v>0.1033353360739772</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1289586923061439</v>
+        <v>0.2712191544675753</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01513204433269158</v>
+        <v>0.0199944574151855</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06411124328160227</v>
+        <v>0.2720872256447194</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01605703127795553</v>
+        <v>0.02743550842376667</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1310279857425888</v>
+        <v>0.2734056132205934</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03110989664763608</v>
+        <v>0.0644203441699211</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1299894618604552</v>
+        <v>0.2728432212607944</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04442920757849711</v>
+        <v>0.1028307974071061</v>
       </c>
       <c r="O233" t="n">
-        <v>0.129730900044504</v>
+        <v>0.2728432212607944</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0146668437540176</v>
+        <v>0.01770506622854176</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06403217368484353</v>
+        <v>0.2737067924640332</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01594380977034704</v>
+        <v>0.02673631395994072</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1318079142291518</v>
+        <v>0.2750330275850016</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03084436740491836</v>
+        <v>0.06377490541819744</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1307632086572437</v>
+        <v>0.2744672880540133</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04411502210400015</v>
+        <v>0.1008378657898278</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1305031077828642</v>
+        <v>0.2744672880540133</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01421452066928906</v>
+        <v>0.01842417966864181</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06395310408808479</v>
+        <v>0.275326359283347</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01562962974834235</v>
+        <v>0.02654771898864162</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1325878427157148</v>
+        <v>0.2766604419494099</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03016806945728079</v>
+        <v>0.06315571393730696</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1315369554540321</v>
+        <v>0.2760913548472324</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04410516925795271</v>
+        <v>0.09888638094043639</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1312753155212243</v>
+        <v>0.2760913548472324</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01377539506991926</v>
+        <v>0.01715755891936004</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06387403449132605</v>
+        <v>0.2769459261026608</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01541450217377437</v>
+        <v>0.02597772667168446</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1333677712022779</v>
+        <v>0.2782878563138182</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03028122612904086</v>
+        <v>0.06238166652445673</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1323107022508205</v>
+        <v>0.2777154216404514</v>
       </c>
       <c r="N236" t="n">
-        <v>0.04359998041850693</v>
+        <v>0.09770618257722624</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1320475232595844</v>
+        <v>0.2777154216404514</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01334978694732124</v>
+        <v>0.01691096516457081</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06379496489456729</v>
+        <v>0.2785654929219746</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01529843800847591</v>
+        <v>0.02563434017088426</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1341476996888409</v>
+        <v>0.2799152706782266</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02938406074451619</v>
+        <v>0.06097165997685408</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1330844490476089</v>
+        <v>0.2793394884336704</v>
       </c>
       <c r="N237" t="n">
-        <v>0.04319978696381566</v>
+        <v>0.09622711041849175</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1328197309979446</v>
+        <v>0.2793394884336704</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01293801629290828</v>
+        <v>0.01668122168108574</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06371589529780855</v>
+        <v>0.2801850597412884</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01538144821427989</v>
+        <v>0.02561703122870006</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1349276281754039</v>
+        <v>0.2815426850426349</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02917679662802444</v>
+        <v>0.06052076855369962</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1338581958443974</v>
+        <v>0.2809635552268894</v>
       </c>
       <c r="N238" t="n">
-        <v>0.04200492027203123</v>
+        <v>0.09604138628276476</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1335919387363047</v>
+        <v>0.2809635552268894</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0125404030980935</v>
+        <v>0.0174512896131359</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06363682570104981</v>
+        <v>0.2818046265606022</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01516354375301919</v>
+        <v>0.02500083998998617</v>
       </c>
       <c r="K239" t="n">
-        <v>0.135707556661967</v>
+        <v>0.2831700994070431</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02865965710388321</v>
+        <v>0.05967095951850629</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1346319426411858</v>
+        <v>0.2825876220201085</v>
       </c>
       <c r="N239" t="n">
-        <v>0.04201571172130625</v>
+        <v>0.09405737133359926</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1343641464746649</v>
+        <v>0.2825876220201085</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01215596072268622</v>
+        <v>0.01622048865683105</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06355775610429105</v>
+        <v>0.283424193379916</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0149447355865267</v>
+        <v>0.02468344983902013</v>
       </c>
       <c r="K240" t="n">
-        <v>0.13648748514853</v>
+        <v>0.2847975137714515</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02803286549641007</v>
+        <v>0.05871831151004855</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1354056894379742</v>
+        <v>0.2842116888133274</v>
       </c>
       <c r="N240" t="n">
-        <v>0.04183249268979305</v>
+        <v>0.09326887339392886</v>
       </c>
       <c r="O240" t="n">
-        <v>0.135136354213025</v>
+        <v>0.2842116888133274</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01177716936847716</v>
+        <v>0.01698880516371296</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06347868650753231</v>
+        <v>0.2850437601992298</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01502503467663527</v>
+        <v>0.02466484181601483</v>
       </c>
       <c r="K241" t="n">
-        <v>0.137267413635093</v>
+        <v>0.2864249281358597</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02759664512992258</v>
+        <v>0.0580627797611129</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1361794362347626</v>
+        <v>0.2858357556065464</v>
       </c>
       <c r="N241" t="n">
-        <v>0.04125559455564437</v>
+        <v>0.09147582177235397</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1359085619513852</v>
+        <v>0.2858357556065464</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01140304239527563</v>
+        <v>0.01775622548532337</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06339961691077357</v>
+        <v>0.2866633270185436</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01480445198517781</v>
+        <v>0.02414499696118313</v>
       </c>
       <c r="K242" t="n">
-        <v>0.138047342121656</v>
+        <v>0.288052342500268</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02755121932873844</v>
+        <v>0.05760431950448608</v>
       </c>
       <c r="M242" t="n">
-        <v>0.136953183031551</v>
+        <v>0.2874598223997655</v>
       </c>
       <c r="N242" t="n">
-        <v>0.04108534869701258</v>
+        <v>0.09047814577747559</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1366807696897453</v>
+        <v>0.2874598223997655</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01103389979449475</v>
+        <v>0.01552273597320406</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06332054731401482</v>
+        <v>0.2882828938378574</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01458299847398721</v>
+        <v>0.02402389631473793</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1388272706082191</v>
+        <v>0.2896797568646763</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02709681141717518</v>
+        <v>0.05634288597295473</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1377269298283395</v>
+        <v>0.2890838891929844</v>
       </c>
       <c r="N243" t="n">
-        <v>0.04022208649205022</v>
+        <v>0.08947577471789447</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1374529774281054</v>
+        <v>0.2890838891929844</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01067006155754779</v>
+        <v>0.01628832297889676</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06324147771725608</v>
+        <v>0.2899024606571712</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01446068510489634</v>
+        <v>0.02360152091689208</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1396071990947821</v>
+        <v>0.2913071712290846</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02623364471955039</v>
+        <v>0.05577843439930552</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1385006766251279</v>
+        <v>0.2907079559862035</v>
       </c>
       <c r="N244" t="n">
-        <v>0.04046613931890986</v>
+        <v>0.08796863790221127</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1382251851664656</v>
+        <v>0.2907079559862035</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01031184767584784</v>
+        <v>0.01505297285394324</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06316240812049732</v>
+        <v>0.2915220274764851</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01433752283973805</v>
+        <v>0.02307785180785848</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1403871275813451</v>
+        <v>0.2929345855934929</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02616194256018176</v>
+        <v>0.05501092001632504</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1392744234219163</v>
+        <v>0.2923320227794225</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03951783855574392</v>
+        <v>0.08765666463902705</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1389973929048257</v>
+        <v>0.2923320227794225</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009959578140808133</v>
+        <v>0.01581667194988527</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06308333852373858</v>
+        <v>0.2931415942957988</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01431352264034526</v>
+        <v>0.02295287002784997</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1411670560679081</v>
+        <v>0.2945619999579012</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02578192826338679</v>
+        <v>0.05434029805680007</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1400481702187047</v>
+        <v>0.2939560895726415</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03957751558070494</v>
+        <v>0.08643978423694243</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1397696006431859</v>
+        <v>0.2939560895726415</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009613572943841818</v>
+        <v>0.01457940661826459</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06300426892697984</v>
+        <v>0.2947611611151127</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01428869546855085</v>
+        <v>0.02262655661707946</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1419469845544712</v>
+        <v>0.2961894143223094</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02549382515348311</v>
+        <v>0.05336652375351714</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1408219170154932</v>
+        <v>0.2955801563658605</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03934550177194535</v>
+        <v>0.08481792600455823</v>
       </c>
       <c r="O247" t="n">
-        <v>0.140541808381546</v>
+        <v>0.2955801563658605</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009274152076361987</v>
+        <v>0.01434116321062296</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06292519933022109</v>
+        <v>0.2963807279344264</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01426305228618768</v>
+        <v>0.02209889261575979</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1427269130410342</v>
+        <v>0.2978168286867178</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02459785655478836</v>
+        <v>0.05288955233926301</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1415956638122816</v>
+        <v>0.2972042231590796</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03872212850761786</v>
+        <v>0.08349101925047536</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1413140161199062</v>
+        <v>0.2972042231590796</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.00894163552978193</v>
+        <v>0.01610192807850213</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06284612973346235</v>
+        <v>0.2980002947537403</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01413660405508865</v>
+        <v>0.02186985906410387</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1435068415275972</v>
+        <v>0.299444243051126</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02429424579162015</v>
+        <v>0.0518093390468243</v>
       </c>
       <c r="M249" t="n">
-        <v>0.14236941060907</v>
+        <v>0.2988282899522985</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03900772716587481</v>
+        <v>0.08235899328329449</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1420862238582663</v>
+        <v>0.2988282899522985</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008616343295514695</v>
+        <v>0.01386168757344388</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06276706013670359</v>
+        <v>0.2996198615730541</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01370936173708664</v>
+        <v>0.02153943700232455</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1442867700141603</v>
+        <v>0.3010716574155343</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02398321618829605</v>
+        <v>0.05132583910898764</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1431431574058585</v>
+        <v>0.3004523567455176</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0378026291248687</v>
+        <v>0.08092177741161644</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1428584315966265</v>
+        <v>0.3004523567455176</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00829859536497355</v>
+        <v>0.01462042804698993</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06268799053994485</v>
+        <v>0.3012394283923679</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01378133629401453</v>
+        <v>0.02110760747063473</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1450666985007233</v>
+        <v>0.3026990717799427</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02326499106913363</v>
+        <v>0.05063900775853969</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1439169042026469</v>
+        <v>0.3020764235387365</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03800716576275215</v>
+        <v>0.08007930094404209</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1436306393349866</v>
+        <v>0.3020764235387365</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007988711729571628</v>
+        <v>0.01537813585068208</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06260892094318611</v>
+        <v>0.3028589952116817</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01375253868770519</v>
+        <v>0.02077435150924725</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1458466269872863</v>
+        <v>0.3043264861443509</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02273979375845053</v>
+        <v>0.05004880022826713</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1446906509994353</v>
+        <v>0.3037004903319556</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0372216684576776</v>
+        <v>0.07873149318917211</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1444028470733467</v>
+        <v>0.3037004903319556</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007687012380722044</v>
+        <v>0.01313479733606205</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06252985134642737</v>
+        <v>0.3044785620309955</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01342297987999151</v>
+        <v>0.02053965015837501</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1466265554738493</v>
+        <v>0.3059539005087593</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0217078475805644</v>
+        <v>0.04865517175095666</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1454643977962237</v>
+        <v>0.3053245571251746</v>
       </c>
       <c r="N253" t="n">
-        <v>0.03704646858779753</v>
+        <v>0.07667828345560745</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1451750548117069</v>
+        <v>0.3053245571251746</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007393817309838048</v>
+        <v>0.01489039885467161</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06245078174966862</v>
+        <v>0.3060981288503093</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01329267083270637</v>
+        <v>0.02020348445823089</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1474064839604124</v>
+        <v>0.3075813148731675</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02186937585979273</v>
+        <v>0.04785807755939486</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1462381445930122</v>
+        <v>0.3069486239183936</v>
       </c>
       <c r="N254" t="n">
-        <v>0.03658189753126456</v>
+        <v>0.07561960105194887</v>
       </c>
       <c r="O254" t="n">
-        <v>0.145947262550067</v>
+        <v>0.3069486239183936</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007109446508332729</v>
+        <v>0.01264492675805253</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06237171215290988</v>
+        <v>0.3077176956696231</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01306162250768267</v>
+        <v>0.01996583544902773</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1481864124469754</v>
+        <v>0.3092087292375759</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02092460192045317</v>
+        <v>0.04705747288636838</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1470118913898006</v>
+        <v>0.3085726907116126</v>
       </c>
       <c r="N255" t="n">
-        <v>0.03632828666623111</v>
+        <v>0.07415537528679705</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1467194702884272</v>
+        <v>0.3085726907116126</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006834219967619334</v>
+        <v>0.01239836739774655</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06229264255615113</v>
+        <v>0.3093372624889369</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01302984586675326</v>
+        <v>0.01942668417097847</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1489663409335384</v>
+        <v>0.3108361436019841</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02077374908686341</v>
+        <v>0.04685331296466394</v>
       </c>
       <c r="M256" t="n">
-        <v>0.147785638186589</v>
+        <v>0.3101967575048317</v>
       </c>
       <c r="N256" t="n">
-        <v>0.03708596737084963</v>
+        <v>0.07378553546875294</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1474916780267873</v>
+        <v>0.3101967575048317</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006568457679110996</v>
+        <v>0.01315070712529545</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06221357295939239</v>
+        <v>0.3109568293082507</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01309735187175105</v>
+        <v>0.01908601166429592</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1497462694201015</v>
+        <v>0.3124635579663924</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01991704068334091</v>
+        <v>0.04584555302706819</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1485593849833774</v>
+        <v>0.3118208242980507</v>
       </c>
       <c r="N257" t="n">
-        <v>0.03645527102327278</v>
+        <v>0.07271001090641721</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1482638857651474</v>
+        <v>0.3118208242980507</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006312479634220831</v>
+        <v>0.01390193229224094</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06213450336263364</v>
+        <v>0.3125763961275645</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01286415148450891</v>
+        <v>0.01874379896919298</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1505261979066645</v>
+        <v>0.3140909723308007</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01895470003420338</v>
+        <v>0.0448341483063677</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1493331317801658</v>
+        <v>0.3134448910912697</v>
       </c>
       <c r="N258" t="n">
-        <v>0.03613652900165298</v>
+        <v>0.07102873090839079</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1490360935035076</v>
+        <v>0.3134448910912697</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006066605824362095</v>
+        <v>0.01265202925012482</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0620554337658749</v>
+        <v>0.3141959629468783</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01253025566685972</v>
+        <v>0.01840002712588253</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1513061263932275</v>
+        <v>0.315718386695209</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01908695046376835</v>
+        <v>0.04371905403534926</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1501068785769543</v>
+        <v>0.3150689578844887</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03643007268414278</v>
+        <v>0.06964162478327446</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1498083012418677</v>
+        <v>0.3150689578844887</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005831156240947911</v>
+        <v>0.01240098435048883</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06197636416911616</v>
+        <v>0.3158155297661921</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01249567538063637</v>
+        <v>0.01805467717457743</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1520860548797905</v>
+        <v>0.3173458010596173</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01851401529635344</v>
+        <v>0.04310022544679942</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1508806253737427</v>
+        <v>0.3166930246777077</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03603623344889462</v>
+        <v>0.06804862183966887</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1505805089802279</v>
+        <v>0.3166930246777077</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005606450875391418</v>
+        <v>0.01314878394487474</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0618972945723574</v>
+        <v>0.3174350965855059</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0124604215876717</v>
+        <v>0.01790773015549056</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1528659833663536</v>
+        <v>0.3189732154240256</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01773611785627627</v>
+        <v>0.04237761777350491</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1516543721705311</v>
+        <v>0.3183170914709267</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03555534267406113</v>
+        <v>0.06684965138617499</v>
       </c>
       <c r="O261" t="n">
-        <v>0.151352716718588</v>
+        <v>0.3183170914709267</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005392809719105836</v>
+        <v>0.01089541438482429</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06181822497559866</v>
+        <v>0.3190546634048197</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01232450524979865</v>
+        <v>0.01735916710883481</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1536459118529166</v>
+        <v>0.3206006297884339</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01715348146785445</v>
+        <v>0.04135118624825238</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1524281189673195</v>
+        <v>0.3199411582641457</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03548773173779463</v>
+        <v>0.06584464273139357</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1521249244569482</v>
+        <v>0.3199411582641457</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005190552763504296</v>
+        <v>0.01264086202187923</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06173915537883991</v>
+        <v>0.3206742302241336</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01208793732885009</v>
+        <v>0.01710896907482304</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1544258403394796</v>
+        <v>0.3222280441528422</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01626632945540554</v>
+        <v>0.04062088610382839</v>
       </c>
       <c r="M263" t="n">
-        <v>0.153201865764108</v>
+        <v>0.3215652250573648</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03523373201824781</v>
+        <v>0.06453352518392536</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1528971321953083</v>
+        <v>0.3215652250573648</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01038511320758135</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06166008578208117</v>
+        <v>0.3222937970434473</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01195072878665888</v>
+        <v>0.01675711709366814</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1552057688260426</v>
+        <v>0.3238554585172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01567488514324719</v>
+        <v>0.0398866725730197</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1539756125608964</v>
+        <v>0.3231892918505838</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03509367489357307</v>
+        <v>0.06261622805237127</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1536693399336684</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06164692788734433</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005675334058698057</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06164719641580834</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006346939167411067</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06164746494427235</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007014773190297599</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06164773347273638</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007678793991429109</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06164800200120039</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.00833895943496437</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06164827052966441</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008995227385032958</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06164853905812842</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009647555705792787</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06164880758659245</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01029590226131669</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06164907611505646</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01094022491576271</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06164934464352047</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01158048153326046</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0616496131719845</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01221662997796716</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06164988170044852</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.012848628113957</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06165015022891254</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01347643380538738</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06165041875737655</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.0141000049163879</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06165068728584056</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01471929931111501</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06165095581430459</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01533427485364439</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0616512243427686</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01594488940813271</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06165149287123262</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01655110083870957</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06165176139969663</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01715286700953064</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06165202992816066</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01775014578467316</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06165229845662467</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01834289502829301</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06165256698508868</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01893107260451979</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0616528355135527</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01951463637750839</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06165310404201672</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02009354421133763</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06165337257048074</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02066792602496673</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06165364109894476</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02123877201135013</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06165390962740877</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02180621208944616</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0616541781558728</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02237020412333501</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06165444668433681</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02293070597717108</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06165471521280082</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02348767551508393</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06165498374126484</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02404107060122723</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06165525226972886</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02459084909968234</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06165552079819288</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02513696887460307</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06165578932665689</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02567938779011902</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.0616560578551209</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02621806371038311</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06165632638358493</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02675295449947807</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06165659491204895</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02728401802155705</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06165686344051297</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02781121214074964</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06165713196897698</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.0283344947212081</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06165740049744101</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02885382362701652</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06165766902590502</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02936915672232732</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06165793755436903</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02988045187127016</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06165820608283305</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03038766693799656</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06165847461129707</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03089075978659198</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06165874313976109</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03138968828120822</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.0616590116682251</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03188441028597488</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06165928019668911</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03237488366504276</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06165954872515314</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03286106628249882</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06165981725361715</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03334291600249407</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06166008578208117</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03334291600249407</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06164692788734433</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0338518262972023</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06172653454103111</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03435604633465559</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06180614119471789</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03485545106191567</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06188574784840467</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03534991542604437</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06196535450209145</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03583931437410338</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06204496115577822</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03632352285315459</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.062124567809465</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03680241581025977</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06220417446315178</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03727586819248067</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06228378111683856</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03774375494687906</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06236338777052534</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03820595102051672</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06244299442421213</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03866233136045547</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06252260107789891</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03911277091375704</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06260220773158569</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03955714462748319</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06268181438527246</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03999532744869579</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06276142103895924</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04042719432445661</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06284102769264602</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04085262020182736</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.0629206343463328</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04127148002786987</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06300024100001958</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.0416836487496459</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06307984765370636</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04208900131421723</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06315945430739314</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04248741266864566</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06323906096107992</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.0428787577599929</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06331866761476669</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04326291153532085</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06339827426845347</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04363974894169122</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06347788092214025</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04400914492616582</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06355748757582703</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04437148506863747</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06363709422951382</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04472970811315431</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0637167008832006</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04508419963960923</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06379630753688738</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04543483459506397</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06387591419057416</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04578148792658026</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06395552084426093</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04612403458121999</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06403512749794771</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04646234950604491</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06411473415163449</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04679630764811678</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06419434080532127</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04712578395449741</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06427394745900805</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04745065337224854</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06435355411269483</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04777079084843195</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06443316076638161</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04808607133010945</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.0645127674200684</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04839636976434276</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06459237407375518</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04870156109819376</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06467198072744196</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04900152027872418</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06475158738112874</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.0492961222529958</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06483119403481552</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0495852419680704</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0649108006885023</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04986875437100975</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06499040734218908</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05014653440887564</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06507001399587586</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05041845702872989</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06514962064956265</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05068439717763421</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06522922730324943</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05094422980265039</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06530883395693619</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05119782985084027</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06538844061062297</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05144507226926558</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06546804726430976</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05168583200498813</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06554765391799654</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04679055466999208</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06554765391799654</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05190490665495303</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06735429468207048</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05210736919378151</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06916093544614445</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05229387461764096</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07096757621021839</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05246507792269874</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07277421697429236</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05262163410512228</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07458085773836631</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05276419816107892</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07638749850244027</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05289342508673604</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07819413926651422</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05300996987826103</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08000078003058816</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05311448753182128</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08180742079466213</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05320763304358416</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08361406155873607</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05329006140971706</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08542070232281004</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05336242762638736</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.087227343086884</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05342538668976243</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08903398385095794</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05347959359600966</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09084062461503191</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05352570334129645</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09264726537910585</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05356437092179014</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09445390614317982</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05359625133365816</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09626054690725376</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05362199957306784</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09806718767132772</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.0536422706361866</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09987382843540167</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05365771951918184</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1016804691994756</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05366900121822086</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1034871099635496</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05367677072947111</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1052937507276235</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05368168304909996</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1071003914916975</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.0536843931732748</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1089070322557715</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05368555609816298</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1107136730198454</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.0536858268199319</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1125203137839194</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05366241464166412</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1143269545479933</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05353551892274564</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1161335953120673</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05330653884851592</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1179402360761412</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05298461707444104</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1197468768402152</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05257889625598711</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1215535176042891</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05209851904862026</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1233601583683631</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05155262810780658</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.125166799132437</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05095036608901215</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.126973439896511</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.0503008756477031</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.128780080660585</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.0496132994393455</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1305867214246589</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04889678011940548</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1323933621887328</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04816046034334914</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1342000029528068</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04741348276664255</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1360066437168808</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04666499004475185</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1378132844809547</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.0459241248331431</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1396199252450287</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04520002978728244</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1414265660091026</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04450184756263596</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1432332067731766</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04383872081466975</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1450398475372505</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04321979219884992</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1468464883013245</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04265420437064258</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1486531290653985</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04215109998551381</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04171962169892974</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1522664105935464</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04136891216635644</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1540730513576203</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04110811404326003</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1558796921216943</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04091029783408378</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1576863328857682</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04072686708578948</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1594929736498422</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04055641449727045</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1612996144139162</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.0403979135862465</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1631062551779901</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04025033787043732</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.164912895942064</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.0401126608675627</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.166719536706138</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03998385609534239</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.168526177470212</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03986289707149614</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1703328182342859</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.0397487573137437</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1721394589983599</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03964041033980484</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1739460997624338</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.0395368296673993</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1757527405265077</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03943698881424686</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1775593812905817</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03933986129806723</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1793660220546557</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03924442063658021</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1811726628187297</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03914964034750552</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1829793035828036</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03905449394856295</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1847859443468776</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03895795495747222</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1865925851109515</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03885899689195312</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1883992258750254</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03875659326972535</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1902058666390994</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03864971760850874</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1920125074031734</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03853734342602299</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1938191481672473</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03841844423998787</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1956257889313213</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03829199356812314</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1974324296953952</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03815696492814852</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1992390704594692</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03801233183778383</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2010457112235431</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03785716037977766</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2028523519876171</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03769419482479427</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2046589927516911</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03752523910474604</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.206465633515765</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03735044970813963</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2082722742798389</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03716998312348167</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2100789150439129</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03698399583927881</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2118855558079868</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03679264434403774</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2136921965720608</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03659608512626509</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2154988373361348</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.0363944746744675</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2173054781002088</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03618796947715163</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2191121188642827</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03597672602282418</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2209187596283566</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03576090079999172</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2227254003924306</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03554065029716096</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2245320411565045</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03531613100283854</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2263386819205785</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.0350874994055311</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2281453226846525</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.0348549119937453</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2299519634487264</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.0346185252559878</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2317586042128004</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03437849568076527</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2335652449768743</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03413497975658431</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2353718857409483</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03388813397195162</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2371785265050222</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03363811481537384</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2389851672690962</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03338507877535762</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2407918080331701</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03312918234040959</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2425984487972441</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03287058199903645</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.244405089561318</v>
-      </c>
-    </row>
+        <v>0.3231892918505838</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1165.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004515952184028463</v>
+        <v>0.001724632131024306</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001619566819313806</v>
+        <v>0.0005797382679413826</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004503601487896067</v>
+        <v>0.002431798858189366</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001627414364408294</v>
+        <v>0.0008383270787041389</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01778100302718397</v>
+        <v>0.006336490645034248</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002193539169742417</v>
+        <v>0.000831209504935608</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0263587325743927</v>
+        <v>0.01231213929310471</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001951034335182363</v>
+        <v>0.0008220730852714621</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.003353935884376665</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002477196175398959</v>
+        <v>0.001159476535882765</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004704271513503382</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.002997749999999997</v>
+        <v>0.001676654157408278</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02235993853906193</v>
+        <v>0.01214029977427694</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003248133586438028</v>
+        <v>0.001662419009871216</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03492187114965961</v>
+        <v>0.02461794028119563</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003248133586438028</v>
+        <v>0.001644146170542924</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008115250218921184</v>
+        <v>0.004792582882385162</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004858700457941417</v>
+        <v>0.001739214803824148</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01034335394495142</v>
+        <v>0.006526437235228125</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004882243093224881</v>
+        <v>0.002514981236112417</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02739173378583368</v>
+        <v>0.01451510451198693</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004872200379657042</v>
+        <v>0.002102060606319265</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04406225334571051</v>
+        <v>0.03208889182969549</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004872200379657042</v>
+        <v>0.002331987284423506</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008498549406818129</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006478267277255223</v>
+        <v>0.002477196175398959</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01261694184878238</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006509657457633176</v>
+        <v>0.002997749999999997</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03213261882926391</v>
+        <v>0.01936737311130568</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006496267172876055</v>
+        <v>0.003324838019742432</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04996621919384736</v>
+        <v>0.038214093813561</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006496267172876055</v>
+        <v>0.003288292341085848</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.006820398200376276</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007431588526196876</v>
+        <v>0.002898691339706913</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01439233056254309</v>
+        <v>0.00895126876329682</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008137071822041469</v>
+        <v>0.004191635393520694</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0362877612799673</v>
+        <v>0.02275587856222569</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008327083333333329</v>
+        <v>0.00415604752467804</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05730159255302764</v>
+        <v>0.04361458772269322</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008327083333333329</v>
+        <v>0.00411036542635731</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01157381063331892</v>
+        <v>0.007638665012577588</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009717400915882834</v>
+        <v>0.003478429607648296</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.01001550404566805</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.008993249999999991</v>
+        <v>0.005029962472224835</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03868672361256775</v>
+        <v>0.02573218568729957</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009744400759314084</v>
+        <v>0.004987257029613648</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06094214043076834</v>
+        <v>0.04836498052261623</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009744400759314084</v>
+        <v>0.004932438511628772</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0135157968391846</v>
+        <v>0.008402044527966182</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01133696773519664</v>
+        <v>0.004058167875589679</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01725793099054052</v>
+        <v>0.01126909147747088</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01139190055085806</v>
+        <v>0.005868289550928973</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04147032369179626</v>
+        <v>0.0280411207031768</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0113684675525331</v>
+        <v>0.005818466534549257</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06562811725965628</v>
+        <v>0.0514522373348017</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0113684675525331</v>
+        <v>0.005754511596900234</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01440409120558976</v>
+        <v>0.009098944580017143</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01295653455451045</v>
+        <v>0.004637906143531061</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01822884358509611</v>
+        <v>0.01193470319739739</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01301931491526635</v>
+        <v>0.006706616629633112</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04481279037210106</v>
+        <v>0.03022750982650696</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01299253434575211</v>
+        <v>0.006649676039484864</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0703846233121328</v>
+        <v>0.05730159255302764</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01299253434575211</v>
+        <v>0.006940438346498529</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01423724747767566</v>
+        <v>0.009717773002205547</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01457610137382425</v>
+        <v>0.005217644411472443</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01953486734857643</v>
+        <v>0.01283501134413967</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01464672927967465</v>
+        <v>0.007544943708337251</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04790465168474528</v>
+        <v>0.03253617927393948</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01461660113897112</v>
+        <v>0.007480885544420472</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07559767904099346</v>
+        <v>0.05889936145771452</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01461660113897112</v>
+        <v>0.007398657767443159</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01401381940058351</v>
+        <v>0.01024693762800645</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01619566819313806</v>
+        <v>0.005797382679413826</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02057244855049559</v>
+        <v>0.01339268805638982</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01627414364408294</v>
+        <v>0.008383270787041389</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05013643566099221</v>
+        <v>0.03471195526212392</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01624066793219014</v>
+        <v>0.00831209504935608</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07875330489903376</v>
+        <v>0.06123513697952587</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01624066793219014</v>
+        <v>0.00822073085271462</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0157323607194546</v>
+        <v>0.01067484629089496</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01781523501245186</v>
+        <v>0.006377120947355208</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02183803346036761</v>
+        <v>0.01423040547283994</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01790155800849123</v>
+        <v>0.009221597865745529</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05249867033210515</v>
+        <v>0.0362877612799673</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01786473472540915</v>
+        <v>0.008758585859663605</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08323752133904921</v>
+        <v>0.06457454403127888</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01786473472540915</v>
+        <v>0.009042803937986081</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01639142517943015</v>
+        <v>0.01098990682434613</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01943480183176567</v>
+        <v>0.006956859215296591</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02282806834770658</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01952897237289953</v>
+        <v>0.01017498303960121</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05528188372934731</v>
+        <v>0.03891307051579812</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01948880151862817</v>
+        <v>0.009974514059227297</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08733634881383534</v>
+        <v>0.06770606946500768</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01948880151862817</v>
+        <v>0.009864877023257545</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0179895665256514</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02105436865107948</v>
+        <v>0.007431588526196876</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02363899948202652</v>
+        <v>0.0156326177697613</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02115638673730782</v>
+        <v>0.01089825202315381</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05717660388398188</v>
+        <v>0.04053191582044663</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02111286831184718</v>
+        <v>0.01080572356416291</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09003580777618758</v>
+        <v>0.07171820013274594</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02111286831184718</v>
+        <v>0.01068695010852901</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01652533850325959</v>
+        <v>0.0113300452822549</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02267393547039328</v>
+        <v>0.008116335751179357</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02436727313284152</v>
+        <v>0.01651605545722948</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02278380110171611</v>
+        <v>0.01173657910185795</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05907335882727216</v>
+        <v>0.04285672704631333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0227369351050662</v>
+        <v>0.01163693306909851</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09362191867890152</v>
+        <v>0.07429942288652802</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0227369351050662</v>
+        <v>0.01150902319380047</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01699729485739599</v>
+        <v>0.01147500413403456</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02429350228970709</v>
+        <v>0.008696074019120738</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02510933556966564</v>
+        <v>0.01721671354258714</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02441121546612441</v>
+        <v>0.01257490618056208</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06096267659048138</v>
+        <v>0.04457923422810545</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02436100189828521</v>
+        <v>0.01246814257403412</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09548070197477265</v>
+        <v>0.07783822457838763</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02436100189828521</v>
+        <v>0.01233109627907193</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01740398933320183</v>
+        <v>0.01161758846081389</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02591306910902089</v>
+        <v>0.009275812287062122</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02596163306201288</v>
+        <v>0.0180301737913329</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0260386298305327</v>
+        <v>0.01341323325926622</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06203508520487275</v>
+        <v>0.04659116740053032</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02598506869150422</v>
+        <v>0.01329935207896973</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09759817811659643</v>
+        <v>0.08052309206035896</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02598506869150422</v>
+        <v>0.01315316936434339</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01874397567581835</v>
+        <v>0.01175781404806388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0275326359283347</v>
+        <v>0.009855550555003504</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02632061187939738</v>
+        <v>0.01905201796896554</v>
       </c>
       <c r="K82" t="n">
-        <v>0.027666044194941</v>
+        <v>0.01425156033797036</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06298111270170959</v>
+        <v>0.04908425659829513</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02760913548472324</v>
+        <v>0.01413056158390534</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09956036755716846</v>
+        <v>0.08364251218447588</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02760913548472324</v>
+        <v>0.01397524244961486</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01902152839184508</v>
+        <v>0.01189569668125554</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0291522027476485</v>
+        <v>0.01043528882294489</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02698271829133313</v>
+        <v>0.01967782784098376</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02929345855934929</v>
+        <v>0.0150898874166745</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06419128711225505</v>
+        <v>0.05115023185610712</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02923320227794225</v>
+        <v>0.01496177108884094</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1013532907492842</v>
+        <v>0.08628497180277261</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02923320227794225</v>
+        <v>0.01479731553488632</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02028215219172518</v>
+        <v>0.01203125214585985</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03077176956696231</v>
+        <v>0.01101502709088627</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02735869266497407</v>
+        <v>0.02070318517288627</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03092087292375758</v>
+        <v>0.01592821449537864</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06535339059109932</v>
+        <v>0.0525808232086736</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03085726907116126</v>
+        <v>0.01579298059377655</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1032146161026563</v>
+        <v>0.09003895776728288</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03085726907116126</v>
+        <v>0.01561938862015778</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0205345943050892</v>
+        <v>0.0121644962273478</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03239133638627612</v>
+        <v>0.01159476535882765</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02751592033215608</v>
+        <v>0.02162367173017185</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03254828728816588</v>
+        <v>0.01676654157408278</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0658908215724682</v>
+        <v>0.05506776069070177</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03248133586438028</v>
+        <v>0.01662419009871216</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1046369938739234</v>
+        <v>0.09229295693004086</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03248133586438028</v>
+        <v>0.01644146170542924</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01877716464312298</v>
+        <v>0.01229544471119041</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03401090320558992</v>
+        <v>0.01217450362676903</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02816152723419724</v>
+        <v>0.02243486927833913</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03417570165257417</v>
+        <v>0.01760486865278692</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06669871209849654</v>
+        <v>0.05690277433689894</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03410540265759929</v>
+        <v>0.01745539960364777</v>
       </c>
       <c r="N86" t="n">
-        <v>0.105512724646973</v>
+        <v>0.09513545614308044</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03410540265759929</v>
+        <v>0.0172635347907007</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02100817311701236</v>
+        <v>0.01242411338285863</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03563047002490373</v>
+        <v>0.01275424189471042</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02819316558033851</v>
+        <v>0.02303235958288691</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03580311601698247</v>
+        <v>0.01844319573149106</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06797151864440207</v>
+        <v>0.05867759418197235</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03572946945081831</v>
+        <v>0.01828660910858338</v>
       </c>
       <c r="N87" t="n">
-        <v>0.106333054704651</v>
+        <v>0.09725494225843567</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03572946945081831</v>
+        <v>0.01808560787597216</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02022592963794318</v>
+        <v>0.01255051802782348</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03725003684421754</v>
+        <v>0.0133339801626518</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02850848757982077</v>
+        <v>0.02391172440931387</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03743053038139076</v>
+        <v>0.01928152281019519</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06840369768540236</v>
+        <v>0.06018395026062925</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03735353624403732</v>
+        <v>0.01911781861351899</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1079892303298039</v>
+        <v>0.09943990212814069</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03735353624403732</v>
+        <v>0.01890768096124363</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02042874411710126</v>
+        <v>0.01267467443155593</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03886960366353134</v>
+        <v>0.01391371843059318</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02910514544188499</v>
+        <v>0.02476854552311873</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03905794474579905</v>
+        <v>0.02011984988889934</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06898970569671498</v>
+        <v>0.06191357260757691</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03897760303725634</v>
+        <v>0.01994902811845459</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1085724978052777</v>
+        <v>0.1020788226042293</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03897760303725634</v>
+        <v>0.01972975404651509</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02061492646567243</v>
+        <v>0.012796598379527</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04048917048284515</v>
+        <v>0.01449345669853457</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02928079137577207</v>
+        <v>0.02539840468980023</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04068535911020734</v>
+        <v>0.02095817696760348</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06992399915355765</v>
+        <v>0.06305819125752252</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04060166983047535</v>
+        <v>0.0207802376233902</v>
       </c>
       <c r="N90" t="n">
-        <v>0.110374103413919</v>
+        <v>0.1047601905387355</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04060166983047535</v>
+        <v>0.02055182713178655</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02078278659484254</v>
+        <v>0.01291630565720766</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04210873730215895</v>
+        <v>0.01507319496647595</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02953307759072295</v>
+        <v>0.02599688367485707</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04231277347461564</v>
+        <v>0.02179650404630761</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07050103453114787</v>
+        <v>0.06450953624517344</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04222573662369436</v>
+        <v>0.02161144712832581</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1114852934385738</v>
+        <v>0.1057724927836936</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04222573662369436</v>
+        <v>0.02137390021705801</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02193063441579742</v>
+        <v>0.01303381205006891</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04372830412147276</v>
+        <v>0.01565293323441733</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02975965629597854</v>
+        <v>0.026559564243788</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04394018783902393</v>
+        <v>0.02263483112501175</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07111526830470338</v>
+        <v>0.06615933760523685</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04384980341691338</v>
+        <v>0.02244265663326142</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1120973141620883</v>
+        <v>0.1084042161911372</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04384980341691338</v>
+        <v>0.02219597330232947</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02005677983972291</v>
+        <v>0.01314913334358174</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04534787094078657</v>
+        <v>0.01623267150235871</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0297581797007798</v>
+        <v>0.02738202816209169</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04556760220343223</v>
+        <v>0.02347315820371589</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0708611569494417</v>
+        <v>0.06729932537242006</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04547387021013239</v>
+        <v>0.02327386613819703</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1127014118673089</v>
+        <v>0.1089438476131004</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04547387021013239</v>
+        <v>0.02301804638760094</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02215953277780484</v>
+        <v>0.01326228532321715</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04696743776010037</v>
+        <v>0.01681240977030009</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03002630001436761</v>
+        <v>0.02795985719526692</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04719501656784052</v>
+        <v>0.02431148528242003</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07163315694058053</v>
+        <v>0.06812122958143027</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0470979370033514</v>
+        <v>0.02410507564313263</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1125888328370818</v>
+        <v>0.1106798739016174</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0470979370033514</v>
+        <v>0.0238401194728724</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02223720314122902</v>
+        <v>0.01337328377444611</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04858700457941417</v>
+        <v>0.01739214803824148</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03036166944598295</v>
+        <v>0.02848863310881236</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04882243093224882</v>
+        <v>0.02514981236112417</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07202572475333743</v>
+        <v>0.06941678026697476</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04872200379657041</v>
+        <v>0.02493628514806824</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1134508233542533</v>
+        <v>0.112500781908722</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04872200379657041</v>
+        <v>0.02466219255814386</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02231149920299288</v>
+        <v>0.01348214448273964</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05020657139872799</v>
+        <v>0.01797188630618286</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03026194020486668</v>
+        <v>0.02896393766822679</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05044984529665711</v>
+        <v>0.02598813943982831</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0723333168629301</v>
+        <v>0.06997770746376081</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05034607058978943</v>
+        <v>0.02576749465300385</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1136786297016696</v>
+        <v>0.1130950584864484</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05034607058978943</v>
+        <v>0.02548426564341532</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02231053578884758</v>
+        <v>0.01358888323356871</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05182613821804179</v>
+        <v>0.01855162457412424</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03054786001381399</v>
+        <v>0.02928135263900887</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0520772596610654</v>
+        <v>0.02682646651853245</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07257552255993463</v>
+        <v>0.07109574120649564</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05197013738300844</v>
+        <v>0.02659870415793946</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1146031851060553</v>
+        <v>0.1138511904868304</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05197013738300844</v>
+        <v>0.02630633872868679</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02230736431140787</v>
+        <v>0.01369351581240432</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05344570503735559</v>
+        <v>0.01913136284206562</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03054779454140316</v>
+        <v>0.02963645978665735</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0537046740254737</v>
+        <v>0.02766479359723659</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07187352396701438</v>
+        <v>0.07136261152988652</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05359420417622746</v>
+        <v>0.02742991366287507</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1140000291506269</v>
+        <v>0.113757664761902</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05359420417622746</v>
+        <v>0.02712841181395825</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02028938548983655</v>
+        <v>0.01379605800471746</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0550652718566694</v>
+        <v>0.01971110111000701</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03023879567054194</v>
+        <v>0.02992484087667097</v>
       </c>
       <c r="K99" t="n">
-        <v>0.055332088389882</v>
+        <v>0.02850312067594072</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07223599951948223</v>
+        <v>0.07227004846864069</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05521827096944647</v>
+        <v>0.02826112316781067</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1137407747208296</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05521827096944647</v>
+        <v>0.02795048489922971</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02025797669966001</v>
+        <v>0.01389652559597913</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0566848386759832</v>
+        <v>0.02029083937794839</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03051021268197911</v>
+        <v>0.0300420776745484</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05695950275429029</v>
+        <v>0.02934144775464486</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07225321085989364</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05684233776266549</v>
+        <v>0.02909233267274628</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1137100440867969</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05684233776266549</v>
+        <v>0.02877255798450117</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02121402866642282</v>
+        <v>0.01399493437166032</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05830440549529701</v>
+        <v>0.02087057764588977</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03016331624269437</v>
+        <v>0.03028375194578839</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05858691711869858</v>
+        <v>0.030179774833349</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07232807958567528</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0584664045558845</v>
+        <v>0.02992354217768189</v>
       </c>
       <c r="N101" t="n">
-        <v>0.113712450709912</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0584664045558845</v>
+        <v>0.02959463106977264</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02115843211566949</v>
+        <v>0.01409130011723201</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05992397231461082</v>
+        <v>0.02145031591383115</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03019934370612432</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06021433148310687</v>
+        <v>0.03101810191205314</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07176352729425384</v>
+        <v>0.07187552255993462</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06009047134910352</v>
+        <v>0.0307547516826175</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1138526080515581</v>
+        <v>0.1136031851060553</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06009047134910352</v>
+        <v>0.03041670415504409</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02209207777294452</v>
+        <v>0.0141856386181652</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06154353913392462</v>
+        <v>0.02203005418177254</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03031953242570548</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06184174584751517</v>
+        <v>0.03185642899075728</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07176247558305604</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06171453814232253</v>
+        <v>0.03158596118755311</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1134351295731185</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06171453814232253</v>
+        <v>0.03123877724031556</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02201585636379245</v>
+        <v>0.01427796565993088</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06316310595323843</v>
+        <v>0.02260979244971392</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02992511975487445</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06346916021192346</v>
+        <v>0.03269475606946142</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07142784604950864</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06333860493554154</v>
+        <v>0.03241717069248871</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1125646287359763</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06333860493554154</v>
+        <v>0.03206085032558702</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02093065861375782</v>
+        <v>0.01436829702800006</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06478267277255223</v>
+        <v>0.0231895307176553</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03011734304706777</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06509657457633175</v>
+        <v>0.03353308314816555</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07146256029103823</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06496267172876055</v>
+        <v>0.03324838019742432</v>
       </c>
       <c r="N105" t="n">
-        <v>0.112645719001515</v>
+        <v>0.1137031851060553</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06496267172876055</v>
+        <v>0.03288292341085848</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01983737524838513</v>
+        <v>0.0144566485078437</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06640223959186604</v>
+        <v>0.02376926898559669</v>
       </c>
       <c r="J106" t="n">
-        <v>0.029797439655722</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06672398894074004</v>
+        <v>0.03437141022686969</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07066953990507163</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06658673852197956</v>
+        <v>0.03407958970235993</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1119830138311174</v>
+        <v>0.1137031851060553</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06658673852197956</v>
+        <v>0.03370499649612994</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01973689699321893</v>
+        <v>0.0145430358849328</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06802180641117984</v>
+        <v>0.02434900725353807</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02986664693427372</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06835140330514834</v>
+        <v>0.03520973730557384</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07085170648903547</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06821080531519859</v>
+        <v>0.03491079920729554</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1114811266861672</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06821080531519859</v>
+        <v>0.03452706958140141</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02063011457380371</v>
+        <v>0.01462747494473837</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06964137323049364</v>
+        <v>0.02492874552147945</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0297262022361595</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06997881766955664</v>
+        <v>0.03604806438427798</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07031198164035646</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0698348721084176</v>
+        <v>0.03574200871223115</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1102446710280472</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0698348721084176</v>
+        <v>0.03534914266667286</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02151791871568403</v>
+        <v>0.01470998147273139</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07126094004980746</v>
+        <v>0.02550848378942083</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02937734291481588</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07160623203396493</v>
+        <v>0.03688639146298212</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07005328695646137</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07145893890163661</v>
+        <v>0.03657321821716676</v>
       </c>
       <c r="N109" t="n">
-        <v>0.109878260318141</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07145893890163661</v>
+        <v>0.03617121575194433</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02040120014440439</v>
+        <v>0.01479057125438285</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07288050686912127</v>
+        <v>0.02608822205736222</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02912130632367944</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07323364639837322</v>
+        <v>0.03772471854168626</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06917854403477683</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07308300569485562</v>
+        <v>0.03740442772210237</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1101865080178316</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07308300569485562</v>
+        <v>0.0369932888372158</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01928084958550932</v>
+        <v>0.01486926007516375</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07450007368843507</v>
+        <v>0.0266679603253036</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02925932981618673</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07486106076278151</v>
+        <v>0.03856304562039039</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0692906744727296</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07470707248807464</v>
+        <v>0.03823563722703797</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1087740275885023</v>
+        <v>0.1139031851060553</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07470707248807464</v>
+        <v>0.03781536192248726</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01915775776454335</v>
+        <v>0.01494606372054507</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07611964050774887</v>
+        <v>0.02724769859324498</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02879265074577433</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07648847512718981</v>
+        <v>0.03940137269909453</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06879259986774633</v>
+        <v>0.07187552255993462</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07633113928129365</v>
+        <v>0.03906684673197358</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1089454324915364</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07633113928129365</v>
+        <v>0.03863743500775872</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.020032815407051</v>
+        <v>0.01502099797599782</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07773920732706267</v>
+        <v>0.02782743686118637</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02892250646587878</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0781158894915981</v>
+        <v>0.04023969977779868</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06828724181725379</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07795520607451267</v>
+        <v>0.03989805623690919</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1073053361883171</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07795520607451267</v>
+        <v>0.03945950809303018</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01890691323857679</v>
+        <v>0.01509407862699296</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07935877414637649</v>
+        <v>0.02840717512912774</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02875013432993667</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07974330385600639</v>
+        <v>0.04107802685650281</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06817752191867865</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07957927286773168</v>
+        <v>0.04072926574184479</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1065583521402275</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07957927286773168</v>
+        <v>0.04028158117830164</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01978094198466526</v>
+        <v>0.01516532145900152</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0809783409656903</v>
+        <v>0.02898691339706913</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02847677169138454</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08137071822041468</v>
+        <v>0.04191635393520695</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0673663617694476</v>
+        <v>0.07187552255993462</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0812033396609507</v>
+        <v>0.0415604752467804</v>
       </c>
       <c r="N115" t="n">
-        <v>0.106209093808651</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0812033396609507</v>
+        <v>0.0411036542635731</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02065579237086092</v>
+        <v>0.01523474225749447</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0825979077850041</v>
+        <v>0.02956665166501051</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02810365590365897</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08299813258482298</v>
+        <v>0.04275468101391109</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06675668296698739</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08282740645416971</v>
+        <v>0.04239168475171601</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1058621746549707</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08282740645416971</v>
+        <v>0.04192572734884457</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01953120567871505</v>
+        <v>0.01530235680794281</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0842174746043179</v>
+        <v>0.03014638993295189</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02793202432019654</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08462554694923129</v>
+        <v>0.04359300809261522</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06635140710872472</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08445147324738872</v>
+        <v>0.04322289425665162</v>
       </c>
       <c r="N117" t="n">
-        <v>0.10502220814057</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08445147324738872</v>
+        <v>0.04274780043411602</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01839222888544497</v>
+        <v>0.01536818089581751</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0858370414236317</v>
+        <v>0.03072612820089328</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02805733883107367</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08625296131363958</v>
+        <v>0.04443133517131936</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06612304691104001</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08607554004060773</v>
+        <v>0.04405410376158723</v>
       </c>
       <c r="N118" t="n">
-        <v>0.103945789407425</v>
+        <v>0.1141031851060553</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08607554004060773</v>
+        <v>0.04356987351938749</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01923625434995079</v>
+        <v>0.0154322303065896</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08745660824294552</v>
+        <v>0.03130586646883466</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0275588244355404</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08788037567804786</v>
+        <v>0.0452696622500235</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06543555543373838</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08769960683382676</v>
+        <v>0.04488531326652284</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1040759971408287</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08769960683382676</v>
+        <v>0.04439194660465895</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02006618416252963</v>
+        <v>0.01549452082573004</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08907617506225933</v>
+        <v>0.03188560473677604</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02753800465292794</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08950779004245617</v>
+        <v>0.04610798932872764</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06499813366039459</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08932367362704577</v>
+        <v>0.04571652277145845</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1030273605096604</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08932367362704577</v>
+        <v>0.04521401968993041</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01988492041347864</v>
+        <v>0.01555506823870985</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09069574188157313</v>
+        <v>0.03246534300471743</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02719891092863992</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09113520440686446</v>
+        <v>0.04694631640743178</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06462030050465867</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09094774042026478</v>
+        <v>0.04654773227639405</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1023149107225778</v>
+        <v>0.1141031851060553</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09094774042026478</v>
+        <v>0.04603609277520188</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01969536519309496</v>
+        <v>0.01561388833099998</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09231530870088693</v>
+        <v>0.03304508127265881</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02684557470808002</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09276261877127275</v>
+        <v>0.04778464348613592</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06411157488018063</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09257180721348379</v>
+        <v>0.04737894178132966</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1006536789882387</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09257180721348379</v>
+        <v>0.04685816586047333</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01850042059167571</v>
+        <v>0.01567099688807147</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09393487552020074</v>
+        <v>0.03362481954060019</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02658202743665186</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09439003313568103</v>
+        <v>0.04862297056484006</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06328147570061055</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0941958740067028</v>
+        <v>0.04821015128626527</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09965869651530074</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0941958740067028</v>
+        <v>0.0476802389457448</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01930298869951805</v>
+        <v>0.01572640969539528</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09555444233951454</v>
+        <v>0.03420455780854157</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02631230055975906</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09601744750008934</v>
+        <v>0.0494612976435442</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06293952187959839</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09581994079992182</v>
+        <v>0.04904136079120087</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0986449945124217</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09581994079992182</v>
+        <v>0.04850231203101626</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01910597160691909</v>
+        <v>0.01578014253844241</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09717400915882835</v>
+        <v>0.03478429607648295</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0263404255228053</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09764486186449764</v>
+        <v>0.05029962472224834</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06179523233079412</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09744400759314083</v>
+        <v>0.04987257029613649</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0979276041882593</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09744400759314083</v>
+        <v>0.04932438511628773</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.018912271404176</v>
+        <v>0.01583221120268385</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09879357597814216</v>
+        <v>0.03536403434442434</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02587043377119422</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09927227622890593</v>
+        <v>0.05113795180095248</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0612581259678478</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09906807438635985</v>
+        <v>0.05070377980107209</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09652155675147112</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09906807438635985</v>
+        <v>0.05014645820155918</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0187247901815859</v>
+        <v>0.01588263147359061</v>
       </c>
       <c r="G127" t="n">
-        <v>0.100413142797456</v>
+        <v>0.03594377261236572</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02570635675032945</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1008996905933142</v>
+        <v>0.05197627887965662</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06103772170440944</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1006921411795789</v>
+        <v>0.0515349893060077</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09574188341071499</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1006921411795789</v>
+        <v>0.05096853128683065</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01654613577793731</v>
+        <v>0.01593141913663365</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1020327096167698</v>
+        <v>0.0365235108803071</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02555222590561466</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1025271049577225</v>
+        <v>0.05281460595836075</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06054353845412905</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1023162079727979</v>
+        <v>0.05236619881094331</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09450361537464869</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1023162079727979</v>
+        <v>0.05179060437210211</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01735954733045686</v>
+        <v>0.01597858997728398</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1036522764360836</v>
+        <v>0.03710324914824849</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02510698094433071</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1041545193221308</v>
+        <v>0.05365293303706489</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05945499207480168</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1039402747660169</v>
+        <v>0.05319740831587891</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09397424845761609</v>
+        <v>0.1138031851060552</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1039402747660169</v>
+        <v>0.05261267745737357</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01615693071148777</v>
+        <v>0.0160241597810126</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1052718432553974</v>
+        <v>0.03768298741618987</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0247419483999519</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1057819336865391</v>
+        <v>0.05449126011576904</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05921203883912787</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1055643415592359</v>
+        <v>0.05402861782081453</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09325896829037217</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1055643415592359</v>
+        <v>0.05343475054264504</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01594244026414057</v>
+        <v>0.01606814433329049</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1068914100747112</v>
+        <v>0.03826272568413125</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02475677183520675</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1074093480509474</v>
+        <v>0.05532958719447317</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05862518783222725</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1071884083524549</v>
+        <v>0.05485982732575014</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09197436965011985</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1071884083524549</v>
+        <v>0.0542568236279165</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0177202303315258</v>
+        <v>0.01611055941958865</v>
       </c>
       <c r="G132" t="n">
-        <v>0.108510976894025</v>
+        <v>0.03884246395207264</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02415722226537166</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1090367624153557</v>
+        <v>0.05616791427317731</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0579080653817784</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1088124751456739</v>
+        <v>0.05569103683068575</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09074196971645587</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1088124751456739</v>
+        <v>0.05507889671318796</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01549445525675396</v>
+        <v>0.01615142082537806</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1101305437133388</v>
+        <v>0.03942220222001402</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02414907070572292</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K133" t="n">
-        <v>0.110664176779764</v>
+        <v>0.05700624135188145</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05657429781545995</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1104365419388929</v>
+        <v>0.05652224633562135</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08928328566897731</v>
+        <v>0.1138031851060552</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1104365419388929</v>
+        <v>0.05590096979845943</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01526926938293558</v>
+        <v>0.01619074433612972</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1117501105326526</v>
+        <v>0.0400019404879554</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0236380881715369</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1122915911441723</v>
+        <v>0.05784456843058559</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05613751146095036</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1120606087321119</v>
+        <v>0.05735345584055696</v>
       </c>
       <c r="N134" t="n">
-        <v>0.088319834687281</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1120606087321119</v>
+        <v>0.05672304288373088</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01604882705318119</v>
+        <v>0.01622854573731462</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1133696773519664</v>
+        <v>0.04058167875589678</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0233300456780899</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1139190055085806</v>
+        <v>0.05868289550928972</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05521133264592826</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M135" t="n">
-        <v>0.113684675525331</v>
+        <v>0.05818466534549256</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08747313395096395</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O135" t="n">
-        <v>0.113684675525331</v>
+        <v>0.05754511596900234</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01683728261060131</v>
+        <v>0.01626484081440374</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1149892441712802</v>
+        <v>0.04116141702383816</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02313071424065828</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1155464198729889</v>
+        <v>0.05952122258799387</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05490938769807224</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M136" t="n">
-        <v>0.11530874231855</v>
+        <v>0.05901587485042818</v>
       </c>
       <c r="N136" t="n">
-        <v>0.086164700639623</v>
+        <v>0.1141031851060553</v>
       </c>
       <c r="O136" t="n">
-        <v>0.11530874231855</v>
+        <v>0.0583671890542738</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01663879039830646</v>
+        <v>0.0162996453528681</v>
       </c>
       <c r="G137" t="n">
-        <v>0.116608810990594</v>
+        <v>0.04174115529177955</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02264586487451839</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1171738342373972</v>
+        <v>0.06035954966669801</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05364530294506076</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M137" t="n">
-        <v>0.116932809111769</v>
+        <v>0.05984708435536377</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08481605193285519</v>
+        <v>0.1139031851060553</v>
       </c>
       <c r="O137" t="n">
-        <v>0.116932809111769</v>
+        <v>0.05918926213954527</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01545750475940717</v>
+        <v>0.01633297513817866</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1182283778099078</v>
+        <v>0.04232089355972093</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0226812685949465</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1188012486018054</v>
+        <v>0.06119787674540214</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05363270471457257</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M138" t="n">
-        <v>0.118556875904988</v>
+        <v>0.06067829386029939</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0845487050102573</v>
+        <v>0.1141031851060553</v>
       </c>
       <c r="O138" t="n">
-        <v>0.118556875904988</v>
+        <v>0.06001133522481673</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01429758003701397</v>
+        <v>0.01636484595580644</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1198479446292216</v>
+        <v>0.04290063182766231</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02244269641721901</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1204286629662137</v>
+        <v>0.06203620382410629</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05308521933428609</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M139" t="n">
-        <v>0.120180942698207</v>
+        <v>0.061509503365235</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08308417705142629</v>
+        <v>0.1137031851060553</v>
       </c>
       <c r="O139" t="n">
-        <v>0.120180942698207</v>
+        <v>0.06083340831008819</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01416317057423735</v>
+        <v>0.01639527359122242</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1214675114485354</v>
+        <v>0.0434803700956037</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0221359193566122</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K140" t="n">
-        <v>0.122056077330622</v>
+        <v>0.06287453090281042</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05261647313187989</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1218050094914261</v>
+        <v>0.0623407128701706</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08214398523595917</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1218050094914261</v>
+        <v>0.06165548139535965</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01505843071418789</v>
+        <v>0.01642427382989759</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1230870782678492</v>
+        <v>0.04406010836354508</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02196670842840245</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1236834916950303</v>
+        <v>0.06371285798151456</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05234009243503263</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1234290762846451</v>
+        <v>0.06317192237510622</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08214964674345282</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1234290762846451</v>
+        <v>0.06247755448063112</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01598751479997607</v>
+        <v>0.01645186245730294</v>
       </c>
       <c r="G142" t="n">
-        <v>0.124706645087163</v>
+        <v>0.04463984663148646</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02194083464786607</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1253109060594386</v>
+        <v>0.0645511850602187</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0517697035714228</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1250531430778641</v>
+        <v>0.06400313188004182</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08122267875350409</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1250531430778641</v>
+        <v>0.06329962756590259</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01495457717471243</v>
+        <v>0.01647805525890947</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1263262119064769</v>
+        <v>0.04521958489942784</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02186406903027942</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1269383204238469</v>
+        <v>0.06538951213892284</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05161893286872901</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1266772098710831</v>
+        <v>0.06483434138497743</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08178459844571001</v>
+        <v>0.1138031851060552</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1266772098710831</v>
+        <v>0.06412170065117404</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01495427982449099</v>
+        <v>0.01650286802018816</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1279457787257907</v>
+        <v>0.04579932316736923</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02174178697550404</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1285657347882552</v>
+        <v>0.06622783921762698</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05149291785427007</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1283012766643021</v>
+        <v>0.06566555088991304</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08174351843123112</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1283012766643021</v>
+        <v>0.06494377373644551</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01396166961578226</v>
+        <v>0.01652631652661001</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1295653455451045</v>
+        <v>0.04637906143531061</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02164714035099184</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1301931491526635</v>
+        <v>0.06706616629633111</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05131051920410654</v>
+        <v>0.07247552255993464</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1299253434575211</v>
+        <v>0.06649676039484864</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08187131252326479</v>
+        <v>0.1139023391798709</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1299253434575211</v>
+        <v>0.06576584682171696</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01497486043111331</v>
+        <v>0.01654841656364602</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1311849123644183</v>
+        <v>0.04695879970325199</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02176075670695209</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1318205635170718</v>
+        <v>0.06790449337503526</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05164742544681192</v>
+        <v>0.0722754514330933</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1315494102507401</v>
+        <v>0.06732796989978426</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08162959075282683</v>
+        <v>0.1141954470095543</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1315494102507401</v>
+        <v>0.06658791990698842</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01599354701086565</v>
+        <v>0.01656918391676716</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1328044791837321</v>
+        <v>0.04753853797119337</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02158221199128446</v>
+        <v>0.03044783070455336</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1334479778814801</v>
+        <v>0.06874282045373939</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05130263532479204</v>
+        <v>0.07257238752549944</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1331734770439591</v>
+        <v>0.06815917940471987</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08141677204539854</v>
+        <v>0.1137818359588784</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1331734770439591</v>
+        <v>0.06740999299225989</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01601742409542084</v>
+        <v>0.01658863437144444</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1344240460030459</v>
+        <v>0.04811827623913476</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02171108215188865</v>
+        <v>0.03044652547068696</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1350753922458884</v>
+        <v>0.06958114753244353</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05207514758045279</v>
+        <v>0.07216492322213691</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1347975438371782</v>
+        <v>0.06899038890965548</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08183127532646112</v>
+        <v>0.11386176514767</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1347975438371782</v>
+        <v>0.06823206607753135</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0140461864251604</v>
+        <v>0.01660678371314885</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1360436128223597</v>
+        <v>0.04869801450707614</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02194694313666437</v>
+        <v>0.03034333669126603</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1367028066102967</v>
+        <v>0.07041947461114768</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05216396095619993</v>
+        <v>0.07205322814975595</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1364216106303972</v>
+        <v>0.06982159841459108</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08127151952149592</v>
+        <v>0.1142354936957558</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1364216106303972</v>
+        <v>0.06905413916280281</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01507952874046586</v>
+        <v>0.01662364772735137</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1376631796416735</v>
+        <v>0.04927775277501752</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02178937089351127</v>
+        <v>0.03023833761398226</v>
       </c>
       <c r="K150" t="n">
-        <v>0.138330220974705</v>
+        <v>0.07125780168985181</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05196807419443925</v>
+        <v>0.07213747193510678</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1380456774236162</v>
+        <v>0.07065280791952669</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08233592355598401</v>
+        <v>0.1135032807229626</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1380456774236162</v>
+        <v>0.06987621224807428</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01511714578171876</v>
+        <v>0.01663924219952301</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1392827464609873</v>
+        <v>0.0498574910429589</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02173794137032907</v>
+        <v>0.03023160148652737</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1399576353391133</v>
+        <v>0.07209612876855595</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05208648603757662</v>
+        <v>0.07241782420493958</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1396697442168352</v>
+        <v>0.0714840174244623</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08232290635540662</v>
+        <v>0.1144653853491172</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1396697442168352</v>
+        <v>0.07069828533334573</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01515873228930063</v>
+        <v>0.01665358291513475</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1409023132803011</v>
+        <v>0.05043722931090028</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02199223051501746</v>
+        <v>0.0305232015565931</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1415850497035216</v>
+        <v>0.07293445584726009</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05211819522801783</v>
+        <v>0.07249445458600462</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1412938110100542</v>
+        <v>0.0723152269293979</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08213088684524517</v>
+        <v>0.1142220666940465</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1412938110100542</v>
+        <v>0.0715203584186172</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01520398300359301</v>
+        <v>0.01666668565965759</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1425218800996149</v>
+        <v>0.05101696757884167</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02195181427547613</v>
+        <v>0.03051321107187116</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1432124640679299</v>
+        <v>0.07377278292596423</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05216220050816869</v>
+        <v>0.07196753270505207</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1429178778032732</v>
+        <v>0.07314643643433352</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08265828395098079</v>
+        <v>0.1136735838775772</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1429178778032732</v>
+        <v>0.07234243150388865</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01525259266497742</v>
+        <v>0.01667856621856251</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1441414469189287</v>
+        <v>0.05159670584678305</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02221626859960477</v>
+        <v>0.03030170328005327</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1448398784323381</v>
+        <v>0.07461111000466836</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05231750062043505</v>
+        <v>0.07233722818883223</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1445419445964922</v>
+        <v>0.07397764593926912</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08290351659809475</v>
+        <v>0.114320196019536</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1445419445964922</v>
+        <v>0.07316450458916013</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0153042560138354</v>
+        <v>0.0166892403773205</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1457610137382425</v>
+        <v>0.05217644411472443</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02208516943530306</v>
+        <v>0.03038875142883114</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1464672927967464</v>
+        <v>0.07544943708337251</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0524830943072227</v>
+        <v>0.07220371066409526</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1461660113897112</v>
+        <v>0.07480885544420474</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08296500371206833</v>
+        <v>0.1139621622397498</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1461660113897112</v>
+        <v>0.07398657767443159</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01636721117162199</v>
+        <v>0.01669872392140257</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1473805805575563</v>
+        <v>0.05275618238266581</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02235816099244652</v>
+        <v>0.03027442876589649</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1480947071611547</v>
+        <v>0.07628776416207665</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05266421523517456</v>
+        <v>0.0720671497575914</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1477900781829303</v>
+        <v>0.07564006494914033</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0828510097165791</v>
+        <v>0.1137997416580454</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1477900781829303</v>
+        <v>0.07480865075970304</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01447729280718658</v>
+        <v>0.0167070326362797</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1490001473768701</v>
+        <v>0.0533359206506072</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02247361210034556</v>
+        <v>0.03045880853894106</v>
       </c>
       <c r="K157" t="n">
-        <v>0.149722121525563</v>
+        <v>0.07712609124078078</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05347534411440166</v>
+        <v>0.07172771509607087</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1494141449761493</v>
+        <v>0.07647127445407595</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08444230980344314</v>
+        <v>0.1134331933942495</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1494141449761493</v>
+        <v>0.07563072384497452</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01663059186480001</v>
+        <v>0.01671418230742288</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1506197141961839</v>
+        <v>0.05391565891854858</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02245541420456407</v>
+        <v>0.03034196399565657</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1513495358899713</v>
+        <v>0.07796441831948493</v>
       </c>
       <c r="L158" t="n">
-        <v>0.053736795378339</v>
+        <v>0.07188557630628389</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1510382117693683</v>
+        <v>0.07730248395901156</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0850709822642548</v>
+        <v>0.113962776568189</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1510382117693683</v>
+        <v>0.07645279693024597</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01581789329335113</v>
+        <v>0.01672018872030311</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1522392810154977</v>
+        <v>0.05449539718648996</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02279076619567992</v>
+        <v>0.03042396838373472</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1529769502543796</v>
+        <v>0.07880274539818906</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05401834347683959</v>
+        <v>0.07174090301498073</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1526622785625873</v>
+        <v>0.07813369346394716</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08568929827535199</v>
+        <v>0.1134887502996906</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1526622785625873</v>
+        <v>0.07727487001551743</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01602998204172881</v>
+        <v>0.01672506766039138</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1538588478348115</v>
+        <v>0.05507513545443134</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02286686696427111</v>
+        <v>0.03020489495086723</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1546043646187879</v>
+        <v>0.0796410724768932</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05498976285975626</v>
+        <v>0.07189386484891155</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1542863453558063</v>
+        <v>0.07896490296888277</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0864495290130729</v>
+        <v>0.1138113737085811</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1542863453558063</v>
+        <v>0.07809694310078889</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01525764305882187</v>
+        <v>0.01672883491315867</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1554784146541253</v>
+        <v>0.05565487372237273</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0232709154009155</v>
+        <v>0.03018481694474583</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1562317789831962</v>
+        <v>0.08047939955559735</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05572082797694203</v>
+        <v>0.07154463143482664</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1559104121490253</v>
+        <v>0.07979611247381838</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08820394565375539</v>
+        <v>0.1128309059146874</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1559104121490253</v>
+        <v>0.07891901618606036</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01649166129351918</v>
+        <v>0.01673150626407598</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1570979814734391</v>
+        <v>0.05623461199031411</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02359011039619106</v>
+        <v>0.03036380761306225</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1578591933476045</v>
+        <v>0.08131772663430148</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05598131327824973</v>
+        <v>0.07149337239947615</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1575344789422443</v>
+        <v>0.080627321978754</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08870481937373753</v>
+        <v>0.1131476060378361</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1575344789422443</v>
+        <v>0.07974108927133182</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01572282169470957</v>
+        <v>0.01673309749861432</v>
       </c>
       <c r="G163" t="n">
-        <v>0.158717548292753</v>
+        <v>0.05681435025825549</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02401165084067569</v>
+        <v>0.03024194020350816</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1594866077120128</v>
+        <v>0.08215605371300562</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05724099321353238</v>
+        <v>0.07144025736961035</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1591585457354634</v>
+        <v>0.08145853148368959</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09030442134935757</v>
+        <v>0.1125617331978541</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1591585457354634</v>
+        <v>0.08056316235660328</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01694190921128191</v>
+        <v>0.01673362440224465</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1603371151120668</v>
+        <v>0.05739408852619688</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02432273562494736</v>
+        <v>0.03021928796377535</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1611140220764211</v>
+        <v>0.08299438079170976</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05816964223264284</v>
+        <v>0.07178545597197938</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1607826125286824</v>
+        <v>0.08228974098862521</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09185502275695329</v>
+        <v>0.1125735465145682</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1607826125286824</v>
+        <v>0.08138523544187475</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01713970879212501</v>
+        <v>0.01673362440224465</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1619566819313806</v>
+        <v>0.05739408852619688</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02451056363958393</v>
+        <v>0.03019592414155552</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1627414364408294</v>
+        <v>0.0838327078704139</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05883703478543395</v>
+        <v>0.07132913783333364</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1624066793219014</v>
+        <v>0.0831209504935608</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09260889477286283</v>
+        <v>0.1124833051078052</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1624066793219014</v>
+        <v>0.08220730852714621</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0163103886181186</v>
+        <v>0.01631759337004438</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1635762487506944</v>
+        <v>0.05739381999773287</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02476233377516336</v>
+        <v>0.03007192198454034</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1643688508052377</v>
+        <v>0.08467103494911803</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05941467749876439</v>
+        <v>0.07187147258042317</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1640307461151204</v>
+        <v>0.08395215999849642</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09372104383450147</v>
+        <v>0.1125912680973918</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1640307461151204</v>
+        <v>0.08302938161241766</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01747249465248195</v>
+        <v>0.01590623097035204</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1651958155700082</v>
+        <v>0.05739355146926885</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02488804881421927</v>
+        <v>0.03004735474042158</v>
       </c>
       <c r="K167" t="n">
-        <v>0.165996265169646</v>
+        <v>0.08550936202782218</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05924706840491775</v>
+        <v>0.07181262983999831</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1656548129083394</v>
+        <v>0.08478336950343202</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09426173628030898</v>
+        <v>0.1129976946031548</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1656548129083394</v>
+        <v>0.08385145469768913</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01863068740434375</v>
+        <v>0.01550012054945625</v>
       </c>
       <c r="G168" t="n">
-        <v>0.166815382389322</v>
+        <v>0.05739328294080483</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02510815591752677</v>
+        <v>0.03012229565689095</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1676236795340543</v>
+        <v>0.08634768910652632</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06036640152490805</v>
+        <v>0.07155277923880923</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1672788797015584</v>
+        <v>0.08561457900836764</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09458180932398291</v>
+        <v>0.1123028437449211</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1672788797015584</v>
+        <v>0.0846735277829606</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0177852592028605</v>
+        <v>0.01509984545369861</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1684349492086358</v>
+        <v>0.05739301441234081</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02562306923310749</v>
+        <v>0.02999681798164017</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1692510938984626</v>
+        <v>0.08718601618523045</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06097363570415823</v>
+        <v>0.07149209040360616</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1689029464947774</v>
+        <v>0.08644578851330324</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09518277706746314</v>
+        <v>0.1130069746425175</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1689029464947774</v>
+        <v>0.08549560086823205</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0189365023771888</v>
+        <v>0.01470598902936755</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1700545160279496</v>
+        <v>0.05739274588387679</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02563319485068084</v>
+        <v>0.02997099496236096</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1708785082628708</v>
+        <v>0.0880243432639346</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0609697297880914</v>
+        <v>0.07113073296113934</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1705270132879964</v>
+        <v>0.08727699801823885</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09636615361268969</v>
+        <v>0.1126103464157706</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1705270132879964</v>
+        <v>0.08631767395350352</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0170847092564852</v>
+        <v>0.01431913462276924</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1716740828472634</v>
+        <v>0.05739247735541278</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02603893885996628</v>
+        <v>0.03014489984674504</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1725059226272792</v>
+        <v>0.08886267034263873</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06135564262213061</v>
+        <v>0.07156887653815899</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1721510800812155</v>
+        <v>0.08810820752317446</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09703345306160249</v>
+        <v>0.1125132181845073</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1721510800812155</v>
+        <v>0.08713974703877497</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01723017216990625</v>
+        <v>0.01393986558019359</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1732936496665772</v>
+        <v>0.05739220882694875</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02624070735068323</v>
+        <v>0.02991860588248409</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1741333369916874</v>
+        <v>0.08970099742134287</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06203233305169883</v>
+        <v>0.07140669076141531</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1737751468744345</v>
+        <v>0.08893941702811006</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09808618951614168</v>
+        <v>0.1126095401104342</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1737751468744345</v>
+        <v>0.08796182012404645</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0183731834466085</v>
+        <v>0.01356876524797982</v>
       </c>
       <c r="G173" t="n">
-        <v>0.174913216485891</v>
+        <v>0.05739194029848474</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02623890641255117</v>
+        <v>0.02989218631726991</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1757607513560957</v>
+        <v>0.09053932450004701</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06260075992221917</v>
+        <v>0.07134047699027113</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1753992136676535</v>
+        <v>0.08977062653304568</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09882587707824719</v>
+        <v>0.1116825378863806</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1753992136676535</v>
+        <v>0.0887838932093179</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01751403541574851</v>
+        <v>0.01320641697241749</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1765327833052048</v>
+        <v>0.05739167177002073</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02643394213528948</v>
+        <v>0.02986282890714118</v>
       </c>
       <c r="K174" t="n">
-        <v>0.177388165720504</v>
+        <v>0.09137765157875115</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06266188207911458</v>
+        <v>0.07095924331432837</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1770232804608725</v>
+        <v>0.09060183603798128</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1000540298498589</v>
+        <v>0.111533724914182</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1770232804608725</v>
+        <v>0.08960596629458936</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01765302040648285</v>
+        <v>0.01285340409981276</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1781523501245187</v>
+        <v>0.05739140324155671</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02652622060861765</v>
+        <v>0.03002687694116668</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1790155800849123</v>
+        <v>0.09221597865745529</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06381665836780812</v>
+        <v>0.07116388824500502</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1786473472540915</v>
+        <v>0.0914330455429169</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09987216193291693</v>
+        <v>0.1123657965032804</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1786473472540915</v>
+        <v>0.09042803937986083</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01779043074796805</v>
+        <v>0.01251030997645717</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1797719169438325</v>
+        <v>0.05739113471309269</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02671614792225509</v>
+        <v>0.02968505861081815</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1806429944493206</v>
+        <v>0.09305430573615943</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06406604763372284</v>
+        <v>0.07105617620375496</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1802714140473106</v>
+        <v>0.09226425504785249</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1009817874293613</v>
+        <v>0.1120814479631181</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1802714140473106</v>
+        <v>0.09125011246513229</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01892658810687389</v>
+        <v>0.0121777179486868</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1813914837631463</v>
+        <v>0.05739086618462867</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02690413016592122</v>
+        <v>0.02983813582303864</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1822704088137289</v>
+        <v>0.09389263281486357</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06401100872228174</v>
+        <v>0.07043787161203213</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1818954808405296</v>
+        <v>0.09309546455278811</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1012844204411318</v>
+        <v>0.1117833746031373</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1818954808405296</v>
+        <v>0.09207218555040375</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01806813355631198</v>
+        <v>0.01185621136279271</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1830110505824601</v>
+        <v>0.05739059765616466</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0270940604592138</v>
+        <v>0.02958687048477121</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1838978231781372</v>
+        <v>0.0947309598935677</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06456558221047642</v>
+        <v>0.0705107388912905</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1835195476337486</v>
+        <v>0.09392667405772372</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1026022322842206</v>
+        <v>0.1112742717327801</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1835195476337486</v>
+        <v>0.09289425863567521</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01821650937984357</v>
+        <v>0.01154637356508111</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1846306174017739</v>
+        <v>0.05739032912770065</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02739513635271942</v>
+        <v>0.02953202450295889</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1855252375425455</v>
+        <v>0.09556928697227185</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06544575142454967</v>
+        <v>0.07067654246298397</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1851436144269676</v>
+        <v>0.09475788356265932</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1027604620479433</v>
+        <v>0.1108568346614888</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1851436144269676</v>
+        <v>0.09371633172094666</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02036669387814827</v>
+        <v>0.01124878790184552</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1862501842210877</v>
+        <v>0.05739006059923662</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02780157192531055</v>
+        <v>0.02947435978454471</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1871526519069538</v>
+        <v>0.09640761405097598</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06613571597955628</v>
+        <v>0.07023704674856646</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1867676812201866</v>
+        <v>0.09558909306759493</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1034341595235138</v>
+        <v>0.1107337586987056</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1867676812201866</v>
+        <v>0.09453840480621814</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02051366535190563</v>
+        <v>0.01096403771941807</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1878697510404015</v>
+        <v>0.05738979207077261</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02780639127183916</v>
+        <v>0.02941463823647175</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1887800662713621</v>
+        <v>0.09724594112968012</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06641900460227135</v>
+        <v>0.07009401616949193</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1883917480134056</v>
+        <v>0.09642030257253054</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1046973151100674</v>
+        <v>0.1107077391538726</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1883917480134056</v>
+        <v>0.0953604778914896</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01865240210179524</v>
+        <v>0.01069270636409176</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1894893178597153</v>
+        <v>0.05738952354230858</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02810261848715725</v>
+        <v>0.02945362176568304</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1904074806357704</v>
+        <v>0.09808426820838427</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06677914601946996</v>
+        <v>0.07004921514721438</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1900158148066246</v>
+        <v>0.09725151207746614</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1052239192067396</v>
+        <v>0.1106814713364321</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1900158148066246</v>
+        <v>0.09618255097676105</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02077788242849665</v>
+        <v>0.0104353771821728</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1911088846790291</v>
+        <v>0.05738925501384457</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02838327766611677</v>
+        <v>0.02959207227912165</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1920348950001787</v>
+        <v>0.0989225952870884</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06719966895792728</v>
+        <v>0.07020440810318762</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1916398815998436</v>
+        <v>0.09808272158240175</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1056879622126659</v>
+        <v>0.1097576505558263</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1916398815998436</v>
+        <v>0.09700462406203253</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01888508463268947</v>
+        <v>0.01019263351995715</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1927284514983429</v>
+        <v>0.05738898648538054</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02824139290356975</v>
+        <v>0.0294307516837306</v>
       </c>
       <c r="K184" t="n">
-        <v>0.193662309364587</v>
+        <v>0.09976092236579254</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06746410214441839</v>
+        <v>0.06976135945886561</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1932639483930627</v>
+        <v>0.09891393108733737</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1063634345269815</v>
+        <v>0.1093389721214973</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1932639483930627</v>
+        <v>0.09782669714730398</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02096898701505325</v>
+        <v>0.009965058723772159</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1943480183176567</v>
+        <v>0.05738871795691653</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02866998829436813</v>
+        <v>0.02937042188645296</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1952897237289953</v>
+        <v>0.1005992494444967</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06775597430571845</v>
+        <v>0.06992183363570234</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1948880151862817</v>
+        <v>0.09974514059227298</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1066243265488219</v>
+        <v>0.1095281313428874</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1948880151862817</v>
+        <v>0.09864877023257546</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01902807196096763</v>
+        <v>0.00975323613991317</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1959675851369705</v>
+        <v>0.05738844942845252</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02846229600455419</v>
+        <v>0.02911184479423176</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1969171380934036</v>
+        <v>0.1014375765232008</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06826218730595615</v>
+        <v>0.06968759505515174</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1965120819795007</v>
+        <v>0.1005763500972086</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1068499551602866</v>
+        <v>0.1097278235294387</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1965120819795007</v>
+        <v>0.0994708433178469</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0190820666276689</v>
+        <v>0.009557749114686376</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1975871519562843</v>
+        <v>0.0573881808999885</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0285371837543056</v>
+        <v>0.02905578231401006</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1985445524578119</v>
+        <v>0.102275903601905</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06823913105914856</v>
+        <v>0.06946040813866769</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1981361487727197</v>
+        <v>0.1014075596021442</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1080293650354788</v>
+        <v>0.1098407439905935</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1981361487727197</v>
+        <v>0.1002929164031184</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0191348822390117</v>
+        <v>0.009379180994390592</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1992067187755981</v>
+        <v>0.05738791237152448</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02891045104679182</v>
+        <v>0.02930299635273087</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2001719668222201</v>
+        <v>0.1031142306806091</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06851223113567906</v>
+        <v>0.06904203730770417</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1997602155659387</v>
+        <v>0.1022387691070798</v>
       </c>
       <c r="N188" t="n">
-        <v>0.108202705404418</v>
+        <v>0.1088695880357939</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1997602155659387</v>
+        <v>0.1011149894883898</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02018650031446301</v>
+        <v>0.009218115125347592</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2008262855949119</v>
+        <v>0.05738764384306046</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02868207220973801</v>
+        <v>0.0289542488173373</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2017993811866284</v>
+        <v>0.1039525577593132</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06828142691903333</v>
+        <v>0.06943424698371509</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2013842823591577</v>
+        <v>0.1030699786120154</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1085698805482539</v>
+        <v>0.1093170509744822</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2013842823591577</v>
+        <v>0.1019370625736613</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01923690237348982</v>
+        <v>0.009072907230826273</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2024458524142257</v>
+        <v>0.05738737531459645</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02895202157086919</v>
+        <v>0.02911030161477235</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2034267955510367</v>
+        <v>0.1047908848380174</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06854665779269703</v>
+        <v>0.06893880158815435</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2030083491523767</v>
+        <v>0.103901188116951</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1082307947481355</v>
+        <v>0.1091858281161005</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2030083491523767</v>
+        <v>0.1027591356589328</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02028606993555906</v>
+        <v>0.008930717028563469</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2040654192335395</v>
+        <v>0.05738710678613244</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02882027345791051</v>
+        <v>0.02897191665197907</v>
       </c>
       <c r="K191" t="n">
-        <v>0.205054209915445</v>
+        <v>0.1056292119167215</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06860786314015588</v>
+        <v>0.068757465542476</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2046324159455958</v>
+        <v>0.1047323976218866</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1091853522852123</v>
+        <v>0.108378614770091</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2046324159455958</v>
+        <v>0.1035812087442042</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02033398452013776</v>
+        <v>0.008789752299708603</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2056849860528533</v>
+        <v>0.05738683825766841</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02908680219858704</v>
+        <v>0.02893985583590054</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2066816242798533</v>
+        <v>0.1064675389954257</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06866498234489557</v>
+        <v>0.06879182732313815</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2062564827388148</v>
+        <v>0.1055636071268222</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1086334574406334</v>
+        <v>0.1083868664413861</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2062564827388148</v>
+        <v>0.1044032818294757</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02038062764669289</v>
+        <v>0.008650442016192118</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2073045528721671</v>
+        <v>0.0573865697292044</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0292515821206239</v>
+        <v>0.02881390235799799</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2083090386442616</v>
+        <v>0.1073058660741298</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06921795479040174</v>
+        <v>0.06873347499916679</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2078805495320338</v>
+        <v>0.1063948166317578</v>
       </c>
       <c r="N193" t="n">
-        <v>0.108875014495548</v>
+        <v>0.1081979863506284</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2078805495320338</v>
+        <v>0.1052253549147471</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02142598083469142</v>
+        <v>0.008513215149925986</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2089241196914809</v>
+        <v>0.05738630120074038</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02931458755174615</v>
+        <v>0.02908944121071061</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2099364530086699</v>
+        <v>0.1081441931528339</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06966671986016015</v>
+        <v>0.06837695021340606</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2095046163252528</v>
+        <v>0.1072260261366935</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1092099277311055</v>
+        <v>0.1087118608607443</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2095046163252528</v>
+        <v>0.1060474280000186</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02047002560360032</v>
+        <v>0.008378500672828353</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2105436865107948</v>
+        <v>0.05738603267227636</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02937579281967891</v>
+        <v>0.02896575282779239</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2115638673730782</v>
+        <v>0.1089825202315381</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06931121693765641</v>
+        <v>0.06842219642692457</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2111286831184718</v>
+        <v>0.1080572356416291</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1091381014284553</v>
+        <v>0.1082284036035278</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2111286831184718</v>
+        <v>0.1068695010852901</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0215127434728866</v>
+        <v>0.008246727556811703</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2121632533301085</v>
+        <v>0.05738576414381234</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0294351722521473</v>
+        <v>0.02884281279477918</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2131912817374865</v>
+        <v>0.1098208473102422</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06955138540637629</v>
+        <v>0.0687691571007909</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2127527499116908</v>
+        <v>0.1088884451465646</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1096594398687465</v>
+        <v>0.1087475282107727</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2127527499116908</v>
+        <v>0.1076915741705615</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01955411596201719</v>
+        <v>0.008118324773805662</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2137828201494224</v>
+        <v>0.05738549561534832</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02939270017687637</v>
+        <v>0.02902059669720676</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2148186961018948</v>
+        <v>0.1106591743889463</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06978716464980544</v>
+        <v>0.0685177756960737</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2143768167049098</v>
+        <v>0.1097196546515003</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1106738473331285</v>
+        <v>0.108669148314273</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2143768167049098</v>
+        <v>0.108513647255833</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02159412459045914</v>
+        <v>0.007993721295722588</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2154023869687362</v>
+        <v>0.05738522708688431</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02954835092159125</v>
+        <v>0.02889908012061096</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2164461104663031</v>
+        <v>0.1114975014676505</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06961849405142953</v>
+        <v>0.06816799567384155</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2160008834981288</v>
+        <v>0.1105508641564359</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1105812281027504</v>
+        <v>0.1086931775458229</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2160008834981288</v>
+        <v>0.1093357203411044</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01963275087767936</v>
+        <v>0.007873346094480607</v>
       </c>
       <c r="G199" t="n">
-        <v>0.21702195378805</v>
+        <v>0.0573849585584203</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02940209881401701</v>
+        <v>0.02897823865052762</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2180735248307114</v>
+        <v>0.1123358285463546</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0697453129947343</v>
+        <v>0.06871976049516307</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2176249502913479</v>
+        <v>0.1113820736613715</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1101814864587616</v>
+        <v>0.1084195295372161</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2176249502913479</v>
+        <v>0.1101577934263759</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02166997634314489</v>
+        <v>0.007757628141992948</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2186415206073638</v>
+        <v>0.05738469002995627</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02965391818187878</v>
+        <v>0.02885804787249253</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2197009391951197</v>
+        <v>0.1131741556250588</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06996756086320532</v>
+        <v>0.0687730136211068</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2192490170845669</v>
+        <v>0.1122132831663071</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1106745266823114</v>
+        <v>0.1074481179202466</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2192490170845669</v>
+        <v>0.1109798665116474</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01970578250632265</v>
+        <v>0.007646996410187845</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2202610874266776</v>
+        <v>0.05738442150149226</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02940378335290164</v>
+        <v>0.02883848337204155</v>
       </c>
       <c r="K201" t="n">
-        <v>0.221328353559528</v>
+        <v>0.1140124827037629</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07028517704032844</v>
+        <v>0.0685276985127414</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2208730838777859</v>
+        <v>0.1130444926712427</v>
       </c>
       <c r="N201" t="n">
-        <v>0.110660253054549</v>
+        <v>0.1077788563267085</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2208730838777859</v>
+        <v>0.1118019395969189</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02074015088667965</v>
+        <v>0.007541879870978298</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2218806542459914</v>
+        <v>0.05738415297302824</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02945166865481066</v>
+        <v>0.02881952073471043</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2229557679239363</v>
+        <v>0.114850809782467</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07029810090958924</v>
+        <v>0.06838375863113544</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2224971506710049</v>
+        <v>0.1138757021761783</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1111385698566237</v>
+        <v>0.1078116583883957</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2224971506710049</v>
+        <v>0.1126240126821903</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02177306300368289</v>
+        <v>0.007442707496282452</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2235002210653052</v>
+        <v>0.05738388444456423</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02949754841533098</v>
+        <v>0.02870113554603507</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2245831822883445</v>
+        <v>0.1156891368611712</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07060627185447343</v>
+        <v>0.06834113743735748</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2241212174642239</v>
+        <v>0.1147069116811139</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1108093813696848</v>
+        <v>0.1080464377371022</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2241212174642239</v>
+        <v>0.1134460857674618</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0208045003767993</v>
+        <v>0.00734990825801457</v>
       </c>
       <c r="G204" t="n">
-        <v>0.225119787884619</v>
+        <v>0.0573836159161002</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02984139696218766</v>
+        <v>0.02868330339155123</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2262105966527529</v>
+        <v>0.1165274639398753</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07090962925846675</v>
+        <v>0.0682997783924762</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2257452842574429</v>
+        <v>0.1155381211860495</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1112725918748816</v>
+        <v>0.108183108004622</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2257452842574429</v>
+        <v>0.1142681588527332</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01983444452549591</v>
+        <v>0.007263911128100882</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2267393547039328</v>
+        <v>0.05738334738763619</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02958318862310583</v>
+        <v>0.02876599985679477</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2278380110171611</v>
+        <v>0.1173657910185794</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07090811250505488</v>
+        <v>0.06845962495756019</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2273693510506619</v>
+        <v>0.1163693306909851</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1121281056533633</v>
+        <v>0.107121582822749</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2273693510506619</v>
+        <v>0.1150902319380047</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02086287696923966</v>
+        <v>0.007185145078455343</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2283589215232466</v>
+        <v>0.05738307885917217</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02992289772581057</v>
+        <v>0.02884920052730149</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2294654253815694</v>
+        <v>0.1182041180972836</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07080166097772342</v>
+        <v>0.06832062059367797</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2289934178438809</v>
+        <v>0.1172005401959207</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1122758269862792</v>
+        <v>0.1072617758232772</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2289934178438809</v>
+        <v>0.1159123050232762</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02188977922749755</v>
+        <v>0.007114039080996115</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2299784883425604</v>
+        <v>0.05738281033070815</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02976049859802696</v>
+        <v>0.02853288098860719</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2310928397459777</v>
+        <v>0.1190424451759877</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07049021405995815</v>
+        <v>0.06828270876189821</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2306174846371</v>
+        <v>0.1180317497008564</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1113156601547787</v>
+        <v>0.1078036006380005</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2306174846371</v>
+        <v>0.1167343781085476</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02091513281973655</v>
+        <v>0.007051022107638784</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2315980551618742</v>
+        <v>0.05738254180224413</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02979596556748013</v>
+        <v>0.02861701682624772</v>
       </c>
       <c r="K208" t="n">
-        <v>0.232720254110386</v>
+        <v>0.1198807722546919</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07087371113524468</v>
+        <v>0.06844583292328948</v>
       </c>
       <c r="M208" t="n">
-        <v>0.232241551430319</v>
+        <v>0.118862959205792</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1124475094400108</v>
+        <v>0.107546970898713</v>
       </c>
       <c r="O208" t="n">
-        <v>0.232241551430319</v>
+        <v>0.1175564511938191</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02193891926542368</v>
+        <v>0.006996523130306985</v>
       </c>
       <c r="G209" t="n">
-        <v>0.233217621981188</v>
+        <v>0.05738227327378011</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02992927296189517</v>
+        <v>0.02880158362575889</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2343476684747943</v>
+        <v>0.120719099333396</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0712520915870688</v>
+        <v>0.06820993653892041</v>
       </c>
       <c r="M209" t="n">
-        <v>0.233865618223538</v>
+        <v>0.1196941687107275</v>
       </c>
       <c r="N209" t="n">
-        <v>0.111771279123125</v>
+        <v>0.1079918002372086</v>
       </c>
       <c r="O209" t="n">
-        <v>0.233865618223538</v>
+        <v>0.1183785242790905</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02096112008402583</v>
+        <v>0.006950971120915944</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2348371888005019</v>
+        <v>0.0573820047453161</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02976039510899715</v>
+        <v>0.02848655697267653</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2359750828392026</v>
+        <v>0.1215574264121002</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07132529479891611</v>
+        <v>0.06787496306985957</v>
       </c>
       <c r="M210" t="n">
-        <v>0.235489685016757</v>
+        <v>0.1205253782156632</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1122868734852706</v>
+        <v>0.1077380022852813</v>
       </c>
       <c r="O210" t="n">
-        <v>0.235489685016757</v>
+        <v>0.119200597364362</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01998171679501006</v>
+        <v>0.006914795051383815</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2364567556198157</v>
+        <v>0.05738173621685209</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02998930633651119</v>
+        <v>0.02847191245253644</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2376024972036109</v>
+        <v>0.1223957534908043</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07089326015427233</v>
+        <v>0.06794085597717556</v>
       </c>
       <c r="M211" t="n">
-        <v>0.237113751809976</v>
+        <v>0.1213565877205988</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1122941968075968</v>
+        <v>0.1070854906747249</v>
       </c>
       <c r="O211" t="n">
-        <v>0.237113751809976</v>
+        <v>0.1200226704496335</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02200069091784333</v>
+        <v>0.006888423893627815</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2380763224391295</v>
+        <v>0.05738146768838806</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02981598097216238</v>
+        <v>0.02845762565087444</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2392299115680192</v>
+        <v>0.1232340805695084</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07095592703662315</v>
+        <v>0.06780755872193703</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2387378186031951</v>
+        <v>0.1221877972255344</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1119931533712527</v>
+        <v>0.1075341790373338</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2387378186031951</v>
+        <v>0.1208447435349049</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02201802397199259</v>
+        <v>0.006872286619568381</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2396958892584433</v>
+        <v>0.05738119915992405</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03014039334367581</v>
+        <v>0.02844367215322637</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2408573259324275</v>
+        <v>0.1240724076482126</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07131323482945429</v>
+        <v>0.06817501476521248</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2403618853964141</v>
+        <v>0.12301900673047</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1130836474573879</v>
+        <v>0.1069839810049015</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2403618853964141</v>
+        <v>0.1216668166201764</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02003369747692486</v>
+        <v>0.00686681220112232</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2413154560777571</v>
+        <v>0.05738093063146003</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02986251777877658</v>
+        <v>0.02873002754512802</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2424847402968358</v>
+        <v>0.1249107347269167</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07096512291625134</v>
+        <v>0.06804316756807061</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2419859521896331</v>
+        <v>0.1238502162354056</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1127655833471515</v>
+        <v>0.1072348102092222</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2419859521896331</v>
+        <v>0.1224888897054479</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02104769295210709</v>
+        <v>0.00686681220112232</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2429350228970709</v>
+        <v>0.05738093063146003</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0298823286051898</v>
+        <v>0.02871666741211523</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2441121546612441</v>
+        <v>0.1257490618056208</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07151153068050012</v>
+        <v>0.06761196059157998</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2436100189828521</v>
+        <v>0.1246814257403412</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1132388653216929</v>
+        <v>0.1075865802820899</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2436100189828521</v>
+        <v>0.1233109627907193</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02005999191700627</v>
+        <v>0.006638297164591793</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2445545897163847</v>
+        <v>0.05736610334826473</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03019980015064055</v>
+        <v>0.02860356733972381</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2457395690256524</v>
+        <v>0.126587388884325</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07105239750568623</v>
+        <v>0.06778133729680913</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2452340857760711</v>
+        <v>0.1255126352452768</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1128033976621611</v>
+        <v>0.1071392048552985</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2452340857760711</v>
+        <v>0.1241330358759908</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02107057589108938</v>
+        <v>0.006414924779905858</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2461741565356985</v>
+        <v>0.05735127606506944</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03011490674285394</v>
+        <v>0.0286907029134896</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2473669833900607</v>
+        <v>0.1274257159630291</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07108766277529543</v>
+        <v>0.06775124114482678</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2468581525692901</v>
+        <v>0.1263438447502124</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1127590846497056</v>
+        <v>0.1075925975606418</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2468581525692901</v>
+        <v>0.1249551089612622</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02107942639382341</v>
+        <v>0.006197075870469956</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2477937233550123</v>
+        <v>0.05733644878187414</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03002762270955504</v>
+        <v>0.0283780497189484</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2489943977544689</v>
+        <v>0.1282640430417332</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07131726587281328</v>
+        <v>0.06802161559670145</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2484822193625091</v>
+        <v>0.1271750542551481</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1133058305654758</v>
+        <v>0.1073466720299142</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2484822193625091</v>
+        <v>0.1257771820465337</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02108652494467531</v>
+        <v>0.005985131259689538</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2494132901743261</v>
+        <v>0.05732162149867884</v>
       </c>
       <c r="J219" t="n">
-        <v>0.030037922378469</v>
+        <v>0.02846558334163603</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2506218121188772</v>
+        <v>0.1291023701204374</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07124114618172567</v>
+        <v>0.06789240411350175</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2501062861557281</v>
+        <v>0.1280062637600836</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1126435396906206</v>
+        <v>0.1071013418949092</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2501062861557281</v>
+        <v>0.1265992551318052</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02109185306311209</v>
+        <v>0.005779471770970199</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2510328569936399</v>
+        <v>0.05730679421548355</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02994578007732088</v>
+        <v>0.0284532793670883</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2522492264832856</v>
+        <v>0.1299406971991416</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07165924308551805</v>
+        <v>0.06766355015629627</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2517303529489472</v>
+        <v>0.1288374732650193</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1129721163062896</v>
+        <v>0.1074565207874211</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2517303529489472</v>
+        <v>0.1274213282170766</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02209539226860072</v>
+        <v>0.00558047822771706</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2526524238129537</v>
+        <v>0.05729196693228825</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03025117013383577</v>
+        <v>0.02844111338084107</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2538766408476938</v>
+        <v>0.1307790242778457</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0716714959676763</v>
+        <v>0.06733499718615366</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2533544197421662</v>
+        <v>0.1296686827699549</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1127914646936319</v>
+        <v>0.1074121223392438</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2533544197421662</v>
+        <v>0.1282434013023481</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02209712408060818</v>
+        <v>0.005388531453335725</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2542719906322675</v>
+        <v>0.05727713964909296</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03025406687573877</v>
+        <v>0.02852906096843012</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2555040552121022</v>
+        <v>0.1316173513565498</v>
       </c>
       <c r="L222" t="n">
-        <v>0.071377844211686</v>
+        <v>0.06760668866414241</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2549784865353852</v>
+        <v>0.1304998922748905</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1130014891337969</v>
+        <v>0.1062680601821712</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2549784865353852</v>
+        <v>0.1290654743876195</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02108866330017072</v>
+        <v>0.005204012271231642</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2558915574515813</v>
+        <v>0.05726231236589766</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03004972955169313</v>
+        <v>0.02861709771539128</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2571314695765105</v>
+        <v>0.132455678435254</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07156103619739934</v>
+        <v>0.06787856805133127</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2566025533286042</v>
+        <v>0.1313311017798261</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1132749477889383</v>
+        <v>0.1069242479479972</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2566025533286042</v>
+        <v>0.129887547472891</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0200310909591793</v>
+        <v>0.005027301504810254</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2575111242708951</v>
+        <v>0.05724748508270236</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02988471406242621</v>
+        <v>0.02840519920726035</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2587588839409187</v>
+        <v>0.1332940055139581</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07109244858373956</v>
+        <v>0.06775057880878874</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2582266201218232</v>
+        <v>0.1321623112847617</v>
       </c>
       <c r="N224" t="n">
-        <v>0.112608732998974</v>
+        <v>0.106180599268516</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2582266201218232</v>
+        <v>0.1307096205581625</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01992441140618798</v>
+        <v>0.004858779977476989</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2591306910902089</v>
+        <v>0.05723265779950706</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03005026644753565</v>
+        <v>0.02839334102957321</v>
       </c>
       <c r="K225" t="n">
-        <v>0.260386298305327</v>
+        <v>0.1341323325926622</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07116114026884104</v>
+        <v>0.06722266439758343</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2598506869150422</v>
+        <v>0.1329935207896973</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1116855677939542</v>
+        <v>0.1069370277755214</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2598506869150422</v>
+        <v>0.1315316936434339</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02177438582507112</v>
+        <v>0.00469882851263731</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2607502579095227</v>
+        <v>0.05721783051631176</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02975438986883651</v>
+        <v>0.02858149876786562</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2620137126697353</v>
+        <v>0.1349706596713664</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07088600804991099</v>
+        <v>0.06759476827878397</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2614747537082612</v>
+        <v>0.1338247302946329</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1113352918921731</v>
+        <v>0.1064934471008074</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2614747537082612</v>
+        <v>0.1323537667287054</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02158677539970313</v>
+        <v>0.004547827933696652</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2623698247288365</v>
+        <v>0.05720300323311647</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02960508748814387</v>
+        <v>0.0283696480076734</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2636411270341436</v>
+        <v>0.1358089867500705</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06988594872415657</v>
+        <v>0.06716683391345893</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2630988205014802</v>
+        <v>0.1346559397995685</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1108877450119249</v>
+        <v>0.1063497708761679</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2630988205014802</v>
+        <v>0.1331758398139768</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02036734131395834</v>
+        <v>0.004406159064060458</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2639893915481504</v>
+        <v>0.05718817594992116</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02931036246727274</v>
+        <v>0.02825776433453242</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2652685413985519</v>
+        <v>0.1366473138287747</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06887985908878497</v>
+        <v>0.06723880476267691</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2647228872946993</v>
+        <v>0.1354871493045041</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1098727668715039</v>
+        <v>0.1069059127333971</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2647228872946993</v>
+        <v>0.1339979128992483</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02112184475171112</v>
+        <v>0.00427420272713417</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2656089583674642</v>
+        <v>0.05717334866672587</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02897821796803819</v>
+        <v>0.02834582333397843</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2668959557629602</v>
+        <v>0.1374856409074788</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06818663594100344</v>
+        <v>0.06741062428750652</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2663469540879183</v>
+        <v>0.1363183588094397</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1081201971892043</v>
+        <v>0.1067617863042887</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2663469540879183</v>
+        <v>0.1348199859845198</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02085604689683587</v>
+        <v>0.004152339746323321</v>
       </c>
       <c r="G230" t="n">
-        <v>0.267228525186778</v>
+        <v>0.05715852138353058</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02851665715225525</v>
+        <v>0.02823380059154733</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2685233701273685</v>
+        <v>0.1383239679861829</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06762517607801907</v>
+        <v>0.0676822359490164</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2679710208811373</v>
+        <v>0.1371495683143753</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1067598756833206</v>
+        <v>0.106117305220637</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2679710208811373</v>
+        <v>0.1356420590697912</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02057570893320693</v>
+        <v>0.004040950945033164</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2688480920060918</v>
+        <v>0.05714369410033528</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02813368318173899</v>
+        <v>0.02832167169277486</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2701507844917768</v>
+        <v>0.1391622950648871</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06701437629703907</v>
+        <v>0.06705358320827506</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2695950876743563</v>
+        <v>0.137980777819311</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1047216420721468</v>
+        <v>0.1062723831142356</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2695950876743563</v>
+        <v>0.1364641321550627</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01828659204469869</v>
+        <v>0.003940417146669241</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2704676588254056</v>
+        <v>0.05712886681713998</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02763729921830445</v>
+        <v>0.02820941291956312</v>
       </c>
       <c r="K232" t="n">
-        <v>0.271778198856185</v>
+        <v>0.1400006221435912</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0656731333952707</v>
+        <v>0.06752464639014411</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2712191544675753</v>
+        <v>0.1388119873242465</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1033353360739772</v>
+        <v>0.1068271716854164</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2712191544675753</v>
+        <v>0.1372862052403342</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0199944574151855</v>
+        <v>0.003851119174636992</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2720872256447194</v>
+        <v>0.05711403953394469</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02743550842376667</v>
+        <v>0.02839715157213643</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2734056132205934</v>
+        <v>0.1408389492222954</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0644203441699211</v>
+        <v>0.06699582986320338</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2728432212607944</v>
+        <v>0.1396431968291822</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1028307974071061</v>
+        <v>0.1060823023803939</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2728432212607944</v>
+        <v>0.1381082783256056</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01770506622854176</v>
+        <v>0.003773437852341868</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2737067924640332</v>
+        <v>0.05709921225074938</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02673631395994072</v>
+        <v>0.02818499676150144</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2750330275850016</v>
+        <v>0.1416772763009995</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06377490541819744</v>
+        <v>0.06696726346884888</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2744672880540133</v>
+        <v>0.1404744063341178</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1008378657898278</v>
+        <v>0.1062378220038693</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2744672880540133</v>
+        <v>0.1389303514108771</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01842417966864181</v>
+        <v>0.003707754003189311</v>
       </c>
       <c r="G235" t="n">
-        <v>0.275326359283347</v>
+        <v>0.05708438496755409</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02654771898864162</v>
+        <v>0.02827295060637021</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2766604419494099</v>
+        <v>0.1425156033797036</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06315571393730696</v>
+        <v>0.06693895211358675</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2760913548472324</v>
+        <v>0.1413056158390534</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09888638094043639</v>
+        <v>0.1066937380509637</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2760913548472324</v>
+        <v>0.1397524244961486</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01715755891936004</v>
+        <v>0.003654448450584748</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2769459261026608</v>
+        <v>0.05706955768435878</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02597772667168446</v>
+        <v>0.02826101522545491</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2782878563138182</v>
+        <v>0.1433539304584077</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06238166652445673</v>
+        <v>0.06741090070392319</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2777154216404514</v>
+        <v>0.142136825343989</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09770618257722624</v>
+        <v>0.1062500580167981</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2777154216404514</v>
+        <v>0.14057449758142</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01691096516457081</v>
+        <v>0.003613902017933643</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2785654929219746</v>
+        <v>0.05705473040116349</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02563434017088426</v>
+        <v>0.02814919273746766</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2799152706782266</v>
+        <v>0.1441922575371119</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06097165997685408</v>
+        <v>0.06748311414636446</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2793394884336704</v>
+        <v>0.1429680348489246</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09622711041849175</v>
+        <v>0.1061067893964938</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2793394884336704</v>
+        <v>0.1413965706666915</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01668122168108574</v>
+        <v>0.003586495528641424</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2801850597412884</v>
+        <v>0.05703990311796819</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02561703122870006</v>
+        <v>0.02833748526112059</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2815426850426349</v>
+        <v>0.1450305846158161</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06052076855369962</v>
+        <v>0.06755559734741665</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2809635552268894</v>
+        <v>0.1437992443538602</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09604138628276476</v>
+        <v>0.1055639396851716</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2809635552268894</v>
+        <v>0.1422186437519629</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0174512896131359</v>
+        <v>0.003572609806113541</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2818046265606022</v>
+        <v>0.05702507583477289</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02500083998998617</v>
+        <v>0.02842589491512586</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2831700994070431</v>
+        <v>0.1458689116945202</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05967095951850629</v>
+        <v>0.06692835521358609</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2825876220201085</v>
+        <v>0.1446304538587958</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09405737133359926</v>
+        <v>0.1057215163779528</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2825876220201085</v>
+        <v>0.1430407168372344</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01622048865683105</v>
+        <v>0.003571070644849871</v>
       </c>
       <c r="G240" t="n">
-        <v>0.283424193379916</v>
+        <v>0.0570102485515776</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02468344983902013</v>
+        <v>0.02841442381819555</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2847975137714515</v>
+        <v>0.1467072387732243</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05871831151004855</v>
+        <v>0.06730139265137886</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2842116888133274</v>
+        <v>0.1454616633637314</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09326887339392886</v>
+        <v>0.1058795269699587</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2842116888133274</v>
+        <v>0.1438627899225059</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01698880516371296</v>
+        <v>0.003572928694822522</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2850437601992298</v>
+        <v>0.05699542126838231</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02466484181601483</v>
+        <v>0.02840307408904182</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2864249281358597</v>
+        <v>0.1475455658519285</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0580627797611129</v>
+        <v>0.06747471456730128</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2858357556065464</v>
+        <v>0.146292872868667</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09147582177235397</v>
+        <v>0.10633797895631</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2858357556065464</v>
+        <v>0.1446848630077773</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01775622548532337</v>
+        <v>0.003577009750531365</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2866633270185436</v>
+        <v>0.05698059398518701</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02414499696118313</v>
+        <v>0.02819184784637679</v>
       </c>
       <c r="K242" t="n">
-        <v>0.288052342500268</v>
+        <v>0.1483838929306326</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05760431950448608</v>
+        <v>0.06684832586785944</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2874598223997655</v>
+        <v>0.1471240823736026</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09047814577747559</v>
+        <v>0.1061968798321282</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2874598223997655</v>
+        <v>0.1455069360930488</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01552273597320406</v>
+        <v>0.00358369463538185</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2882828938378574</v>
+        <v>0.05696576670199171</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02402389631473793</v>
+        <v>0.02838074720891261</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2896797568646763</v>
+        <v>0.1492222200093367</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05634288597295473</v>
+        <v>0.06672223145955958</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2890838891929844</v>
+        <v>0.1479552918785382</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08947577471789447</v>
+        <v>0.1053562370925341</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2890838891929844</v>
+        <v>0.1463290091783203</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01628832297889676</v>
+        <v>0.003593364172779417</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2899024606571712</v>
+        <v>0.05695093941879641</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02360152091689208</v>
+        <v>0.0283697742953614</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2913071712290846</v>
+        <v>0.1500605470880409</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05577843439930552</v>
+        <v>0.06689643624890793</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2907079559862035</v>
+        <v>0.1487865013834739</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08796863790221127</v>
+        <v>0.106016058232649</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2907079559862035</v>
+        <v>0.1471510822635917</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01505297285394324</v>
+        <v>0.003606399186129511</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2915220274764851</v>
+        <v>0.05693611213560111</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02307785180785848</v>
+        <v>0.02815893122443529</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2929345855934929</v>
+        <v>0.150898874166745</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05501092001632504</v>
+        <v>0.06737094514241065</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2923320227794225</v>
+        <v>0.1496177108884095</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08765666463902705</v>
+        <v>0.106376350747594</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2923320227794225</v>
+        <v>0.1479731553488632</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01581667194988527</v>
+        <v>0.003623180498837579</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2931415942957988</v>
+        <v>0.05692128485240582</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02295287002784997</v>
+        <v>0.02814822011484643</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2945619999579012</v>
+        <v>0.1517372012454491</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05434029805680007</v>
+        <v>0.06694576304657393</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2939560895726415</v>
+        <v>0.1504489203933451</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08643978423694243</v>
+        <v>0.1062371221324901</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2939560895726415</v>
+        <v>0.1487952284341346</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01457940661826459</v>
+        <v>0.00364408893430905</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2947611611151127</v>
+        <v>0.05690645756921051</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02262655661707946</v>
+        <v>0.02833764308530691</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2961894143223094</v>
+        <v>0.1525755283241533</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05336652375351714</v>
+        <v>0.06662089486790404</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2955801563658605</v>
+        <v>0.1512801298982807</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08481792600455823</v>
+        <v>0.1062983798824585</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2955801563658605</v>
+        <v>0.1496173015194061</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01434116321062296</v>
+        <v>0.003669505315949381</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2963807279344264</v>
+        <v>0.05689163028601522</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02209889261575979</v>
+        <v>0.02832720225452891</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2978168286867178</v>
+        <v>0.1534138554028574</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05288955233926301</v>
+        <v>0.06709634551290711</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2972042231590796</v>
+        <v>0.1521113394032163</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08349101925047536</v>
+        <v>0.1052601314926204</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2972042231590796</v>
+        <v>0.1504393746046776</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01610192807850213</v>
+        <v>0.003699810467164014</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2980002947537403</v>
+        <v>0.05687680300281992</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02186985906410387</v>
+        <v>0.02821689974122453</v>
       </c>
       <c r="K249" t="n">
-        <v>0.299444243051126</v>
+        <v>0.1542521824815616</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0518093390468243</v>
+        <v>0.06677211988808934</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2988282899522985</v>
+        <v>0.1529425489081519</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08235899328329449</v>
+        <v>0.1054223844580967</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2988282899522985</v>
+        <v>0.151261447689949</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01386168757344388</v>
+        <v>0.003735385211358341</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2996198615730541</v>
+        <v>0.05686197571962463</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02153943700232455</v>
+        <v>0.02800673766410591</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3010716574155343</v>
+        <v>0.1550905095602657</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05132583910898764</v>
+        <v>0.06664822289995698</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3004523567455176</v>
+        <v>0.1537737584130875</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08092177741161644</v>
+        <v>0.1051851462740086</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3004523567455176</v>
+        <v>0.1520835207752205</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01462042804698993</v>
+        <v>0.00377661037193789</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3012394283923679</v>
+        <v>0.05684714843642933</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02110760747063473</v>
+        <v>0.02799671814188516</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3026990717799427</v>
+        <v>0.1559288366389699</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05063900775853969</v>
+        <v>0.06682465945501614</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3020764235387365</v>
+        <v>0.1546049679180231</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08007930094404209</v>
+        <v>0.1055484244354772</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3020764235387365</v>
+        <v>0.1529055938604919</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01537813585068208</v>
+        <v>0.003823866772308067</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3028589952116817</v>
+        <v>0.05683232115323403</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02077435150924725</v>
+        <v>0.02828684329327445</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3043264861443509</v>
+        <v>0.156767163717674</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05004880022826713</v>
+        <v>0.06690143445977309</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3037004903319556</v>
+        <v>0.1554361774229587</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07873149318917211</v>
+        <v>0.1052122264376236</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3037004903319556</v>
+        <v>0.1537276669457634</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01313479733606205</v>
+        <v>0.003877535235874308</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3044785620309955</v>
+        <v>0.05681749387003874</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02053965015837501</v>
+        <v>0.02797711523698591</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3059539005087593</v>
+        <v>0.1576054907963781</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04865517175095666</v>
+        <v>0.06707855282073408</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3053245571251746</v>
+        <v>0.1562673869278943</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07667828345560745</v>
+        <v>0.1059765597755691</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3053245571251746</v>
+        <v>0.1545497400310349</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01489039885467161</v>
+        <v>0.003937996586042054</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3060981288503093</v>
+        <v>0.05680266658684344</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02020348445823089</v>
+        <v>0.02826753609173162</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3075813148731675</v>
+        <v>0.1584438178750823</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04785807755939486</v>
+        <v>0.06655601944440517</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3069486239183936</v>
+        <v>0.1570985964328299</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07561960105194887</v>
+        <v>0.1056414319444345</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3069486239183936</v>
+        <v>0.1553718131163063</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01264492675805253</v>
+        <v>0.004005631646216756</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3077176956696231</v>
+        <v>0.05678783930364814</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01996583544902773</v>
+        <v>0.02795810797622378</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3092087292375759</v>
+        <v>0.1592821449537864</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04705747288636838</v>
+        <v>0.06643383923729265</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3085726907116126</v>
+        <v>0.1579298059377655</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07415537528679705</v>
+        <v>0.1056068504393411</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3085726907116126</v>
+        <v>0.1561938862015778</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01239836739774655</v>
+        <v>0.004080821239803863</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3093372624889369</v>
+        <v>0.05677301202045284</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01942668417097847</v>
+        <v>0.02794883300917446</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3108361436019841</v>
+        <v>0.1601204720324906</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04685331296466394</v>
+        <v>0.06701201710590274</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3101967575048317</v>
+        <v>0.1587610154427011</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07378553546875294</v>
+        <v>0.10507282275541</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3101967575048317</v>
+        <v>0.1570159592868492</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01315070712529545</v>
+        <v>0.004163946190208809</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3109568293082507</v>
+        <v>0.05675818473725754</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01908601166429592</v>
+        <v>0.02793971330929582</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3124635579663924</v>
+        <v>0.1609587991111947</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04584555302706819</v>
+        <v>0.06659055795674154</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3118208242980507</v>
+        <v>0.1595922249476368</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07271001090641721</v>
+        <v>0.1053393563877622</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3118208242980507</v>
+        <v>0.1578380323721207</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01390193229224094</v>
+        <v>0.004255387320837037</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3125763961275645</v>
+        <v>0.05674335745406225</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01874379896919298</v>
+        <v>0.02793075099529999</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3140909723308007</v>
+        <v>0.1617971261898988</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0448341483063677</v>
+        <v>0.06706946669631536</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3134448910912697</v>
+        <v>0.1604234344525724</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07102873090839079</v>
+        <v>0.104906458831519</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3134448910912697</v>
+        <v>0.1586601054573922</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01265202925012482</v>
+        <v>0.004355525455093982</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3141959629468783</v>
+        <v>0.05672853017086694</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01840002712588253</v>
+        <v>0.02812194818589911</v>
       </c>
       <c r="K259" t="n">
-        <v>0.315718386695209</v>
+        <v>0.162635453268603</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04371905403534926</v>
+        <v>0.06644874823113034</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3150689578844887</v>
+        <v>0.161254643957508</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06964162478327446</v>
+        <v>0.1056741375818014</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3150689578844887</v>
+        <v>0.1594821785426636</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01240098435048883</v>
+        <v>0.004464741416385011</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3158155297661921</v>
+        <v>0.05671370288767166</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01805467717457743</v>
+        <v>0.0282133069998053</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3173458010596173</v>
+        <v>0.1634737803473071</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04310022544679942</v>
+        <v>0.06652840746769267</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3166930246777077</v>
+        <v>0.1620858534624436</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06804862183966887</v>
+        <v>0.1050424001337303</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3166930246777077</v>
+        <v>0.1603042516279351</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01314878394487474</v>
+        <v>0.004583416028115732</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3174350965855059</v>
+        <v>0.05669887560447636</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01790773015549056</v>
+        <v>0.02810482955573068</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3189732154240256</v>
+        <v>0.1643121074260112</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04237761777350491</v>
+        <v>0.06690844931250858</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3183170914709267</v>
+        <v>0.1629170629673792</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06684965138617499</v>
+        <v>0.1055112539824273</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3183170914709267</v>
+        <v>0.1611263247132066</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01089541438482429</v>
+        <v>0.004711930113691511</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3190546634048197</v>
+        <v>0.05668404832128107</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01735916710883481</v>
+        <v>0.02819651797238742</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3206006297884339</v>
+        <v>0.1651504345047154</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04135118624825238</v>
+        <v>0.06638887867208429</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3199411582641457</v>
+        <v>0.1637482724723148</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06584464273139357</v>
+        <v>0.1046807066230132</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3199411582641457</v>
+        <v>0.161948397798478</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01264086202187923</v>
+        <v>0.004850664496517783</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3206742302241336</v>
+        <v>0.05666922103808576</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01710896907482304</v>
+        <v>0.02788837436848761</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3222280441528422</v>
+        <v>0.1659887615834195</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04062088610382839</v>
+        <v>0.06696970045292588</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3215652250573648</v>
+        <v>0.1645794819772504</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06453352518392536</v>
+        <v>0.1049507655506089</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3215652250573648</v>
+        <v>0.1627704708837495</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01038511320758135</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3222937970434473</v>
+        <v>0.05665439375489047</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01675711709366814</v>
+        <v>0.0280804008627434</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3238554585172504</v>
+        <v>0.1668270886621236</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0398866725730197</v>
+        <v>0.06695091956153973</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3231892918505838</v>
+        <v>0.165410691482186</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06261622805237127</v>
+        <v>0.104721438260336</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3231892918505838</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.163592543969021</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05664123586015362</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005283671276674694</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05664150438861763</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005564549956297966</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05664177291708165</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005842549148688765</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05664204144554567</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006117581963629805</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05664230997400969</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006389561510940174</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0566425785024737</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006658400900426784</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05664284703093771</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006924013241908049</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05664311555940174</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007186311645167753</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05664338408786575</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007445209220024472</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05664365261632977</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007700619076285088</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05664392114479379</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.00795245432376742</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05664418967325782</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008200628072256473</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05664445820172183</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008445053431570183</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05664472673018584</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008685643511515483</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05664499525864986</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.00892231142190951</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05664526378711388</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.00915497027253856</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0566455323155779</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009383533173219945</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05664580084404191</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009607913233760597</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05664606937250592</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009828023563976905</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05664633790096995</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01004377727365663</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05664660642943396</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01025508747261637</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05664687495789798</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01046186727066302</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.056647143486362</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01066402977761222</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05664741201482602</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01086148810325328</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05664768054329004</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01105451015902375</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05664794907175405</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01124513786446105</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05664821760021806</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01143363913100206</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05664848612868209</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01161992706843727</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0566487546571461</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01180391478658185</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05664902318561012</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01198551539524274</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05664929171407413</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01216464200423457</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05664956024253816</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01234120772334869</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05664982877100217</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01251512566239985</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05665009729946618</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01268630893119496</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0566503658279302</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01285467063954823</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05665063435639422</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0130201238972519</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05665090288485825</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01318258181412029</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05665117141332226</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01334195749996031</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05665143994178627</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01349816406458561</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0566517084702503</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01365111461778951</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05665197699871431</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01380072226938579</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05665224552717833</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01394690012918137</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05665251405564234</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01408956130698932</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05665278258410637</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.0142286189126041</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05665305111257038</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01436398605583894</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05665331964103439</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01449557584650076</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05665358816949841</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01462330139440193</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05665385669796243</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01474707580933827</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05665412522642645</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01486681220112233</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05665439375489047</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01486681220112233</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05664123586015362</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0149757455831481</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05665660020027694</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01508217327513625</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05667196454040029</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01518591845031522</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05668732888052361</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01528680428191378</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05670269322064695</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.0153846539431604</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05671805756077028</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01547929060728375</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05673342190089361</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01557053744751253</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05674878624101694</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0156582176370752</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05676415058114027</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01574215434920045</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0567795149212636</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01582217075711696</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05679487926138694</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01589809003405319</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05681024360151027</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01596973535323792</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0568256079416336</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01603692988789961</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05684097228175693</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01609949681126695</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05685633662188026</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0161572592965686</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0568717009620036</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01621004051703305</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05688706530212693</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01625766364588904</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05690242964225026</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01629995185636508</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05691779398237359</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01633672832168982</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05693315832249692</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01636781621509191</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05694852266262026</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01639303870979991</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05696388700274359</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01641221897904246</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05697925134286692</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01642518019604816</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05699461568299025</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01643174553404564</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05700998002311358</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01643246020891333</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05702534436323692</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01643147964977883</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05704070870336025</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01642934907252059</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05705607304348357</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01642589165036722</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05707143738360691</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01642093055654734</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05708680172373024</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01641428896428954</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05710216606385358</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01640579004682246</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05711753040397691</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0163952569773747</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05713289474410024</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01638251292917486</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05714825908422357</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01636738107545159</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0571636234243469</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01634968458943346</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05717898776447024</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01632924664434911</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05719435210459357</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01630589041342716</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0572097164447169</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01627943906989618</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05722508078484023</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01624971578698483</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05724044512496356</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01621654373792168</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0572558094650869</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01617974609593539</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05727117380521023</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01613914603425456</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05728653814533356</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01609456672610775</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05730190248545689</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01604583134472365</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05731726682558022</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01599276306333084</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05733263116570355</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.0159351850551579</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05734799550582689</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01587292049343349</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05736335984595022</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01580579255138618</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05737872418607355</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01573362440224465</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05739408852619688</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01573362440224465</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05739408852619688</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01605547930915491</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05897643302743448</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01637093757067599</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06055877752867209</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01667986139715484</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06214112202990968</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01698211299893838</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06372346653114729</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0172775545863736</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06530581103238488</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01756604836980741</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06688815553362248</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01784745655958678</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06847050003486008</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01812164136605864</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07005284453609768</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01838846499956993</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07163518903733528</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01864778967046762</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07321753353857288</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01889947758909864</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07479987803981049</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01914339096580994</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07638222254104808</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01937939201094847</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07796456704228567</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01960734293486116</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07954691154352328</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01982710594789498</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08112925604476089</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02003854326039686</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08271160054599849</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02024151708271375</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08429394504723609</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02043588962519259</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08587628954847368</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02062152309818033</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08745863404971128</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02079827971202395</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08904097855094888</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02096602167707035</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0906233230521865</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02112461120366647</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09220566755342408</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02127391050215931</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09378801205466168</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02141378178289576</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09537035655589929</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0215440872562228</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09695270105713688</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02166468913248738</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09853504555837449</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02177544962203642</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1001173900596121</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02187623093521687</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1016997345608497</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02196689528237569</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1032820790620873</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02204730487385983</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1048644235633249</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02211732192001622</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1064467680645625</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02217680863119182</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1080291125658001</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02222562721773357</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1096114570670377</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02226363988998841</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1111938015682753</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02229070885830329</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1127761460695129</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02231149920299288</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1143584905707505</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0223114835736779</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1159408350719881</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0223085957492132</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1175231795732257</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02230097112189506</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1191055240744633</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02228896944482587</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1206878685757009</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02227295047110799</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1222702130769385</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02225327395384385</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1238525575781761</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0222302996461358</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1254349020794137</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02220438730108622</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1270172465806513</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02217589667179754</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1285995910818889</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02214518751137213</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1301819355831265</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02211261957291234</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1317642800843641</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.0220785526095206</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1333466245856017</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02204334637429926</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1349289690868393</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02200736062035074</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1365113135880769</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0219707124799606</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1380936580893145</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02192262115888276</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1396760025905521</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02185983474995067</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1412583470917897</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02178609532858067</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1428406915930273</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02170514497018918</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1444230360942649</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02162072575019255</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1460053805955025</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02153657974400713</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1475877250967401</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02145644902704932</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1491700695979777</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02138407567473544</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02132320176248193</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1523347586004529</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02127756936570514</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1539171031016905</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02124345373616286</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1554994476029281</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02121142291600946</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1570817921041657</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02118127267365273</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1586641366054033</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02115288309843028</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1602464811066409</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02112613427967971</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1618288256078785</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02110090630673867</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1634111701091161</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02107707926894477</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1649935146103537</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02105453325563562</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1665758591115913</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02103314835614883</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1681582036128289</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02101280465982203</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1697405481140665</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02099338225599284</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1713228926153041</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02097476123399886</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1729052371165417</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02095682168317774</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1744875816177793</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02093944369286707</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1760699261190169</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02092250735240449</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1776522706202545</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0209058927511276</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1792346151214921</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02088947997837402</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1808169596227297</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02087314912348139</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1823993041239673</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0208567802757873</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1839816486252049</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02084025352462938</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1855639931264425</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02082344895934526</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1871463376276801</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02080659788550952</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1887286821289177</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02079002842206901</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1903110266301553</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02077375099363899</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1918933711313929</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02075777600618913</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1934757156326305</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02074211386568917</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1950580601338681</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02072677497810884</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1966404046351057</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02071176974941784</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1982227491363433</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02069710858558591</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1998050936375809</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02068280189258279</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2013874381388185</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02066886007637817</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2029697826400561</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02065529354294178</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2045521271412937</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02064211269824336</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2061344716425313</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02062932794825262</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2077168161437689</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02061694969893928</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2092991606450065</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02060498835627307</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2108815051462441</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02059345432622371</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2124638496474817</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02058235801476093</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2140461941487193</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
